--- a/tools/廣韻反切查音工具.xlsx
+++ b/tools/廣韻反切查音工具.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F7E46B-1B80-42CF-9F2F-ED998785A6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB7A50F-683C-45DE-9056-130C57504560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" xr2:uid="{A3AA0022-8200-F44B-B604-2F2D57F4DE47}"/>
+    <workbookView xWindow="-23040" yWindow="1035" windowWidth="22200" windowHeight="12975" xr2:uid="{A3AA0022-8200-F44B-B604-2F2D57F4DE47}"/>
   </bookViews>
   <sheets>
     <sheet name="反切" sheetId="16" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10557" uniqueCount="2758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10560" uniqueCount="2763">
   <si>
     <t>查詢漢字</t>
   </si>
@@ -8574,6 +8574,26 @@
   </si>
   <si>
     <t>紙A</t>
+  </si>
+  <si>
+    <t>不</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>方久</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>方</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>久</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>入</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10484,75 +10504,6 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
@@ -10561,30 +10512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
@@ -10597,6 +10524,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
@@ -10616,103 +10552,88 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10727,6 +10648,57 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10736,13 +10708,76 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10757,37 +10792,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10799,10 +10822,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10829,13 +10849,13 @@
     <xf numFmtId="0" fontId="30" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13038,11 +13058,11 @@
   <sheetPr codeName="Worksheet___2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:H27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="27" customHeight="1"/>
@@ -13054,7 +13074,7 @@
     <col min="10" max="16384" width="8.765625" style="156"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="27" customHeight="1">
+    <row r="1" spans="2:8" ht="27" customHeight="1">
       <c r="C1" s="157" t="s">
         <v>0</v>
       </c>
@@ -13064,29 +13084,15 @@
       <c r="E1" s="157"/>
       <c r="F1" s="157"/>
     </row>
-    <row r="2" spans="2:9" ht="27" customHeight="1">
+    <row r="2" spans="2:8" ht="27" customHeight="1">
       <c r="C2" s="158" t="s">
-        <v>2</v>
+        <v>2758</v>
       </c>
       <c r="D2" s="159" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="156">
-        <f xml:space="preserve"> FIND("《", $D$2)</f>
-        <v>7</v>
-      </c>
-      <c r="H2" s="156">
-        <f xml:space="preserve"> FIND("》", $D$2)</f>
-        <v>17</v>
-      </c>
-      <c r="I2" s="156" t="str">
-        <f>MID($D2, G2+1,H2-G2-1)</f>
-        <v>廣韻·入聲·薛·哲</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" ht="27" customHeight="1">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" ht="27" customHeight="1">
       <c r="G3" s="156" t="s">
         <v>4</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="27" customHeight="1">
+    <row r="4" spans="2:8" ht="27" customHeight="1">
       <c r="C4" s="160" t="s">
         <v>5</v>
       </c>
@@ -13111,17 +13117,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="27" customHeight="1">
+    <row r="5" spans="2:8" ht="27" customHeight="1">
       <c r="B5" s="161" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="162" t="str">
-        <f xml:space="preserve"> LEFT(TRIM($D$2),1)</f>
-        <v>陟</v>
+      <c r="C5" s="162" t="s">
+        <v>2760</v>
       </c>
       <c r="D5" s="154" t="str">
         <f>E13</f>
-        <v>t</v>
+        <v>p</v>
       </c>
       <c r="E5" s="163" t="str">
         <f>F13</f>
@@ -13134,21 +13139,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="27" customHeight="1">
+    <row r="6" spans="2:8" ht="27" customHeight="1">
       <c r="B6" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="163" t="str">
-        <f xml:space="preserve"> MID(TRIM($D$2),2,1)</f>
-        <v>列</v>
+      <c r="C6" s="163" t="s">
+        <v>2761</v>
       </c>
       <c r="D6" s="154" t="str">
         <f>E16</f>
-        <v>iat</v>
-      </c>
-      <c r="E6" s="163" t="str">
-        <f xml:space="preserve"> MID(I2,  FIND( "聲", $I2)-1, 1)</f>
-        <v>入</v>
+        <v>iu</v>
+      </c>
+      <c r="E6" s="163" t="s">
+        <v>2762</v>
       </c>
       <c r="G6" s="156" t="s">
         <v>12</v>
@@ -13157,12 +13160,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="27" customHeight="1">
+    <row r="7" spans="2:8" ht="27" customHeight="1">
       <c r="B7" s="156" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="155">
-        <f xml:space="preserve"> INDEX($G$3:$H$10, MATCH(E7, $G$3:$G$10,0), 2)</f>
+        <f xml:space="preserve"> IFERROR( INDEX($G$3:$H$10, MATCH(E7, $G$3:$G$10,0), 2), "找不到")</f>
         <v>4</v>
       </c>
       <c r="E7" s="157" t="str">
@@ -13176,21 +13179,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="27" customHeight="1">
+    <row r="8" spans="2:8" ht="27" customHeight="1">
       <c r="B8" s="164" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="165" t="str">
         <f xml:space="preserve"> C2</f>
-        <v>哲</v>
+        <v>不</v>
       </c>
       <c r="D8" s="166" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(D5:D7)</f>
-        <v>tiat4</v>
+        <f xml:space="preserve"> IF(OR(D5="找不到", D6="找不到"), "找不到", _xlfn.CONCAT(D5:D7))</f>
+        <v>piu4</v>
       </c>
       <c r="E8" s="165" t="str">
-        <f xml:space="preserve"> _xlfn.CONCAT(C8, " [", D8, "]")</f>
-        <v>哲 [tiat4]</v>
+        <f xml:space="preserve"> IF(OR(D5="找不到", D6="找不到"), "找不到",  _xlfn.CONCAT(C8, " [", D8, "]"))</f>
+        <v>不 [piu4]</v>
       </c>
       <c r="G8" s="156" t="s">
         <v>16</v>
@@ -13199,7 +13202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="27" customHeight="1">
+    <row r="9" spans="2:8" ht="27" customHeight="1">
       <c r="G9" s="156" t="s">
         <v>17</v>
       </c>
@@ -13207,7 +13210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="27" customHeight="1">
+    <row r="10" spans="2:8" ht="27" customHeight="1">
       <c r="B10" s="167" t="s">
         <v>18</v>
       </c>
@@ -13218,10 +13221,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="27" customHeight="1">
+    <row r="11" spans="2:8" ht="27" customHeight="1">
       <c r="B11" s="167"/>
     </row>
-    <row r="12" spans="2:9" ht="27" customHeight="1">
+    <row r="12" spans="2:8" ht="27" customHeight="1">
       <c r="B12" s="168" t="s">
         <v>9</v>
       </c>
@@ -13238,31 +13241,31 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="27" customHeight="1">
+    <row r="13" spans="2:8" ht="27" customHeight="1">
       <c r="B13" s="169" t="str">
         <f>C5</f>
-        <v>陟</v>
+        <v>方</v>
       </c>
       <c r="C13" s="170" cm="1">
-        <f t="array" ref="C13">MATCH(TRUE,ISNUMBER(SEARCH(B13,反切上字清單)),0)</f>
-        <v>9</v>
+        <f t="array" ref="C13" xml:space="preserve"> IFERROR( MATCH(TRUE,ISNUMBER(SEARCH(B13,反切上字清單)),0), "")</f>
+        <v>1</v>
       </c>
       <c r="D13" s="170">
         <v>4</v>
       </c>
       <c r="E13" s="171" t="str" cm="1">
-        <f t="array" ref="E13">INDEX(反切上字與聲母對映表[],$C$13, D13)</f>
-        <v>t</v>
+        <f t="array" ref="E13" xml:space="preserve"> IFERROR( INDEX(反切上字與聲母對映表[],$C$13, D13), "找不到")</f>
+        <v>p</v>
       </c>
       <c r="F13" s="171" t="str" cm="1">
-        <f t="array" ref="F13">INDEX(反切上字與聲母對映表[],$C$13,6)</f>
+        <f t="array" ref="F13" xml:space="preserve"> IFERROR( INDEX(反切上字與聲母對映表[],$C$13,6), "")</f>
         <v>全清</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="27" customHeight="1">
+    <row r="14" spans="2:8" ht="27" customHeight="1">
       <c r="B14" s="157"/>
     </row>
-    <row r="15" spans="2:9" ht="27" customHeight="1">
+    <row r="15" spans="2:8" ht="27" customHeight="1">
       <c r="B15" s="157" t="s">
         <v>11</v>
       </c>
@@ -13276,21 +13279,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="27" customHeight="1">
+    <row r="16" spans="2:8" ht="27" customHeight="1">
       <c r="B16" s="170" t="str">
         <f xml:space="preserve"> C6</f>
-        <v>列</v>
+        <v>久</v>
       </c>
       <c r="C16" s="170" cm="1">
-        <f t="array" ref="C16">MATCH(TRUE,ISNUMBER(SEARCH(B16,反切下字清單)),0)</f>
-        <v>97</v>
+        <f t="array" ref="C16" xml:space="preserve"> IFERROR( MATCH(TRUE,ISNUMBER(SEARCH(B16,反切下字清單)),0), "")</f>
+        <v>158</v>
       </c>
       <c r="D16" s="170">
         <v>9</v>
       </c>
       <c r="E16" s="171" t="str" cm="1">
-        <f t="array" ref="E16" xml:space="preserve"> INDEX(反切下字表[], C16, D16)</f>
-        <v>iat</v>
+        <f t="array" ref="E16" xml:space="preserve"> IFERROR( INDEX(反切下字表[], C16, D16), "找不到")</f>
+        <v>iu</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="27" customHeight="1">
@@ -25976,48 +25979,48 @@
       <c r="D1" s="28"/>
     </row>
     <row r="2" spans="2:20" ht="30">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="252" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="252" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="228" t="s">
+      <c r="D2" s="252" t="s">
         <v>1882</v>
       </c>
-      <c r="E2" s="230" t="s">
+      <c r="E2" s="254" t="s">
         <v>1883</v>
       </c>
-      <c r="F2" s="231"/>
-      <c r="G2" s="230" t="s">
+      <c r="F2" s="255"/>
+      <c r="G2" s="254" t="s">
         <v>1884</v>
       </c>
-      <c r="H2" s="231"/>
-      <c r="I2" s="230" t="s">
+      <c r="H2" s="255"/>
+      <c r="I2" s="254" t="s">
         <v>1885</v>
       </c>
-      <c r="J2" s="231"/>
-      <c r="K2" s="230" t="s">
+      <c r="J2" s="255"/>
+      <c r="K2" s="254" t="s">
         <v>1886</v>
       </c>
-      <c r="L2" s="231"/>
-      <c r="M2" s="213" t="s">
+      <c r="L2" s="255"/>
+      <c r="M2" s="249" t="s">
         <v>1887</v>
       </c>
-      <c r="N2" s="214"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="215"/>
-      <c r="Q2" s="213" t="s">
+      <c r="N2" s="250"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="251"/>
+      <c r="Q2" s="249" t="s">
         <v>1888</v>
       </c>
-      <c r="R2" s="214"/>
-      <c r="S2" s="214"/>
-      <c r="T2" s="215"/>
+      <c r="R2" s="250"/>
+      <c r="S2" s="250"/>
+      <c r="T2" s="251"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="229"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="229"/>
+      <c r="B3" s="253"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="253"/>
       <c r="E3" s="91" t="s">
         <v>1889</v>
       </c>
@@ -26068,7 +26071,7 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="220" t="s">
         <v>170</v>
       </c>
       <c r="C4" s="239" t="s">
@@ -26111,21 +26114,21 @@
         <v>1900</v>
       </c>
       <c r="P4" s="92"/>
-      <c r="Q4" s="219" t="s">
+      <c r="Q4" s="232" t="s">
         <v>1898</v>
       </c>
-      <c r="R4" s="221" t="s">
+      <c r="R4" s="230" t="s">
         <v>1899</v>
       </c>
-      <c r="S4" s="221" t="s">
+      <c r="S4" s="230" t="s">
         <v>1900</v>
       </c>
-      <c r="T4" s="221" t="s">
+      <c r="T4" s="230" t="s">
         <v>1901</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="217"/>
+      <c r="B5" s="221"/>
       <c r="C5" s="239"/>
       <c r="D5" s="103" t="s">
         <v>743</v>
@@ -26142,19 +26145,19 @@
       <c r="J5" s="89"/>
       <c r="K5" s="89"/>
       <c r="L5" s="89"/>
-      <c r="M5" s="223"/>
-      <c r="N5" s="224"/>
-      <c r="O5" s="225"/>
+      <c r="M5" s="240"/>
+      <c r="N5" s="241"/>
+      <c r="O5" s="242"/>
       <c r="P5" s="92" t="s">
         <v>1901</v>
       </c>
-      <c r="Q5" s="220"/>
-      <c r="R5" s="222"/>
-      <c r="S5" s="222"/>
-      <c r="T5" s="222"/>
+      <c r="Q5" s="234"/>
+      <c r="R5" s="235"/>
+      <c r="S5" s="235"/>
+      <c r="T5" s="235"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="217"/>
+      <c r="B6" s="221"/>
       <c r="C6" s="239" t="s">
         <v>184</v>
       </c>
@@ -26179,21 +26182,21 @@
         <v>1903</v>
       </c>
       <c r="P6" s="92"/>
-      <c r="Q6" s="219" t="s">
+      <c r="Q6" s="232" t="s">
         <v>1902</v>
       </c>
-      <c r="R6" s="221" t="s">
+      <c r="R6" s="230" t="s">
         <v>1904</v>
       </c>
-      <c r="S6" s="221" t="s">
+      <c r="S6" s="230" t="s">
         <v>1903</v>
       </c>
-      <c r="T6" s="221" t="s">
+      <c r="T6" s="230" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="217"/>
+      <c r="B7" s="221"/>
       <c r="C7" s="239"/>
       <c r="D7" s="103" t="s">
         <v>743</v>
@@ -26208,19 +26211,19 @@
       <c r="J7" s="89"/>
       <c r="K7" s="89"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="225"/>
+      <c r="M7" s="240"/>
+      <c r="N7" s="241"/>
+      <c r="O7" s="242"/>
       <c r="P7" s="92" t="s">
         <v>1905</v>
       </c>
-      <c r="Q7" s="226"/>
-      <c r="R7" s="227"/>
-      <c r="S7" s="227"/>
-      <c r="T7" s="227"/>
+      <c r="Q7" s="233"/>
+      <c r="R7" s="231"/>
+      <c r="S7" s="231"/>
+      <c r="T7" s="231"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="217"/>
+      <c r="B8" s="221"/>
       <c r="C8" s="239" t="s">
         <v>187</v>
       </c>
@@ -26247,13 +26250,13 @@
         <v>1907</v>
       </c>
       <c r="P8" s="92"/>
-      <c r="Q8" s="226"/>
-      <c r="R8" s="227"/>
-      <c r="S8" s="227"/>
-      <c r="T8" s="227"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="231"/>
+      <c r="S8" s="231"/>
+      <c r="T8" s="231"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="218"/>
+      <c r="B9" s="222"/>
       <c r="C9" s="239"/>
       <c r="D9" s="103" t="s">
         <v>743</v>
@@ -26268,19 +26271,19 @@
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
       <c r="L9" s="89"/>
-      <c r="M9" s="223"/>
-      <c r="N9" s="224"/>
-      <c r="O9" s="225"/>
+      <c r="M9" s="240"/>
+      <c r="N9" s="241"/>
+      <c r="O9" s="242"/>
       <c r="P9" s="92" t="s">
         <v>1908</v>
       </c>
-      <c r="Q9" s="220"/>
-      <c r="R9" s="222"/>
-      <c r="S9" s="222"/>
-      <c r="T9" s="222"/>
+      <c r="Q9" s="234"/>
+      <c r="R9" s="235"/>
+      <c r="S9" s="235"/>
+      <c r="T9" s="235"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="216" t="s">
+      <c r="B10" s="220" t="s">
         <v>190</v>
       </c>
       <c r="C10" s="239" t="s">
@@ -26309,21 +26312,21 @@
         <v>1912</v>
       </c>
       <c r="P10" s="92"/>
-      <c r="Q10" s="219" t="s">
+      <c r="Q10" s="232" t="s">
         <v>1913</v>
       </c>
-      <c r="R10" s="221" t="s">
+      <c r="R10" s="230" t="s">
         <v>1911</v>
       </c>
-      <c r="S10" s="221" t="s">
+      <c r="S10" s="230" t="s">
         <v>1914</v>
       </c>
-      <c r="T10" s="221" t="s">
+      <c r="T10" s="230" t="s">
         <v>1915</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="218"/>
+      <c r="B11" s="222"/>
       <c r="C11" s="239"/>
       <c r="D11" s="103" t="s">
         <v>743</v>
@@ -26338,19 +26341,19 @@
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
-      <c r="M11" s="223"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="225"/>
+      <c r="M11" s="240"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="242"/>
       <c r="P11" s="92" t="s">
         <v>1916</v>
       </c>
-      <c r="Q11" s="220"/>
-      <c r="R11" s="222"/>
-      <c r="S11" s="222"/>
-      <c r="T11" s="222"/>
+      <c r="Q11" s="234"/>
+      <c r="R11" s="235"/>
+      <c r="S11" s="235"/>
+      <c r="T11" s="235"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="216" t="s">
+      <c r="B12" s="220" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -26380,20 +26383,20 @@
       <c r="O12" s="92" t="s">
         <v>1919</v>
       </c>
-      <c r="P12" s="221"/>
-      <c r="Q12" s="219" t="s">
+      <c r="P12" s="230"/>
+      <c r="Q12" s="232" t="s">
         <v>1920</v>
       </c>
-      <c r="R12" s="221" t="s">
+      <c r="R12" s="230" t="s">
         <v>1918</v>
       </c>
-      <c r="S12" s="221" t="s">
+      <c r="S12" s="230" t="s">
         <v>1921</v>
       </c>
-      <c r="T12" s="221"/>
+      <c r="T12" s="230"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="217"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="16" t="s">
         <v>235</v>
       </c>
@@ -26421,14 +26424,14 @@
       <c r="O13" s="92" t="s">
         <v>1924</v>
       </c>
-      <c r="P13" s="227"/>
-      <c r="Q13" s="226"/>
-      <c r="R13" s="227"/>
-      <c r="S13" s="227"/>
-      <c r="T13" s="227"/>
+      <c r="P13" s="231"/>
+      <c r="Q13" s="233"/>
+      <c r="R13" s="231"/>
+      <c r="S13" s="231"/>
+      <c r="T13" s="231"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="217"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="16" t="s">
         <v>252</v>
       </c>
@@ -26454,14 +26457,14 @@
       <c r="O14" s="92" t="s">
         <v>1927</v>
       </c>
-      <c r="P14" s="222"/>
-      <c r="Q14" s="220"/>
-      <c r="R14" s="222"/>
-      <c r="S14" s="222"/>
-      <c r="T14" s="222"/>
+      <c r="P14" s="235"/>
+      <c r="Q14" s="234"/>
+      <c r="R14" s="235"/>
+      <c r="S14" s="235"/>
+      <c r="T14" s="235"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="218"/>
+      <c r="B15" s="222"/>
       <c r="C15" s="16" t="s">
         <v>255</v>
       </c>
@@ -26502,7 +26505,7 @@
       <c r="T15" s="92"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="216" t="s">
+      <c r="B16" s="220" t="s">
         <v>262</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -26543,7 +26546,7 @@
       <c r="T16" s="92"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="217"/>
+      <c r="B17" s="221"/>
       <c r="C17" s="16" t="s">
         <v>271</v>
       </c>
@@ -26568,20 +26571,20 @@
       <c r="O17" s="92" t="s">
         <v>1943</v>
       </c>
-      <c r="P17" s="221"/>
-      <c r="Q17" s="219" t="s">
+      <c r="P17" s="230"/>
+      <c r="Q17" s="232" t="s">
         <v>1944</v>
       </c>
-      <c r="R17" s="221" t="s">
+      <c r="R17" s="230" t="s">
         <v>1945</v>
       </c>
-      <c r="S17" s="221" t="s">
+      <c r="S17" s="230" t="s">
         <v>1946</v>
       </c>
-      <c r="T17" s="221"/>
+      <c r="T17" s="230"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="218"/>
+      <c r="B18" s="222"/>
       <c r="C18" s="16" t="s">
         <v>267</v>
       </c>
@@ -26607,14 +26610,14 @@
       <c r="O18" s="92" t="s">
         <v>1949</v>
       </c>
-      <c r="P18" s="222"/>
-      <c r="Q18" s="220"/>
-      <c r="R18" s="222"/>
-      <c r="S18" s="222"/>
-      <c r="T18" s="222"/>
+      <c r="P18" s="235"/>
+      <c r="Q18" s="234"/>
+      <c r="R18" s="235"/>
+      <c r="S18" s="235"/>
+      <c r="T18" s="235"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="216" t="s">
+      <c r="B19" s="220" t="s">
         <v>275</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -26644,20 +26647,20 @@
       <c r="O19" s="92" t="s">
         <v>1953</v>
       </c>
-      <c r="P19" s="221"/>
-      <c r="Q19" s="219" t="s">
+      <c r="P19" s="230"/>
+      <c r="Q19" s="232" t="s">
         <v>1954</v>
       </c>
-      <c r="R19" s="221" t="s">
+      <c r="R19" s="230" t="s">
         <v>1955</v>
       </c>
-      <c r="S19" s="221" t="s">
+      <c r="S19" s="230" t="s">
         <v>1956</v>
       </c>
-      <c r="T19" s="221"/>
+      <c r="T19" s="230"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="217"/>
+      <c r="B20" s="221"/>
       <c r="C20" s="16" t="s">
         <v>317</v>
       </c>
@@ -26676,19 +26679,19 @@
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
-      <c r="M20" s="223"/>
-      <c r="N20" s="225"/>
+      <c r="M20" s="240"/>
+      <c r="N20" s="242"/>
       <c r="O20" s="92" t="s">
         <v>1957</v>
       </c>
-      <c r="P20" s="222"/>
-      <c r="Q20" s="220"/>
-      <c r="R20" s="222"/>
-      <c r="S20" s="222"/>
-      <c r="T20" s="222"/>
+      <c r="P20" s="235"/>
+      <c r="Q20" s="234"/>
+      <c r="R20" s="235"/>
+      <c r="S20" s="235"/>
+      <c r="T20" s="235"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="217"/>
+      <c r="B21" s="221"/>
       <c r="C21" s="16" t="s">
         <v>276</v>
       </c>
@@ -26707,21 +26710,21 @@
       <c r="J21" s="89"/>
       <c r="K21" s="89"/>
       <c r="L21" s="89"/>
-      <c r="M21" s="223"/>
-      <c r="N21" s="225"/>
+      <c r="M21" s="240"/>
+      <c r="N21" s="242"/>
       <c r="O21" s="92" t="s">
         <v>1958</v>
       </c>
       <c r="P21" s="92"/>
-      <c r="Q21" s="223"/>
-      <c r="R21" s="225"/>
+      <c r="Q21" s="240"/>
+      <c r="R21" s="242"/>
       <c r="S21" s="96" t="s">
         <v>1959</v>
       </c>
       <c r="T21" s="92"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="217"/>
+      <c r="B22" s="221"/>
       <c r="C22" s="16" t="s">
         <v>301</v>
       </c>
@@ -26749,20 +26752,20 @@
       <c r="O22" s="92" t="s">
         <v>1962</v>
       </c>
-      <c r="P22" s="221"/>
-      <c r="Q22" s="219" t="s">
+      <c r="P22" s="230"/>
+      <c r="Q22" s="232" t="s">
         <v>1963</v>
       </c>
-      <c r="R22" s="221" t="s">
+      <c r="R22" s="230" t="s">
         <v>1964</v>
       </c>
-      <c r="S22" s="221" t="s">
+      <c r="S22" s="230" t="s">
         <v>1965</v>
       </c>
-      <c r="T22" s="221"/>
+      <c r="T22" s="230"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="217"/>
+      <c r="B23" s="221"/>
       <c r="C23" s="16" t="s">
         <v>310</v>
       </c>
@@ -26790,14 +26793,14 @@
       <c r="O23" s="92" t="s">
         <v>1969</v>
       </c>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="226"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="227"/>
+      <c r="P23" s="231"/>
+      <c r="Q23" s="233"/>
+      <c r="R23" s="231"/>
+      <c r="S23" s="231"/>
+      <c r="T23" s="231"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="217"/>
+      <c r="B24" s="221"/>
       <c r="C24" s="16" t="s">
         <v>293</v>
       </c>
@@ -26816,19 +26819,19 @@
       <c r="J24" s="89"/>
       <c r="K24" s="89"/>
       <c r="L24" s="89"/>
-      <c r="M24" s="223"/>
-      <c r="N24" s="225"/>
+      <c r="M24" s="240"/>
+      <c r="N24" s="242"/>
       <c r="O24" s="92" t="s">
         <v>1970</v>
       </c>
-      <c r="P24" s="222"/>
-      <c r="Q24" s="220"/>
-      <c r="R24" s="222"/>
-      <c r="S24" s="222"/>
-      <c r="T24" s="222"/>
+      <c r="P24" s="235"/>
+      <c r="Q24" s="234"/>
+      <c r="R24" s="235"/>
+      <c r="S24" s="235"/>
+      <c r="T24" s="235"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="217"/>
+      <c r="B25" s="221"/>
       <c r="C25" s="16" t="s">
         <v>345</v>
       </c>
@@ -26854,20 +26857,20 @@
       <c r="O25" s="92" t="s">
         <v>1973</v>
       </c>
-      <c r="P25" s="221"/>
-      <c r="Q25" s="219" t="s">
+      <c r="P25" s="230"/>
+      <c r="Q25" s="232" t="s">
         <v>1974</v>
       </c>
-      <c r="R25" s="221" t="s">
+      <c r="R25" s="230" t="s">
         <v>1975</v>
       </c>
-      <c r="S25" s="221" t="s">
+      <c r="S25" s="230" t="s">
         <v>1976</v>
       </c>
-      <c r="T25" s="221"/>
+      <c r="T25" s="230"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="217"/>
+      <c r="B26" s="221"/>
       <c r="C26" s="16" t="s">
         <v>342</v>
       </c>
@@ -26893,14 +26896,14 @@
       <c r="O26" s="92" t="s">
         <v>1979</v>
       </c>
-      <c r="P26" s="227"/>
-      <c r="Q26" s="226"/>
-      <c r="R26" s="227"/>
-      <c r="S26" s="227"/>
-      <c r="T26" s="227"/>
+      <c r="P26" s="231"/>
+      <c r="Q26" s="233"/>
+      <c r="R26" s="231"/>
+      <c r="S26" s="231"/>
+      <c r="T26" s="231"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="218"/>
+      <c r="B27" s="222"/>
       <c r="C27" s="16" t="s">
         <v>285</v>
       </c>
@@ -26917,19 +26920,19 @@
       </c>
       <c r="K27" s="89"/>
       <c r="L27" s="89"/>
-      <c r="M27" s="223"/>
-      <c r="N27" s="225"/>
+      <c r="M27" s="240"/>
+      <c r="N27" s="242"/>
       <c r="O27" s="92" t="s">
         <v>1980</v>
       </c>
-      <c r="P27" s="222"/>
-      <c r="Q27" s="220"/>
-      <c r="R27" s="222"/>
-      <c r="S27" s="222"/>
-      <c r="T27" s="222"/>
+      <c r="P27" s="235"/>
+      <c r="Q27" s="234"/>
+      <c r="R27" s="235"/>
+      <c r="S27" s="235"/>
+      <c r="T27" s="235"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="244" t="s">
+      <c r="B28" s="236" t="s">
         <v>348</v>
       </c>
       <c r="C28" s="239" t="s">
@@ -26958,21 +26961,21 @@
         <v>1984</v>
       </c>
       <c r="P28" s="92"/>
-      <c r="Q28" s="219" t="s">
+      <c r="Q28" s="232" t="s">
         <v>1985</v>
       </c>
-      <c r="R28" s="221" t="s">
+      <c r="R28" s="230" t="s">
         <v>1986</v>
       </c>
-      <c r="S28" s="221" t="s">
+      <c r="S28" s="230" t="s">
         <v>1987</v>
       </c>
-      <c r="T28" s="221" t="s">
+      <c r="T28" s="230" t="s">
         <v>1988</v>
       </c>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="245"/>
+      <c r="B29" s="237"/>
       <c r="C29" s="239"/>
       <c r="D29" s="103" t="s">
         <v>743</v>
@@ -26987,19 +26990,19 @@
       <c r="J29" s="89"/>
       <c r="K29" s="89"/>
       <c r="L29" s="89"/>
-      <c r="M29" s="223"/>
-      <c r="N29" s="224"/>
-      <c r="O29" s="225"/>
+      <c r="M29" s="240"/>
+      <c r="N29" s="241"/>
+      <c r="O29" s="242"/>
       <c r="P29" s="92" t="s">
         <v>1989</v>
       </c>
-      <c r="Q29" s="226"/>
-      <c r="R29" s="227"/>
-      <c r="S29" s="227"/>
-      <c r="T29" s="227"/>
+      <c r="Q29" s="233"/>
+      <c r="R29" s="231"/>
+      <c r="S29" s="231"/>
+      <c r="T29" s="231"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="245"/>
+      <c r="B30" s="237"/>
       <c r="C30" s="239" t="s">
         <v>364</v>
       </c>
@@ -27026,13 +27029,13 @@
         <v>1992</v>
       </c>
       <c r="P30" s="92"/>
-      <c r="Q30" s="226"/>
-      <c r="R30" s="227"/>
-      <c r="S30" s="227"/>
-      <c r="T30" s="227"/>
+      <c r="Q30" s="233"/>
+      <c r="R30" s="231"/>
+      <c r="S30" s="231"/>
+      <c r="T30" s="231"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="245"/>
+      <c r="B31" s="237"/>
       <c r="C31" s="239"/>
       <c r="D31" s="103" t="s">
         <v>743</v>
@@ -27047,19 +27050,19 @@
       <c r="J31" s="89"/>
       <c r="K31" s="89"/>
       <c r="L31" s="89"/>
-      <c r="M31" s="223"/>
-      <c r="N31" s="224"/>
-      <c r="O31" s="225"/>
+      <c r="M31" s="240"/>
+      <c r="N31" s="241"/>
+      <c r="O31" s="242"/>
       <c r="P31" s="92" t="s">
         <v>1993</v>
       </c>
-      <c r="Q31" s="226"/>
-      <c r="R31" s="222"/>
-      <c r="S31" s="222"/>
-      <c r="T31" s="227"/>
+      <c r="Q31" s="233"/>
+      <c r="R31" s="235"/>
+      <c r="S31" s="235"/>
+      <c r="T31" s="231"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="245"/>
+      <c r="B32" s="237"/>
       <c r="C32" s="239" t="s">
         <v>348</v>
       </c>
@@ -27079,16 +27082,16 @@
       <c r="M32" s="92" t="s">
         <v>1994</v>
       </c>
-      <c r="N32" s="223"/>
-      <c r="O32" s="225"/>
+      <c r="N32" s="240"/>
+      <c r="O32" s="242"/>
       <c r="P32" s="92"/>
-      <c r="Q32" s="226"/>
-      <c r="R32" s="221"/>
-      <c r="S32" s="221"/>
-      <c r="T32" s="227"/>
+      <c r="Q32" s="233"/>
+      <c r="R32" s="230"/>
+      <c r="S32" s="230"/>
+      <c r="T32" s="231"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="245"/>
+      <c r="B33" s="237"/>
       <c r="C33" s="239"/>
       <c r="D33" s="103" t="s">
         <v>743</v>
@@ -27103,19 +27106,19 @@
       <c r="J33" s="89"/>
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
-      <c r="M33" s="223"/>
-      <c r="N33" s="224"/>
-      <c r="O33" s="225"/>
+      <c r="M33" s="240"/>
+      <c r="N33" s="241"/>
+      <c r="O33" s="242"/>
       <c r="P33" s="92" t="s">
         <v>1995</v>
       </c>
-      <c r="Q33" s="220"/>
-      <c r="R33" s="222"/>
-      <c r="S33" s="222"/>
-      <c r="T33" s="222"/>
+      <c r="Q33" s="234"/>
+      <c r="R33" s="235"/>
+      <c r="S33" s="235"/>
+      <c r="T33" s="235"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="245"/>
+      <c r="B34" s="237"/>
       <c r="C34" s="239" t="s">
         <v>380</v>
       </c>
@@ -27142,21 +27145,21 @@
         <v>1998</v>
       </c>
       <c r="P34" s="92"/>
-      <c r="Q34" s="219" t="s">
+      <c r="Q34" s="232" t="s">
         <v>1999</v>
       </c>
-      <c r="R34" s="221" t="s">
+      <c r="R34" s="230" t="s">
         <v>2000</v>
       </c>
-      <c r="S34" s="221" t="s">
+      <c r="S34" s="230" t="s">
         <v>2001</v>
       </c>
-      <c r="T34" s="221" t="s">
+      <c r="T34" s="230" t="s">
         <v>2002</v>
       </c>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="245"/>
+      <c r="B35" s="237"/>
       <c r="C35" s="239"/>
       <c r="D35" s="103" t="s">
         <v>743</v>
@@ -27171,19 +27174,19 @@
       <c r="J35" s="89"/>
       <c r="K35" s="89"/>
       <c r="L35" s="89"/>
-      <c r="M35" s="223"/>
-      <c r="N35" s="224"/>
-      <c r="O35" s="225"/>
+      <c r="M35" s="240"/>
+      <c r="N35" s="241"/>
+      <c r="O35" s="242"/>
       <c r="P35" s="92" t="s">
         <v>2003</v>
       </c>
-      <c r="Q35" s="226"/>
-      <c r="R35" s="227"/>
-      <c r="S35" s="227"/>
-      <c r="T35" s="227"/>
+      <c r="Q35" s="233"/>
+      <c r="R35" s="231"/>
+      <c r="S35" s="231"/>
+      <c r="T35" s="231"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="245"/>
+      <c r="B36" s="237"/>
       <c r="C36" s="239" t="s">
         <v>377</v>
       </c>
@@ -27210,13 +27213,13 @@
         <v>2006</v>
       </c>
       <c r="P36" s="92"/>
-      <c r="Q36" s="226"/>
-      <c r="R36" s="227"/>
-      <c r="S36" s="227"/>
-      <c r="T36" s="227"/>
+      <c r="Q36" s="233"/>
+      <c r="R36" s="231"/>
+      <c r="S36" s="231"/>
+      <c r="T36" s="231"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="245"/>
+      <c r="B37" s="237"/>
       <c r="C37" s="239"/>
       <c r="D37" s="103" t="s">
         <v>743</v>
@@ -27231,19 +27234,19 @@
       <c r="J37" s="89"/>
       <c r="K37" s="89"/>
       <c r="L37" s="89"/>
-      <c r="M37" s="223"/>
-      <c r="N37" s="224"/>
-      <c r="O37" s="225"/>
+      <c r="M37" s="240"/>
+      <c r="N37" s="241"/>
+      <c r="O37" s="242"/>
       <c r="P37" s="92" t="s">
         <v>2007</v>
       </c>
-      <c r="Q37" s="220"/>
-      <c r="R37" s="222"/>
-      <c r="S37" s="222"/>
-      <c r="T37" s="222"/>
+      <c r="Q37" s="234"/>
+      <c r="R37" s="235"/>
+      <c r="S37" s="235"/>
+      <c r="T37" s="235"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="245"/>
+      <c r="B38" s="237"/>
       <c r="C38" s="239" t="s">
         <v>374</v>
       </c>
@@ -27270,21 +27273,21 @@
         <v>2010</v>
       </c>
       <c r="P38" s="92"/>
-      <c r="Q38" s="219" t="s">
+      <c r="Q38" s="232" t="s">
         <v>2011</v>
       </c>
-      <c r="R38" s="221" t="s">
+      <c r="R38" s="230" t="s">
         <v>2012</v>
       </c>
-      <c r="S38" s="221" t="s">
+      <c r="S38" s="230" t="s">
         <v>2013</v>
       </c>
-      <c r="T38" s="221" t="s">
+      <c r="T38" s="230" t="s">
         <v>2014</v>
       </c>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="245"/>
+      <c r="B39" s="237"/>
       <c r="C39" s="239"/>
       <c r="D39" s="103" t="s">
         <v>743</v>
@@ -27299,19 +27302,19 @@
       <c r="J39" s="89"/>
       <c r="K39" s="89"/>
       <c r="L39" s="89"/>
-      <c r="M39" s="223"/>
-      <c r="N39" s="224"/>
-      <c r="O39" s="225"/>
+      <c r="M39" s="240"/>
+      <c r="N39" s="241"/>
+      <c r="O39" s="242"/>
       <c r="P39" s="92" t="s">
         <v>2015</v>
       </c>
-      <c r="Q39" s="226"/>
-      <c r="R39" s="227"/>
-      <c r="S39" s="227"/>
-      <c r="T39" s="227"/>
+      <c r="Q39" s="233"/>
+      <c r="R39" s="231"/>
+      <c r="S39" s="231"/>
+      <c r="T39" s="231"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="245"/>
+      <c r="B40" s="237"/>
       <c r="C40" s="239" t="s">
         <v>370</v>
       </c>
@@ -27338,13 +27341,13 @@
         <v>2019</v>
       </c>
       <c r="P40" s="92"/>
-      <c r="Q40" s="226"/>
-      <c r="R40" s="227"/>
-      <c r="S40" s="227"/>
-      <c r="T40" s="227"/>
+      <c r="Q40" s="233"/>
+      <c r="R40" s="231"/>
+      <c r="S40" s="231"/>
+      <c r="T40" s="231"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="245"/>
+      <c r="B41" s="237"/>
       <c r="C41" s="239"/>
       <c r="D41" s="103" t="s">
         <v>743</v>
@@ -27361,13 +27364,13 @@
       <c r="N41" s="92"/>
       <c r="O41" s="92"/>
       <c r="P41" s="92"/>
-      <c r="Q41" s="226"/>
-      <c r="R41" s="227"/>
-      <c r="S41" s="227"/>
-      <c r="T41" s="227"/>
+      <c r="Q41" s="233"/>
+      <c r="R41" s="231"/>
+      <c r="S41" s="231"/>
+      <c r="T41" s="231"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="245"/>
+      <c r="B42" s="237"/>
       <c r="C42" s="239" t="s">
         <v>392</v>
       </c>
@@ -27396,13 +27399,13 @@
         <v>2022</v>
       </c>
       <c r="P42" s="92"/>
-      <c r="Q42" s="220"/>
-      <c r="R42" s="222"/>
-      <c r="S42" s="222"/>
-      <c r="T42" s="222"/>
+      <c r="Q42" s="234"/>
+      <c r="R42" s="235"/>
+      <c r="S42" s="235"/>
+      <c r="T42" s="235"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="246"/>
+      <c r="B43" s="238"/>
       <c r="C43" s="239"/>
       <c r="D43" s="103" t="s">
         <v>743</v>
@@ -27419,27 +27422,27 @@
       </c>
       <c r="K43" s="89"/>
       <c r="L43" s="89"/>
-      <c r="M43" s="223"/>
-      <c r="N43" s="224"/>
-      <c r="O43" s="225"/>
+      <c r="M43" s="240"/>
+      <c r="N43" s="241"/>
+      <c r="O43" s="242"/>
       <c r="P43" s="92" t="s">
         <v>2023</v>
       </c>
-      <c r="Q43" s="219" t="s">
+      <c r="Q43" s="232" t="s">
         <v>2024</v>
       </c>
-      <c r="R43" s="221" t="s">
+      <c r="R43" s="230" t="s">
         <v>2025</v>
       </c>
-      <c r="S43" s="221" t="s">
+      <c r="S43" s="230" t="s">
         <v>2026</v>
       </c>
-      <c r="T43" s="221" t="s">
+      <c r="T43" s="230" t="s">
         <v>2027</v>
       </c>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="216" t="s">
+      <c r="B44" s="220" t="s">
         <v>383</v>
       </c>
       <c r="C44" s="239" t="s">
@@ -27468,13 +27471,13 @@
         <v>2030</v>
       </c>
       <c r="P44" s="92"/>
-      <c r="Q44" s="226"/>
-      <c r="R44" s="227"/>
-      <c r="S44" s="227"/>
-      <c r="T44" s="227"/>
+      <c r="Q44" s="233"/>
+      <c r="R44" s="231"/>
+      <c r="S44" s="231"/>
+      <c r="T44" s="231"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="217"/>
+      <c r="B45" s="221"/>
       <c r="C45" s="239"/>
       <c r="D45" s="103" t="s">
         <v>743</v>
@@ -27489,19 +27492,19 @@
       <c r="J45" s="89"/>
       <c r="K45" s="89"/>
       <c r="L45" s="89"/>
-      <c r="M45" s="223"/>
-      <c r="N45" s="224"/>
-      <c r="O45" s="225"/>
+      <c r="M45" s="240"/>
+      <c r="N45" s="241"/>
+      <c r="O45" s="242"/>
       <c r="P45" s="92" t="s">
         <v>2031</v>
       </c>
-      <c r="Q45" s="226"/>
-      <c r="R45" s="227"/>
-      <c r="S45" s="227"/>
-      <c r="T45" s="227"/>
+      <c r="Q45" s="233"/>
+      <c r="R45" s="231"/>
+      <c r="S45" s="231"/>
+      <c r="T45" s="231"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="B46" s="217"/>
+      <c r="B46" s="221"/>
       <c r="C46" s="239" t="s">
         <v>388</v>
       </c>
@@ -27528,13 +27531,13 @@
         <v>2034</v>
       </c>
       <c r="P46" s="92"/>
-      <c r="Q46" s="220"/>
-      <c r="R46" s="222"/>
-      <c r="S46" s="222"/>
-      <c r="T46" s="222"/>
+      <c r="Q46" s="234"/>
+      <c r="R46" s="235"/>
+      <c r="S46" s="235"/>
+      <c r="T46" s="235"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="217"/>
+      <c r="B47" s="221"/>
       <c r="C47" s="239"/>
       <c r="D47" s="103" t="s">
         <v>743</v>
@@ -27549,27 +27552,27 @@
       <c r="J47" s="89"/>
       <c r="K47" s="89"/>
       <c r="L47" s="89"/>
-      <c r="M47" s="223"/>
-      <c r="N47" s="224"/>
-      <c r="O47" s="225"/>
+      <c r="M47" s="240"/>
+      <c r="N47" s="241"/>
+      <c r="O47" s="242"/>
       <c r="P47" s="92" t="s">
         <v>2035</v>
       </c>
-      <c r="Q47" s="219" t="s">
+      <c r="Q47" s="232" t="s">
         <v>2036</v>
       </c>
-      <c r="R47" s="221" t="s">
+      <c r="R47" s="230" t="s">
         <v>2037</v>
       </c>
-      <c r="S47" s="221" t="s">
+      <c r="S47" s="230" t="s">
         <v>2038</v>
       </c>
-      <c r="T47" s="221" t="s">
+      <c r="T47" s="230" t="s">
         <v>2039</v>
       </c>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="217"/>
+      <c r="B48" s="221"/>
       <c r="C48" s="239" t="s">
         <v>400</v>
       </c>
@@ -27598,13 +27601,13 @@
         <v>2042</v>
       </c>
       <c r="P48" s="92"/>
-      <c r="Q48" s="226"/>
-      <c r="R48" s="227"/>
-      <c r="S48" s="227"/>
-      <c r="T48" s="227"/>
+      <c r="Q48" s="233"/>
+      <c r="R48" s="231"/>
+      <c r="S48" s="231"/>
+      <c r="T48" s="231"/>
     </row>
     <row r="49" spans="2:20">
-      <c r="B49" s="217"/>
+      <c r="B49" s="221"/>
       <c r="C49" s="239"/>
       <c r="D49" s="103" t="s">
         <v>743</v>
@@ -27621,19 +27624,19 @@
       <c r="J49" s="89"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
-      <c r="M49" s="223"/>
-      <c r="N49" s="224"/>
-      <c r="O49" s="225"/>
+      <c r="M49" s="240"/>
+      <c r="N49" s="241"/>
+      <c r="O49" s="242"/>
       <c r="P49" s="92" t="s">
         <v>2043</v>
       </c>
-      <c r="Q49" s="226"/>
-      <c r="R49" s="227"/>
-      <c r="S49" s="227"/>
-      <c r="T49" s="227"/>
+      <c r="Q49" s="233"/>
+      <c r="R49" s="231"/>
+      <c r="S49" s="231"/>
+      <c r="T49" s="231"/>
     </row>
     <row r="50" spans="2:20">
-      <c r="B50" s="217"/>
+      <c r="B50" s="221"/>
       <c r="C50" s="239" t="s">
         <v>383</v>
       </c>
@@ -27662,13 +27665,13 @@
         <v>2046</v>
       </c>
       <c r="P50" s="92"/>
-      <c r="Q50" s="220"/>
-      <c r="R50" s="222"/>
-      <c r="S50" s="222"/>
-      <c r="T50" s="222"/>
+      <c r="Q50" s="234"/>
+      <c r="R50" s="235"/>
+      <c r="S50" s="235"/>
+      <c r="T50" s="235"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="217"/>
+      <c r="B51" s="221"/>
       <c r="C51" s="239"/>
       <c r="D51" s="103" t="s">
         <v>743</v>
@@ -27685,27 +27688,27 @@
       <c r="J51" s="89"/>
       <c r="K51" s="89"/>
       <c r="L51" s="89"/>
-      <c r="M51" s="223"/>
-      <c r="N51" s="224"/>
-      <c r="O51" s="225"/>
+      <c r="M51" s="240"/>
+      <c r="N51" s="241"/>
+      <c r="O51" s="242"/>
       <c r="P51" s="92" t="s">
         <v>2047</v>
       </c>
-      <c r="Q51" s="219" t="s">
+      <c r="Q51" s="232" t="s">
         <v>2048</v>
       </c>
-      <c r="R51" s="221" t="s">
+      <c r="R51" s="230" t="s">
         <v>2049</v>
       </c>
-      <c r="S51" s="221" t="s">
+      <c r="S51" s="230" t="s">
         <v>2050</v>
       </c>
-      <c r="T51" s="221" t="s">
+      <c r="T51" s="230" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="217"/>
+      <c r="B52" s="221"/>
       <c r="C52" s="239" t="s">
         <v>430</v>
       </c>
@@ -27732,13 +27735,13 @@
         <v>2054</v>
       </c>
       <c r="P52" s="92"/>
-      <c r="Q52" s="226"/>
-      <c r="R52" s="227"/>
-      <c r="S52" s="227"/>
-      <c r="T52" s="227"/>
+      <c r="Q52" s="233"/>
+      <c r="R52" s="231"/>
+      <c r="S52" s="231"/>
+      <c r="T52" s="231"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="217"/>
+      <c r="B53" s="221"/>
       <c r="C53" s="239"/>
       <c r="D53" s="103" t="s">
         <v>743</v>
@@ -27753,19 +27756,19 @@
         <v>478</v>
       </c>
       <c r="L53" s="89"/>
-      <c r="M53" s="223"/>
-      <c r="N53" s="224"/>
-      <c r="O53" s="225"/>
+      <c r="M53" s="240"/>
+      <c r="N53" s="241"/>
+      <c r="O53" s="242"/>
       <c r="P53" s="92" t="s">
         <v>2055</v>
       </c>
-      <c r="Q53" s="226"/>
-      <c r="R53" s="227"/>
-      <c r="S53" s="227"/>
-      <c r="T53" s="227"/>
+      <c r="Q53" s="233"/>
+      <c r="R53" s="231"/>
+      <c r="S53" s="231"/>
+      <c r="T53" s="231"/>
     </row>
     <row r="54" spans="2:20">
-      <c r="B54" s="217"/>
+      <c r="B54" s="221"/>
       <c r="C54" s="239" t="s">
         <v>413</v>
       </c>
@@ -27794,13 +27797,13 @@
         <v>2058</v>
       </c>
       <c r="P54" s="92"/>
-      <c r="Q54" s="220"/>
-      <c r="R54" s="222"/>
-      <c r="S54" s="222"/>
-      <c r="T54" s="222"/>
+      <c r="Q54" s="234"/>
+      <c r="R54" s="235"/>
+      <c r="S54" s="235"/>
+      <c r="T54" s="235"/>
     </row>
     <row r="55" spans="2:20">
-      <c r="B55" s="218"/>
+      <c r="B55" s="222"/>
       <c r="C55" s="239"/>
       <c r="D55" s="103" t="s">
         <v>743</v>
@@ -27817,25 +27820,25 @@
       </c>
       <c r="K55" s="89"/>
       <c r="L55" s="89"/>
-      <c r="M55" s="223"/>
-      <c r="N55" s="224"/>
-      <c r="O55" s="225"/>
+      <c r="M55" s="240"/>
+      <c r="N55" s="241"/>
+      <c r="O55" s="242"/>
       <c r="P55" s="92" t="s">
         <v>2059</v>
       </c>
-      <c r="Q55" s="219" t="s">
+      <c r="Q55" s="232" t="s">
         <v>2060</v>
       </c>
-      <c r="R55" s="221" t="s">
+      <c r="R55" s="230" t="s">
         <v>2061</v>
       </c>
-      <c r="S55" s="221" t="s">
+      <c r="S55" s="230" t="s">
         <v>2062</v>
       </c>
-      <c r="T55" s="221"/>
+      <c r="T55" s="230"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="B56" s="216" t="s">
+      <c r="B56" s="220" t="s">
         <v>516</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -27863,14 +27866,14 @@
       <c r="O56" s="92" t="s">
         <v>2065</v>
       </c>
-      <c r="P56" s="221"/>
-      <c r="Q56" s="220"/>
-      <c r="R56" s="222"/>
-      <c r="S56" s="222"/>
-      <c r="T56" s="222"/>
+      <c r="P56" s="230"/>
+      <c r="Q56" s="234"/>
+      <c r="R56" s="235"/>
+      <c r="S56" s="235"/>
+      <c r="T56" s="235"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="217"/>
+      <c r="B57" s="221"/>
       <c r="C57" s="16" t="s">
         <v>525</v>
       </c>
@@ -27896,7 +27899,7 @@
       <c r="O57" s="92" t="s">
         <v>2068</v>
       </c>
-      <c r="P57" s="222"/>
+      <c r="P57" s="235"/>
       <c r="Q57" s="96" t="s">
         <v>2069</v>
       </c>
@@ -27909,7 +27912,7 @@
       <c r="T57" s="92"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="217"/>
+      <c r="B58" s="221"/>
       <c r="C58" s="16" t="s">
         <v>2072</v>
       </c>
@@ -27948,7 +27951,7 @@
       <c r="T58" s="92"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="218"/>
+      <c r="B59" s="222"/>
       <c r="C59" s="16" t="s">
         <v>517</v>
       </c>
@@ -27975,19 +27978,19 @@
         <v>2082</v>
       </c>
       <c r="P59" s="92"/>
-      <c r="Q59" s="219" t="s">
+      <c r="Q59" s="232" t="s">
         <v>2083</v>
       </c>
-      <c r="R59" s="221" t="s">
+      <c r="R59" s="230" t="s">
         <v>2084</v>
       </c>
-      <c r="S59" s="221" t="s">
+      <c r="S59" s="230" t="s">
         <v>2085</v>
       </c>
-      <c r="T59" s="221"/>
+      <c r="T59" s="230"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="216" t="s">
+      <c r="B60" s="220" t="s">
         <v>535</v>
       </c>
       <c r="C60" s="16" t="s">
@@ -28015,14 +28018,14 @@
       <c r="O60" s="92" t="s">
         <v>2088</v>
       </c>
-      <c r="P60" s="221"/>
-      <c r="Q60" s="220"/>
-      <c r="R60" s="222"/>
-      <c r="S60" s="222"/>
-      <c r="T60" s="222"/>
+      <c r="P60" s="230"/>
+      <c r="Q60" s="234"/>
+      <c r="R60" s="235"/>
+      <c r="S60" s="235"/>
+      <c r="T60" s="235"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="218"/>
+      <c r="B61" s="222"/>
       <c r="C61" s="16" t="s">
         <v>540</v>
       </c>
@@ -28048,7 +28051,7 @@
       <c r="O61" s="92" t="s">
         <v>2091</v>
       </c>
-      <c r="P61" s="222"/>
+      <c r="P61" s="235"/>
       <c r="Q61" s="93" t="s">
         <v>2092</v>
       </c>
@@ -28094,21 +28097,21 @@
         <v>2097</v>
       </c>
       <c r="P62" s="95"/>
-      <c r="Q62" s="247" t="s">
+      <c r="Q62" s="216" t="s">
         <v>2098</v>
       </c>
-      <c r="R62" s="251" t="s">
+      <c r="R62" s="223" t="s">
         <v>2099</v>
       </c>
-      <c r="S62" s="236" t="s">
+      <c r="S62" s="213" t="s">
         <v>2100</v>
       </c>
-      <c r="T62" s="233" t="s">
+      <c r="T62" s="246" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="244" t="s">
+      <c r="B63" s="236" t="s">
         <v>563</v>
       </c>
       <c r="C63" s="239" t="s">
@@ -28137,13 +28140,13 @@
         <v>2104</v>
       </c>
       <c r="P63" s="95"/>
-      <c r="Q63" s="248"/>
-      <c r="R63" s="252"/>
-      <c r="S63" s="237"/>
-      <c r="T63" s="234"/>
+      <c r="Q63" s="217"/>
+      <c r="R63" s="224"/>
+      <c r="S63" s="214"/>
+      <c r="T63" s="247"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="245"/>
+      <c r="B64" s="237"/>
       <c r="C64" s="239"/>
       <c r="D64" s="103" t="s">
         <v>743</v>
@@ -28158,19 +28161,19 @@
       <c r="J64" s="89"/>
       <c r="K64" s="89"/>
       <c r="L64" s="89"/>
-      <c r="M64" s="223"/>
-      <c r="N64" s="224"/>
-      <c r="O64" s="225"/>
+      <c r="M64" s="240"/>
+      <c r="N64" s="241"/>
+      <c r="O64" s="242"/>
       <c r="P64" s="95" t="s">
         <v>2105</v>
       </c>
-      <c r="Q64" s="248"/>
-      <c r="R64" s="252"/>
-      <c r="S64" s="237"/>
-      <c r="T64" s="234"/>
+      <c r="Q64" s="217"/>
+      <c r="R64" s="224"/>
+      <c r="S64" s="214"/>
+      <c r="T64" s="247"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="245"/>
+      <c r="B65" s="237"/>
       <c r="C65" s="239" t="s">
         <v>564</v>
       </c>
@@ -28197,13 +28200,13 @@
         <v>2108</v>
       </c>
       <c r="P65" s="95"/>
-      <c r="Q65" s="248"/>
-      <c r="R65" s="252"/>
-      <c r="S65" s="237"/>
-      <c r="T65" s="234"/>
+      <c r="Q65" s="217"/>
+      <c r="R65" s="224"/>
+      <c r="S65" s="214"/>
+      <c r="T65" s="247"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="245"/>
+      <c r="B66" s="237"/>
       <c r="C66" s="239"/>
       <c r="D66" s="103" t="s">
         <v>743</v>
@@ -28218,22 +28221,22 @@
       <c r="J66" s="89"/>
       <c r="K66" s="89"/>
       <c r="L66" s="89"/>
-      <c r="M66" s="223"/>
-      <c r="N66" s="224"/>
-      <c r="O66" s="225"/>
+      <c r="M66" s="240"/>
+      <c r="N66" s="241"/>
+      <c r="O66" s="242"/>
       <c r="P66" s="95" t="s">
         <v>2109</v>
       </c>
-      <c r="Q66" s="249"/>
-      <c r="R66" s="253"/>
-      <c r="S66" s="238"/>
-      <c r="T66" s="235"/>
+      <c r="Q66" s="218"/>
+      <c r="R66" s="225"/>
+      <c r="S66" s="215"/>
+      <c r="T66" s="248"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="216" t="s">
+      <c r="B67" s="220" t="s">
         <v>578</v>
       </c>
-      <c r="C67" s="243" t="s">
+      <c r="C67" s="229" t="s">
         <v>579</v>
       </c>
       <c r="D67" s="103" t="s">
@@ -28259,22 +28262,22 @@
         <v>2112</v>
       </c>
       <c r="P67" s="92"/>
-      <c r="Q67" s="254" t="s">
+      <c r="Q67" s="226" t="s">
         <v>2113</v>
       </c>
-      <c r="R67" s="236" t="s">
+      <c r="R67" s="213" t="s">
         <v>2114</v>
       </c>
-      <c r="S67" s="236" t="s">
+      <c r="S67" s="213" t="s">
         <v>2115</v>
       </c>
-      <c r="T67" s="236" t="s">
+      <c r="T67" s="213" t="s">
         <v>2116</v>
       </c>
     </row>
     <row r="68" spans="2:20">
-      <c r="B68" s="217"/>
-      <c r="C68" s="243"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="229"/>
       <c r="D68" s="103" t="s">
         <v>743</v>
       </c>
@@ -28287,20 +28290,20 @@
       <c r="J68" s="89"/>
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
-      <c r="M68" s="223"/>
-      <c r="N68" s="224"/>
-      <c r="O68" s="225"/>
+      <c r="M68" s="240"/>
+      <c r="N68" s="241"/>
+      <c r="O68" s="242"/>
       <c r="P68" s="92" t="s">
         <v>2117</v>
       </c>
-      <c r="Q68" s="255"/>
-      <c r="R68" s="237"/>
-      <c r="S68" s="237"/>
-      <c r="T68" s="237"/>
+      <c r="Q68" s="227"/>
+      <c r="R68" s="214"/>
+      <c r="S68" s="214"/>
+      <c r="T68" s="214"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="217"/>
-      <c r="C69" s="243" t="s">
+      <c r="B69" s="221"/>
+      <c r="C69" s="229" t="s">
         <v>593</v>
       </c>
       <c r="D69" s="103" t="s">
@@ -28326,14 +28329,14 @@
         <v>2120</v>
       </c>
       <c r="P69" s="92"/>
-      <c r="Q69" s="255"/>
-      <c r="R69" s="237"/>
-      <c r="S69" s="237"/>
-      <c r="T69" s="237"/>
+      <c r="Q69" s="227"/>
+      <c r="R69" s="214"/>
+      <c r="S69" s="214"/>
+      <c r="T69" s="214"/>
     </row>
     <row r="70" spans="2:20">
-      <c r="B70" s="217"/>
-      <c r="C70" s="243"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="229"/>
       <c r="D70" s="103" t="s">
         <v>743</v>
       </c>
@@ -28346,20 +28349,20 @@
       <c r="J70" s="89"/>
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
-      <c r="M70" s="223"/>
-      <c r="N70" s="224"/>
-      <c r="O70" s="225"/>
+      <c r="M70" s="240"/>
+      <c r="N70" s="241"/>
+      <c r="O70" s="242"/>
       <c r="P70" s="92" t="s">
         <v>2121</v>
       </c>
-      <c r="Q70" s="255"/>
-      <c r="R70" s="237"/>
-      <c r="S70" s="237"/>
-      <c r="T70" s="237"/>
+      <c r="Q70" s="227"/>
+      <c r="R70" s="214"/>
+      <c r="S70" s="214"/>
+      <c r="T70" s="214"/>
     </row>
     <row r="71" spans="2:20">
-      <c r="B71" s="217"/>
-      <c r="C71" s="243" t="s">
+      <c r="B71" s="221"/>
+      <c r="C71" s="229" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="103" t="s">
@@ -28385,14 +28388,14 @@
         <v>2124</v>
       </c>
       <c r="P71" s="92"/>
-      <c r="Q71" s="255"/>
-      <c r="R71" s="237"/>
-      <c r="S71" s="237"/>
-      <c r="T71" s="237"/>
+      <c r="Q71" s="227"/>
+      <c r="R71" s="214"/>
+      <c r="S71" s="214"/>
+      <c r="T71" s="214"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="217"/>
-      <c r="C72" s="243"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="229"/>
       <c r="D72" s="103" t="s">
         <v>743</v>
       </c>
@@ -28406,20 +28409,20 @@
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
       <c r="L72" s="89"/>
-      <c r="M72" s="223"/>
-      <c r="N72" s="224"/>
-      <c r="O72" s="225"/>
+      <c r="M72" s="240"/>
+      <c r="N72" s="241"/>
+      <c r="O72" s="242"/>
       <c r="P72" s="92" t="s">
         <v>2125</v>
       </c>
-      <c r="Q72" s="256"/>
-      <c r="R72" s="238"/>
-      <c r="S72" s="238"/>
-      <c r="T72" s="238"/>
+      <c r="Q72" s="228"/>
+      <c r="R72" s="215"/>
+      <c r="S72" s="215"/>
+      <c r="T72" s="215"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="217"/>
-      <c r="C73" s="243" t="s">
+      <c r="B73" s="221"/>
+      <c r="C73" s="229" t="s">
         <v>2126</v>
       </c>
       <c r="D73" s="103" t="s">
@@ -28445,22 +28448,22 @@
         <v>2129</v>
       </c>
       <c r="P73" s="92"/>
-      <c r="Q73" s="219" t="s">
+      <c r="Q73" s="232" t="s">
         <v>2130</v>
       </c>
-      <c r="R73" s="240" t="s">
+      <c r="R73" s="243" t="s">
         <v>2131</v>
       </c>
-      <c r="S73" s="240" t="s">
+      <c r="S73" s="243" t="s">
         <v>2132</v>
       </c>
-      <c r="T73" s="221" t="s">
+      <c r="T73" s="230" t="s">
         <v>2133</v>
       </c>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="218"/>
-      <c r="C74" s="243"/>
+      <c r="B74" s="222"/>
+      <c r="C74" s="229"/>
       <c r="D74" s="103" t="s">
         <v>743</v>
       </c>
@@ -28474,22 +28477,22 @@
         <v>642</v>
       </c>
       <c r="L74" s="89"/>
-      <c r="M74" s="223"/>
-      <c r="N74" s="224"/>
-      <c r="O74" s="225"/>
+      <c r="M74" s="240"/>
+      <c r="N74" s="241"/>
+      <c r="O74" s="242"/>
       <c r="P74" s="92" t="s">
         <v>2134</v>
       </c>
-      <c r="Q74" s="220"/>
-      <c r="R74" s="241"/>
-      <c r="S74" s="241"/>
-      <c r="T74" s="222"/>
+      <c r="Q74" s="234"/>
+      <c r="R74" s="244"/>
+      <c r="S74" s="244"/>
+      <c r="T74" s="235"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="217" t="s">
+      <c r="B75" s="221" t="s">
         <v>618</v>
       </c>
-      <c r="C75" s="243" t="s">
+      <c r="C75" s="229" t="s">
         <v>626</v>
       </c>
       <c r="D75" s="103" t="s">
@@ -28515,22 +28518,22 @@
         <v>2137</v>
       </c>
       <c r="P75" s="92"/>
-      <c r="Q75" s="219" t="s">
+      <c r="Q75" s="232" t="s">
         <v>2138</v>
       </c>
-      <c r="R75" s="240" t="s">
+      <c r="R75" s="243" t="s">
         <v>2139</v>
       </c>
-      <c r="S75" s="240" t="s">
+      <c r="S75" s="243" t="s">
         <v>2140</v>
       </c>
-      <c r="T75" s="221" t="s">
+      <c r="T75" s="230" t="s">
         <v>2141</v>
       </c>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="217"/>
-      <c r="C76" s="243"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="229"/>
       <c r="D76" s="103" t="s">
         <v>743</v>
       </c>
@@ -28544,20 +28547,20 @@
       <c r="J76" s="89"/>
       <c r="K76" s="87"/>
       <c r="L76" s="89"/>
-      <c r="M76" s="223"/>
-      <c r="N76" s="224"/>
-      <c r="O76" s="225"/>
+      <c r="M76" s="240"/>
+      <c r="N76" s="241"/>
+      <c r="O76" s="242"/>
       <c r="P76" s="92" t="s">
         <v>2142</v>
       </c>
-      <c r="Q76" s="226"/>
-      <c r="R76" s="242"/>
-      <c r="S76" s="242"/>
-      <c r="T76" s="227"/>
+      <c r="Q76" s="233"/>
+      <c r="R76" s="245"/>
+      <c r="S76" s="245"/>
+      <c r="T76" s="231"/>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="217"/>
-      <c r="C77" s="243" t="s">
+      <c r="B77" s="221"/>
+      <c r="C77" s="229" t="s">
         <v>619</v>
       </c>
       <c r="D77" s="103" t="s">
@@ -28583,14 +28586,14 @@
         <v>2145</v>
       </c>
       <c r="P77" s="92"/>
-      <c r="Q77" s="226"/>
-      <c r="R77" s="242"/>
-      <c r="S77" s="242"/>
-      <c r="T77" s="227"/>
+      <c r="Q77" s="233"/>
+      <c r="R77" s="245"/>
+      <c r="S77" s="245"/>
+      <c r="T77" s="231"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="218"/>
-      <c r="C78" s="243"/>
+      <c r="B78" s="222"/>
+      <c r="C78" s="229"/>
       <c r="D78" s="103" t="s">
         <v>743</v>
       </c>
@@ -28604,19 +28607,19 @@
       <c r="J78" s="89"/>
       <c r="K78" s="89"/>
       <c r="L78" s="89"/>
-      <c r="M78" s="223"/>
-      <c r="N78" s="224"/>
-      <c r="O78" s="225"/>
+      <c r="M78" s="240"/>
+      <c r="N78" s="241"/>
+      <c r="O78" s="242"/>
       <c r="P78" s="92" t="s">
         <v>2146</v>
       </c>
-      <c r="Q78" s="220"/>
-      <c r="R78" s="241"/>
-      <c r="S78" s="241"/>
-      <c r="T78" s="222"/>
+      <c r="Q78" s="234"/>
+      <c r="R78" s="244"/>
+      <c r="S78" s="244"/>
+      <c r="T78" s="235"/>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="245" t="s">
+      <c r="B79" s="237" t="s">
         <v>687</v>
       </c>
       <c r="C79" s="16" t="s">
@@ -28644,20 +28647,20 @@
       <c r="O79" s="92" t="s">
         <v>2149</v>
       </c>
-      <c r="P79" s="221"/>
-      <c r="Q79" s="219" t="s">
+      <c r="P79" s="230"/>
+      <c r="Q79" s="232" t="s">
         <v>2150</v>
       </c>
-      <c r="R79" s="221" t="s">
+      <c r="R79" s="230" t="s">
         <v>2151</v>
       </c>
-      <c r="S79" s="221" t="s">
+      <c r="S79" s="230" t="s">
         <v>2152</v>
       </c>
-      <c r="T79" s="221"/>
+      <c r="T79" s="230"/>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="245"/>
+      <c r="B80" s="237"/>
       <c r="C80" s="16" t="s">
         <v>692</v>
       </c>
@@ -28683,14 +28686,14 @@
       <c r="O80" s="92" t="s">
         <v>2155</v>
       </c>
-      <c r="P80" s="227"/>
-      <c r="Q80" s="226"/>
-      <c r="R80" s="227"/>
-      <c r="S80" s="227"/>
-      <c r="T80" s="227"/>
+      <c r="P80" s="231"/>
+      <c r="Q80" s="233"/>
+      <c r="R80" s="231"/>
+      <c r="S80" s="231"/>
+      <c r="T80" s="231"/>
     </row>
     <row r="81" spans="2:20">
-      <c r="B81" s="245"/>
+      <c r="B81" s="237"/>
       <c r="C81" s="16" t="s">
         <v>696</v>
       </c>
@@ -28716,14 +28719,14 @@
       <c r="O81" s="92" t="s">
         <v>2158</v>
       </c>
-      <c r="P81" s="222"/>
-      <c r="Q81" s="220"/>
-      <c r="R81" s="222"/>
-      <c r="S81" s="222"/>
-      <c r="T81" s="222"/>
+      <c r="P81" s="235"/>
+      <c r="Q81" s="234"/>
+      <c r="R81" s="235"/>
+      <c r="S81" s="235"/>
+      <c r="T81" s="235"/>
     </row>
     <row r="82" spans="2:20">
-      <c r="B82" s="216" t="s">
+      <c r="B82" s="220" t="s">
         <v>699</v>
       </c>
       <c r="C82" s="239" t="s">
@@ -28752,21 +28755,21 @@
         <v>2161</v>
       </c>
       <c r="P82" s="92"/>
-      <c r="Q82" s="219" t="s">
+      <c r="Q82" s="232" t="s">
         <v>2162</v>
       </c>
-      <c r="R82" s="221" t="s">
+      <c r="R82" s="230" t="s">
         <v>2163</v>
       </c>
-      <c r="S82" s="221" t="s">
+      <c r="S82" s="230" t="s">
         <v>2164</v>
       </c>
-      <c r="T82" s="221" t="s">
+      <c r="T82" s="230" t="s">
         <v>2165</v>
       </c>
     </row>
     <row r="83" spans="2:20">
-      <c r="B83" s="217"/>
+      <c r="B83" s="221"/>
       <c r="C83" s="239"/>
       <c r="D83" s="103" t="s">
         <v>743</v>
@@ -28781,22 +28784,22 @@
       <c r="J83" s="89"/>
       <c r="K83" s="89"/>
       <c r="L83" s="89"/>
-      <c r="M83" s="223"/>
-      <c r="N83" s="224"/>
-      <c r="O83" s="225"/>
+      <c r="M83" s="240"/>
+      <c r="N83" s="241"/>
+      <c r="O83" s="242"/>
       <c r="P83" s="92" t="s">
         <v>2166</v>
       </c>
-      <c r="Q83" s="220"/>
-      <c r="R83" s="222"/>
-      <c r="S83" s="222"/>
-      <c r="T83" s="222"/>
+      <c r="Q83" s="234"/>
+      <c r="R83" s="235"/>
+      <c r="S83" s="235"/>
+      <c r="T83" s="235"/>
     </row>
     <row r="84" spans="2:20">
-      <c r="B84" s="216" t="s">
+      <c r="B84" s="220" t="s">
         <v>708</v>
       </c>
-      <c r="C84" s="243" t="s">
+      <c r="C84" s="229" t="s">
         <v>735</v>
       </c>
       <c r="D84" s="103" t="s">
@@ -28822,22 +28825,22 @@
         <v>2169</v>
       </c>
       <c r="P84" s="92"/>
-      <c r="Q84" s="219" t="s">
+      <c r="Q84" s="232" t="s">
         <v>2170</v>
       </c>
-      <c r="R84" s="221" t="s">
+      <c r="R84" s="230" t="s">
         <v>2171</v>
       </c>
-      <c r="S84" s="221" t="s">
+      <c r="S84" s="230" t="s">
         <v>2172</v>
       </c>
-      <c r="T84" s="221" t="s">
+      <c r="T84" s="230" t="s">
         <v>2173</v>
       </c>
     </row>
     <row r="85" spans="2:20">
-      <c r="B85" s="217"/>
-      <c r="C85" s="243"/>
+      <c r="B85" s="221"/>
+      <c r="C85" s="229"/>
       <c r="D85" s="103" t="s">
         <v>743</v>
       </c>
@@ -28851,20 +28854,20 @@
       <c r="J85" s="89"/>
       <c r="K85" s="89"/>
       <c r="L85" s="89"/>
-      <c r="M85" s="223"/>
-      <c r="N85" s="224"/>
-      <c r="O85" s="225"/>
+      <c r="M85" s="240"/>
+      <c r="N85" s="241"/>
+      <c r="O85" s="242"/>
       <c r="P85" s="92" t="s">
         <v>2174</v>
       </c>
-      <c r="Q85" s="226"/>
-      <c r="R85" s="227"/>
-      <c r="S85" s="227"/>
-      <c r="T85" s="227"/>
+      <c r="Q85" s="233"/>
+      <c r="R85" s="231"/>
+      <c r="S85" s="231"/>
+      <c r="T85" s="231"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="217"/>
-      <c r="C86" s="243" t="s">
+      <c r="B86" s="221"/>
+      <c r="C86" s="229" t="s">
         <v>709</v>
       </c>
       <c r="D86" s="103" t="s">
@@ -28890,14 +28893,14 @@
         <v>2177</v>
       </c>
       <c r="P86" s="92"/>
-      <c r="Q86" s="226"/>
-      <c r="R86" s="227"/>
-      <c r="S86" s="227"/>
-      <c r="T86" s="227"/>
+      <c r="Q86" s="233"/>
+      <c r="R86" s="231"/>
+      <c r="S86" s="231"/>
+      <c r="T86" s="231"/>
     </row>
     <row r="87" spans="2:20">
-      <c r="B87" s="217"/>
-      <c r="C87" s="243"/>
+      <c r="B87" s="221"/>
+      <c r="C87" s="229"/>
       <c r="D87" s="103" t="s">
         <v>743</v>
       </c>
@@ -28911,20 +28914,20 @@
       <c r="J87" s="89"/>
       <c r="K87" s="89"/>
       <c r="L87" s="89"/>
-      <c r="M87" s="223"/>
-      <c r="N87" s="224"/>
-      <c r="O87" s="225"/>
+      <c r="M87" s="240"/>
+      <c r="N87" s="241"/>
+      <c r="O87" s="242"/>
       <c r="P87" s="92" t="s">
         <v>2178</v>
       </c>
-      <c r="Q87" s="220"/>
-      <c r="R87" s="222"/>
-      <c r="S87" s="222"/>
-      <c r="T87" s="222"/>
+      <c r="Q87" s="234"/>
+      <c r="R87" s="235"/>
+      <c r="S87" s="235"/>
+      <c r="T87" s="235"/>
     </row>
     <row r="88" spans="2:20">
-      <c r="B88" s="217"/>
-      <c r="C88" s="243" t="s">
+      <c r="B88" s="221"/>
+      <c r="C88" s="229" t="s">
         <v>725</v>
       </c>
       <c r="D88" s="103" t="s">
@@ -28950,22 +28953,22 @@
         <v>2181</v>
       </c>
       <c r="P88" s="92"/>
-      <c r="Q88" s="219" t="s">
+      <c r="Q88" s="232" t="s">
         <v>2182</v>
       </c>
-      <c r="R88" s="221" t="s">
+      <c r="R88" s="230" t="s">
         <v>2183</v>
       </c>
-      <c r="S88" s="221" t="s">
+      <c r="S88" s="230" t="s">
         <v>2184</v>
       </c>
-      <c r="T88" s="221" t="s">
+      <c r="T88" s="230" t="s">
         <v>2185</v>
       </c>
     </row>
     <row r="89" spans="2:20">
-      <c r="B89" s="217"/>
-      <c r="C89" s="243"/>
+      <c r="B89" s="221"/>
+      <c r="C89" s="229"/>
       <c r="D89" s="103" t="s">
         <v>743</v>
       </c>
@@ -28979,20 +28982,20 @@
       <c r="J89" s="89"/>
       <c r="K89" s="89"/>
       <c r="L89" s="89"/>
-      <c r="M89" s="223"/>
-      <c r="N89" s="224"/>
-      <c r="O89" s="225"/>
+      <c r="M89" s="240"/>
+      <c r="N89" s="241"/>
+      <c r="O89" s="242"/>
       <c r="P89" s="92" t="s">
         <v>2186</v>
       </c>
-      <c r="Q89" s="226"/>
-      <c r="R89" s="227"/>
-      <c r="S89" s="227"/>
-      <c r="T89" s="227"/>
+      <c r="Q89" s="233"/>
+      <c r="R89" s="231"/>
+      <c r="S89" s="231"/>
+      <c r="T89" s="231"/>
     </row>
     <row r="90" spans="2:20">
-      <c r="B90" s="217"/>
-      <c r="C90" s="243" t="s">
+      <c r="B90" s="221"/>
+      <c r="C90" s="229" t="s">
         <v>732</v>
       </c>
       <c r="D90" s="103" t="s">
@@ -29018,14 +29021,14 @@
         <v>2189</v>
       </c>
       <c r="P90" s="92"/>
-      <c r="Q90" s="226"/>
-      <c r="R90" s="227"/>
-      <c r="S90" s="227"/>
-      <c r="T90" s="227"/>
+      <c r="Q90" s="233"/>
+      <c r="R90" s="231"/>
+      <c r="S90" s="231"/>
+      <c r="T90" s="231"/>
     </row>
     <row r="91" spans="2:20">
-      <c r="B91" s="217"/>
-      <c r="C91" s="243"/>
+      <c r="B91" s="221"/>
+      <c r="C91" s="229"/>
       <c r="D91" s="103" t="s">
         <v>743</v>
       </c>
@@ -29039,20 +29042,20 @@
         <v>751</v>
       </c>
       <c r="L91" s="89"/>
-      <c r="M91" s="223"/>
-      <c r="N91" s="224"/>
-      <c r="O91" s="225"/>
+      <c r="M91" s="240"/>
+      <c r="N91" s="241"/>
+      <c r="O91" s="242"/>
       <c r="P91" s="92" t="s">
         <v>2190</v>
       </c>
-      <c r="Q91" s="226"/>
-      <c r="R91" s="227"/>
-      <c r="S91" s="227"/>
-      <c r="T91" s="227"/>
+      <c r="Q91" s="233"/>
+      <c r="R91" s="231"/>
+      <c r="S91" s="231"/>
+      <c r="T91" s="231"/>
     </row>
     <row r="92" spans="2:20">
-      <c r="B92" s="217"/>
-      <c r="C92" s="243" t="s">
+      <c r="B92" s="221"/>
+      <c r="C92" s="229" t="s">
         <v>2191</v>
       </c>
       <c r="D92" s="103" t="s">
@@ -29078,14 +29081,14 @@
         <v>2194</v>
       </c>
       <c r="P92" s="92"/>
-      <c r="Q92" s="226"/>
-      <c r="R92" s="227"/>
-      <c r="S92" s="227"/>
-      <c r="T92" s="227"/>
+      <c r="Q92" s="233"/>
+      <c r="R92" s="231"/>
+      <c r="S92" s="231"/>
+      <c r="T92" s="231"/>
     </row>
     <row r="93" spans="2:20">
-      <c r="B93" s="217"/>
-      <c r="C93" s="243"/>
+      <c r="B93" s="221"/>
+      <c r="C93" s="229"/>
       <c r="D93" s="103" t="s">
         <v>743</v>
       </c>
@@ -29099,20 +29102,20 @@
       <c r="J93" s="89"/>
       <c r="K93" s="89"/>
       <c r="L93" s="89"/>
-      <c r="M93" s="223"/>
-      <c r="N93" s="224"/>
-      <c r="O93" s="225"/>
+      <c r="M93" s="240"/>
+      <c r="N93" s="241"/>
+      <c r="O93" s="242"/>
       <c r="P93" s="92" t="s">
         <v>2195</v>
       </c>
-      <c r="Q93" s="226"/>
-      <c r="R93" s="227"/>
-      <c r="S93" s="227"/>
-      <c r="T93" s="227"/>
+      <c r="Q93" s="233"/>
+      <c r="R93" s="231"/>
+      <c r="S93" s="231"/>
+      <c r="T93" s="231"/>
     </row>
     <row r="94" spans="2:20">
-      <c r="B94" s="217"/>
-      <c r="C94" s="243" t="s">
+      <c r="B94" s="221"/>
+      <c r="C94" s="229" t="s">
         <v>721</v>
       </c>
       <c r="D94" s="103" t="s">
@@ -29138,22 +29141,22 @@
         <v>2198</v>
       </c>
       <c r="P94" s="95"/>
-      <c r="Q94" s="247" t="s">
+      <c r="Q94" s="216" t="s">
         <v>2199</v>
       </c>
-      <c r="R94" s="250" t="s">
+      <c r="R94" s="219" t="s">
         <v>2200</v>
       </c>
-      <c r="S94" s="250" t="s">
+      <c r="S94" s="219" t="s">
         <v>2201</v>
       </c>
-      <c r="T94" s="250" t="s">
+      <c r="T94" s="219" t="s">
         <v>2202</v>
       </c>
     </row>
     <row r="95" spans="2:20">
-      <c r="B95" s="217"/>
-      <c r="C95" s="243"/>
+      <c r="B95" s="221"/>
+      <c r="C95" s="229"/>
       <c r="D95" s="103" t="s">
         <v>743</v>
       </c>
@@ -29167,20 +29170,20 @@
       <c r="J95" s="89"/>
       <c r="K95" s="89"/>
       <c r="L95" s="89"/>
-      <c r="M95" s="223"/>
-      <c r="N95" s="224"/>
-      <c r="O95" s="225"/>
+      <c r="M95" s="240"/>
+      <c r="N95" s="241"/>
+      <c r="O95" s="242"/>
       <c r="P95" s="95" t="s">
         <v>2203</v>
       </c>
-      <c r="Q95" s="248"/>
-      <c r="R95" s="250"/>
-      <c r="S95" s="250"/>
-      <c r="T95" s="250"/>
+      <c r="Q95" s="217"/>
+      <c r="R95" s="219"/>
+      <c r="S95" s="219"/>
+      <c r="T95" s="219"/>
     </row>
     <row r="96" spans="2:20">
-      <c r="B96" s="217"/>
-      <c r="C96" s="243" t="s">
+      <c r="B96" s="221"/>
+      <c r="C96" s="229" t="s">
         <v>713</v>
       </c>
       <c r="D96" s="103" t="s">
@@ -29206,14 +29209,14 @@
         <v>2206</v>
       </c>
       <c r="P96" s="95"/>
-      <c r="Q96" s="248"/>
-      <c r="R96" s="250"/>
-      <c r="S96" s="250"/>
-      <c r="T96" s="250"/>
+      <c r="Q96" s="217"/>
+      <c r="R96" s="219"/>
+      <c r="S96" s="219"/>
+      <c r="T96" s="219"/>
     </row>
     <row r="97" spans="2:20">
-      <c r="B97" s="217"/>
-      <c r="C97" s="243"/>
+      <c r="B97" s="221"/>
+      <c r="C97" s="229"/>
       <c r="D97" s="103" t="s">
         <v>743</v>
       </c>
@@ -29227,20 +29230,20 @@
       <c r="J97" s="89"/>
       <c r="K97" s="89"/>
       <c r="L97" s="89"/>
-      <c r="M97" s="223"/>
-      <c r="N97" s="224"/>
-      <c r="O97" s="225"/>
+      <c r="M97" s="240"/>
+      <c r="N97" s="241"/>
+      <c r="O97" s="242"/>
       <c r="P97" s="95" t="s">
         <v>2207</v>
       </c>
-      <c r="Q97" s="248"/>
-      <c r="R97" s="250"/>
-      <c r="S97" s="250"/>
-      <c r="T97" s="250"/>
+      <c r="Q97" s="217"/>
+      <c r="R97" s="219"/>
+      <c r="S97" s="219"/>
+      <c r="T97" s="219"/>
     </row>
     <row r="98" spans="2:20">
-      <c r="B98" s="217"/>
-      <c r="C98" s="243" t="s">
+      <c r="B98" s="221"/>
+      <c r="C98" s="229" t="s">
         <v>717</v>
       </c>
       <c r="D98" s="103" t="s">
@@ -29266,14 +29269,14 @@
         <v>2211</v>
       </c>
       <c r="P98" s="95"/>
-      <c r="Q98" s="248"/>
-      <c r="R98" s="250"/>
-      <c r="S98" s="250"/>
-      <c r="T98" s="250"/>
+      <c r="Q98" s="217"/>
+      <c r="R98" s="219"/>
+      <c r="S98" s="219"/>
+      <c r="T98" s="219"/>
     </row>
     <row r="99" spans="2:20">
-      <c r="B99" s="218"/>
-      <c r="C99" s="243"/>
+      <c r="B99" s="222"/>
+      <c r="C99" s="229"/>
       <c r="D99" s="103" t="s">
         <v>743</v>
       </c>
@@ -29287,19 +29290,204 @@
       </c>
       <c r="K99" s="89"/>
       <c r="L99" s="89"/>
-      <c r="M99" s="223"/>
-      <c r="N99" s="224"/>
-      <c r="O99" s="225"/>
+      <c r="M99" s="240"/>
+      <c r="N99" s="241"/>
+      <c r="O99" s="242"/>
       <c r="P99" s="95" t="s">
         <v>2213</v>
       </c>
-      <c r="Q99" s="249"/>
-      <c r="R99" s="250"/>
-      <c r="S99" s="250"/>
-      <c r="T99" s="250"/>
+      <c r="Q99" s="218"/>
+      <c r="R99" s="219"/>
+      <c r="S99" s="219"/>
+      <c r="T99" s="219"/>
     </row>
   </sheetData>
   <mergeCells count="209">
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="S22:S24"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="S34:S37"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q28:Q33"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="S28:S31"/>
+    <mergeCell ref="T28:T33"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="S38:S42"/>
+    <mergeCell ref="T38:T42"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="S51:S54"/>
+    <mergeCell ref="T51:T54"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="Q47:Q50"/>
+    <mergeCell ref="R47:R50"/>
+    <mergeCell ref="S47:S50"/>
+    <mergeCell ref="T62:T66"/>
+    <mergeCell ref="S67:S72"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="P60:P61"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="R59:R60"/>
+    <mergeCell ref="S59:S60"/>
+    <mergeCell ref="T59:T60"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="P56:P57"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="R55:R56"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="B44:B55"/>
+    <mergeCell ref="Q43:Q46"/>
+    <mergeCell ref="R43:R46"/>
+    <mergeCell ref="S43:S46"/>
+    <mergeCell ref="T43:T46"/>
+    <mergeCell ref="M45:O45"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="T47:T50"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="Q75:Q78"/>
+    <mergeCell ref="R75:R78"/>
+    <mergeCell ref="S75:S78"/>
+    <mergeCell ref="T75:T78"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="T82:T83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="P79:P81"/>
+    <mergeCell ref="Q79:Q81"/>
+    <mergeCell ref="R79:R81"/>
+    <mergeCell ref="S79:S81"/>
+    <mergeCell ref="T79:T81"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
     <mergeCell ref="T67:T72"/>
     <mergeCell ref="Q94:Q99"/>
     <mergeCell ref="R94:R99"/>
@@ -29324,191 +29512,6 @@
     <mergeCell ref="S88:S93"/>
     <mergeCell ref="B82:B83"/>
     <mergeCell ref="Q82:Q83"/>
-    <mergeCell ref="B28:B43"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="T82:T83"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="P79:P81"/>
-    <mergeCell ref="Q79:Q81"/>
-    <mergeCell ref="R79:R81"/>
-    <mergeCell ref="S79:S81"/>
-    <mergeCell ref="T79:T81"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="Q75:Q78"/>
-    <mergeCell ref="R75:R78"/>
-    <mergeCell ref="S75:S78"/>
-    <mergeCell ref="T75:T78"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="T62:T66"/>
-    <mergeCell ref="S67:S72"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="P60:P61"/>
-    <mergeCell ref="Q59:Q60"/>
-    <mergeCell ref="R59:R60"/>
-    <mergeCell ref="S59:S60"/>
-    <mergeCell ref="T59:T60"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="P56:P57"/>
-    <mergeCell ref="Q55:Q56"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="B44:B55"/>
-    <mergeCell ref="Q43:Q46"/>
-    <mergeCell ref="R43:R46"/>
-    <mergeCell ref="S43:S46"/>
-    <mergeCell ref="T43:T46"/>
-    <mergeCell ref="M45:O45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="T47:T50"/>
-    <mergeCell ref="Q51:Q54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="S51:S54"/>
-    <mergeCell ref="T51:T54"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="Q47:Q50"/>
-    <mergeCell ref="R47:R50"/>
-    <mergeCell ref="S47:S50"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="S34:S37"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q28:Q33"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="S28:S31"/>
-    <mergeCell ref="T28:T33"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="R38:R42"/>
-    <mergeCell ref="S38:S42"/>
-    <mergeCell ref="T38:T42"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="S22:S24"/>
-    <mergeCell ref="T22:T24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="S6:S9"/>
-    <mergeCell ref="T6:T9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -29573,30 +29576,30 @@
   <sheetData>
     <row r="2" spans="2:9" ht="9.9499999999999993" customHeight="1"/>
     <row r="3" spans="2:9" s="22" customFormat="1" ht="25.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="280" t="s">
         <v>2214</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="290" t="s">
+      <c r="C3" s="280"/>
+      <c r="D3" s="257" t="s">
         <v>2215</v>
       </c>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
+      <c r="E3" s="257"/>
+      <c r="F3" s="257"/>
+      <c r="G3" s="257"/>
+      <c r="H3" s="257"/>
+      <c r="I3" s="257"/>
     </row>
     <row r="4" spans="2:9" ht="23.1" customHeight="1">
-      <c r="B4" s="294" t="s">
+      <c r="B4" s="278" t="s">
         <v>2216</v>
       </c>
-      <c r="C4" s="294" t="s">
+      <c r="C4" s="278" t="s">
         <v>2217</v>
       </c>
-      <c r="D4" s="257" t="s">
+      <c r="D4" s="293" t="s">
         <v>2218</v>
       </c>
-      <c r="E4" s="257"/>
+      <c r="E4" s="293"/>
       <c r="F4" s="23" t="s">
         <v>37</v>
       </c>
@@ -29611,10 +29614,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="23.1" customHeight="1">
-      <c r="B5" s="295"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
       <c r="F5" s="24" t="s">
         <v>2219</v>
       </c>
@@ -29629,16 +29632,16 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B6" s="273" t="s">
+      <c r="B6" s="261" t="s">
         <v>2223</v>
       </c>
-      <c r="C6" s="266" t="s">
+      <c r="C6" s="273" t="s">
         <v>2224</v>
       </c>
-      <c r="D6" s="259" t="s">
+      <c r="D6" s="264" t="s">
         <v>2225</v>
       </c>
-      <c r="E6" s="260"/>
+      <c r="E6" s="277"/>
       <c r="F6" s="19" t="s">
         <v>35</v>
       </c>
@@ -29653,10 +29656,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B7" s="275"/>
-      <c r="C7" s="267"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="262"/>
+      <c r="B7" s="263"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="266"/>
+      <c r="E7" s="267"/>
       <c r="F7" s="25" t="s">
         <v>2226</v>
       </c>
@@ -29671,16 +29674,16 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B8" s="273" t="s">
+      <c r="B8" s="261" t="s">
         <v>2230</v>
       </c>
-      <c r="C8" s="266" t="s">
+      <c r="C8" s="273" t="s">
         <v>2231</v>
       </c>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="264" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="260"/>
+      <c r="E8" s="277"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
@@ -29689,10 +29692,10 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B9" s="274"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="261"/>
-      <c r="E9" s="262"/>
+      <c r="B9" s="262"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="267"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25" t="s">
@@ -29701,14 +29704,14 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B10" s="274"/>
-      <c r="C10" s="266" t="s">
+      <c r="B10" s="262"/>
+      <c r="C10" s="273" t="s">
         <v>2224</v>
       </c>
-      <c r="D10" s="270" t="s">
+      <c r="D10" s="268" t="s">
         <v>2233</v>
       </c>
-      <c r="E10" s="268" t="s">
+      <c r="E10" s="281" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -29725,10 +29728,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B11" s="275"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="271"/>
-      <c r="E11" s="269"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="274"/>
+      <c r="D11" s="269"/>
+      <c r="E11" s="283"/>
       <c r="F11" s="25" t="s">
         <v>2234</v>
       </c>
@@ -29743,14 +29746,14 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B12" s="281" t="s">
+      <c r="B12" s="275" t="s">
         <v>2238</v>
       </c>
-      <c r="C12" s="266" t="s">
+      <c r="C12" s="273" t="s">
         <v>2224</v>
       </c>
-      <c r="D12" s="271"/>
-      <c r="E12" s="268" t="s">
+      <c r="D12" s="269"/>
+      <c r="E12" s="281" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -29767,10 +29770,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B13" s="283"/>
-      <c r="C13" s="267"/>
-      <c r="D13" s="272"/>
-      <c r="E13" s="269"/>
+      <c r="B13" s="276"/>
+      <c r="C13" s="274"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="283"/>
       <c r="F13" s="20" t="s">
         <v>2240</v>
       </c>
@@ -29785,16 +29788,16 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B14" s="273" t="s">
+      <c r="B14" s="261" t="s">
         <v>2230</v>
       </c>
-      <c r="C14" s="266" t="s">
+      <c r="C14" s="273" t="s">
         <v>2244</v>
       </c>
-      <c r="D14" s="270" t="s">
+      <c r="D14" s="268" t="s">
         <v>2245</v>
       </c>
-      <c r="E14" s="268" t="s">
+      <c r="E14" s="281" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -29809,10 +29812,10 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B15" s="274"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="271"/>
-      <c r="E15" s="278"/>
+      <c r="B15" s="262"/>
+      <c r="C15" s="274"/>
+      <c r="D15" s="269"/>
+      <c r="E15" s="282"/>
       <c r="F15" s="25" t="s">
         <v>2246</v>
       </c>
@@ -29825,12 +29828,12 @@
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B16" s="274"/>
-      <c r="C16" s="266" t="s">
+      <c r="B16" s="262"/>
+      <c r="C16" s="273" t="s">
         <v>2249</v>
       </c>
-      <c r="D16" s="271"/>
-      <c r="E16" s="278"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="282"/>
       <c r="F16" s="19" t="s">
         <v>90</v>
       </c>
@@ -29841,10 +29844,10 @@
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B17" s="275"/>
-      <c r="C17" s="267"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="269"/>
+      <c r="B17" s="263"/>
+      <c r="C17" s="274"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="283"/>
       <c r="F17" s="25" t="s">
         <v>2250</v>
       </c>
@@ -29855,14 +29858,14 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B18" s="281" t="s">
+      <c r="B18" s="275" t="s">
         <v>2252</v>
       </c>
-      <c r="C18" s="266" t="s">
+      <c r="C18" s="273" t="s">
         <v>2244</v>
       </c>
-      <c r="D18" s="271"/>
-      <c r="E18" s="279" t="s">
+      <c r="D18" s="269"/>
+      <c r="E18" s="284" t="s">
         <v>2253</v>
       </c>
       <c r="F18" s="19" t="s">
@@ -29877,10 +29880,10 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B19" s="282"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="280"/>
+      <c r="B19" s="286"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="269"/>
+      <c r="E19" s="285"/>
       <c r="F19" s="25" t="s">
         <v>2254</v>
       </c>
@@ -29893,12 +29896,12 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B20" s="282"/>
-      <c r="C20" s="266" t="s">
+      <c r="B20" s="286"/>
+      <c r="C20" s="273" t="s">
         <v>2249</v>
       </c>
-      <c r="D20" s="271"/>
-      <c r="E20" s="280"/>
+      <c r="D20" s="269"/>
+      <c r="E20" s="285"/>
       <c r="F20" s="19" t="s">
         <v>106</v>
       </c>
@@ -29907,13 +29910,13 @@
       <c r="I20" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="263"/>
+      <c r="J20" s="295"/>
     </row>
     <row r="21" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B21" s="283"/>
-      <c r="C21" s="267"/>
-      <c r="D21" s="271"/>
-      <c r="E21" s="280"/>
+      <c r="B21" s="276"/>
+      <c r="C21" s="274"/>
+      <c r="D21" s="269"/>
+      <c r="E21" s="285"/>
       <c r="F21" s="25" t="s">
         <v>2257</v>
       </c>
@@ -29922,17 +29925,17 @@
       <c r="I21" s="25" t="s">
         <v>2258</v>
       </c>
-      <c r="J21" s="263"/>
+      <c r="J21" s="295"/>
     </row>
     <row r="22" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B22" s="273" t="s">
+      <c r="B22" s="261" t="s">
         <v>2259</v>
       </c>
-      <c r="C22" s="264" t="s">
+      <c r="C22" s="291" t="s">
         <v>2244</v>
       </c>
-      <c r="D22" s="276"/>
-      <c r="E22" s="291" t="s">
+      <c r="D22" s="270"/>
+      <c r="E22" s="258" t="s">
         <v>2260</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -29947,10 +29950,10 @@
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B23" s="274"/>
-      <c r="C23" s="265"/>
-      <c r="D23" s="276"/>
-      <c r="E23" s="292"/>
+      <c r="B23" s="262"/>
+      <c r="C23" s="292"/>
+      <c r="D23" s="270"/>
+      <c r="E23" s="259"/>
       <c r="F23" s="27" t="s">
         <v>2261</v>
       </c>
@@ -29963,12 +29966,12 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B24" s="274"/>
-      <c r="C24" s="264" t="s">
+      <c r="B24" s="262"/>
+      <c r="C24" s="291" t="s">
         <v>2249</v>
       </c>
-      <c r="D24" s="276"/>
-      <c r="E24" s="292"/>
+      <c r="D24" s="270"/>
+      <c r="E24" s="259"/>
       <c r="F24" s="26" t="s">
         <v>119</v>
       </c>
@@ -29979,10 +29982,10 @@
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B25" s="274"/>
-      <c r="C25" s="265"/>
-      <c r="D25" s="261"/>
-      <c r="E25" s="293"/>
+      <c r="B25" s="262"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="266"/>
+      <c r="E25" s="260"/>
       <c r="F25" s="27" t="s">
         <v>2264</v>
       </c>
@@ -29993,14 +29996,14 @@
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B26" s="274"/>
-      <c r="C26" s="284" t="s">
+      <c r="B26" s="262"/>
+      <c r="C26" s="271" t="s">
         <v>2266</v>
       </c>
-      <c r="D26" s="259" t="s">
+      <c r="D26" s="264" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="277"/>
+      <c r="E26" s="265"/>
       <c r="F26" s="21"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -30009,10 +30012,10 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B27" s="275"/>
-      <c r="C27" s="285"/>
-      <c r="D27" s="261"/>
-      <c r="E27" s="262"/>
+      <c r="B27" s="263"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="266"/>
+      <c r="E27" s="267"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -30021,16 +30024,16 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B28" s="273" t="s">
+      <c r="B28" s="261" t="s">
         <v>2268</v>
       </c>
-      <c r="C28" s="266" t="s">
+      <c r="C28" s="273" t="s">
         <v>2224</v>
       </c>
-      <c r="D28" s="259" t="s">
+      <c r="D28" s="264" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="260"/>
+      <c r="E28" s="277"/>
       <c r="F28" s="19" t="s">
         <v>124</v>
       </c>
@@ -30045,10 +30048,10 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B29" s="274"/>
-      <c r="C29" s="267"/>
-      <c r="D29" s="261"/>
-      <c r="E29" s="262"/>
+      <c r="B29" s="262"/>
+      <c r="C29" s="274"/>
+      <c r="D29" s="266"/>
+      <c r="E29" s="267"/>
       <c r="F29" s="25" t="s">
         <v>2270</v>
       </c>
@@ -30063,14 +30066,14 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B30" s="274"/>
-      <c r="C30" s="266" t="s">
+      <c r="B30" s="262"/>
+      <c r="C30" s="273" t="s">
         <v>2274</v>
       </c>
-      <c r="D30" s="259" t="s">
+      <c r="D30" s="264" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="260"/>
+      <c r="E30" s="277"/>
       <c r="F30" s="19" t="s">
         <v>139</v>
       </c>
@@ -30083,10 +30086,10 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B31" s="275"/>
-      <c r="C31" s="267"/>
-      <c r="D31" s="276"/>
-      <c r="E31" s="277"/>
+      <c r="B31" s="263"/>
+      <c r="C31" s="274"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="265"/>
       <c r="F31" s="25" t="s">
         <v>2275</v>
       </c>
@@ -30099,14 +30102,14 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B32" s="273" t="s">
+      <c r="B32" s="261" t="s">
         <v>2277</v>
       </c>
-      <c r="C32" s="284" t="s">
+      <c r="C32" s="271" t="s">
         <v>2278</v>
       </c>
-      <c r="D32" s="276"/>
-      <c r="E32" s="277"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="265"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -30115,10 +30118,10 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B33" s="275"/>
-      <c r="C33" s="285"/>
-      <c r="D33" s="276"/>
-      <c r="E33" s="277"/>
+      <c r="B33" s="263"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="265"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -30127,14 +30130,14 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B34" s="273" t="s">
+      <c r="B34" s="261" t="s">
         <v>2280</v>
       </c>
-      <c r="C34" s="284" t="s">
+      <c r="C34" s="271" t="s">
         <v>2281</v>
       </c>
-      <c r="D34" s="276"/>
-      <c r="E34" s="277"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="265"/>
       <c r="F34" s="19" t="s">
         <v>146</v>
       </c>
@@ -30143,10 +30146,10 @@
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B35" s="274"/>
-      <c r="C35" s="285"/>
-      <c r="D35" s="276"/>
-      <c r="E35" s="277"/>
+      <c r="B35" s="262"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="265"/>
       <c r="F35" s="25" t="s">
         <v>2282</v>
       </c>
@@ -30155,12 +30158,12 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B36" s="274"/>
-      <c r="C36" s="284" t="s">
+      <c r="B36" s="262"/>
+      <c r="C36" s="271" t="s">
         <v>2283</v>
       </c>
-      <c r="D36" s="276"/>
-      <c r="E36" s="277"/>
+      <c r="D36" s="270"/>
+      <c r="E36" s="265"/>
       <c r="F36" s="19" t="s">
         <v>139</v>
       </c>
@@ -30173,10 +30176,10 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B37" s="275"/>
-      <c r="C37" s="285"/>
-      <c r="D37" s="276"/>
-      <c r="E37" s="277"/>
+      <c r="B37" s="263"/>
+      <c r="C37" s="272"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="265"/>
       <c r="F37" s="25" t="s">
         <v>2284</v>
       </c>
@@ -30189,12 +30192,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B38" s="286" t="s">
+      <c r="B38" s="287" t="s">
         <v>2286</v>
       </c>
-      <c r="C38" s="287"/>
-      <c r="D38" s="276"/>
-      <c r="E38" s="277"/>
+      <c r="C38" s="288"/>
+      <c r="D38" s="270"/>
+      <c r="E38" s="265"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -30203,10 +30206,10 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B39" s="288"/>
-      <c r="C39" s="289"/>
-      <c r="D39" s="261"/>
-      <c r="E39" s="262"/>
+      <c r="B39" s="289"/>
+      <c r="C39" s="290"/>
+      <c r="D39" s="266"/>
+      <c r="E39" s="267"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -30216,6 +30219,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="D28:E29"/>
+    <mergeCell ref="D30:E39"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C24:C25"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="E22:E25"/>
     <mergeCell ref="B22:B27"/>
@@ -30232,34 +30263,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="D28:E29"/>
-    <mergeCell ref="D30:E39"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -30373,20 +30376,20 @@
   <sheetData>
     <row r="1" spans="2:7" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:7" s="8" customFormat="1">
-      <c r="B2" s="304" t="s">
+      <c r="B2" s="297" t="s">
         <v>2288</v>
       </c>
-      <c r="C2" s="305"/>
-      <c r="D2" s="301" t="s">
+      <c r="C2" s="298"/>
+      <c r="D2" s="306" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="302"/>
-      <c r="F2" s="302"/>
-      <c r="G2" s="303"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="308"/>
     </row>
     <row r="3" spans="2:7" s="8" customFormat="1">
-      <c r="B3" s="306"/>
-      <c r="C3" s="307"/>
+      <c r="B3" s="299"/>
+      <c r="C3" s="300"/>
       <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
@@ -30401,10 +30404,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B4" s="304" t="s">
+      <c r="B4" s="297" t="s">
         <v>2225</v>
       </c>
-      <c r="C4" s="305"/>
+      <c r="C4" s="298"/>
       <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
@@ -30419,8 +30422,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B5" s="306"/>
-      <c r="C5" s="307"/>
+      <c r="B5" s="299"/>
+      <c r="C5" s="300"/>
       <c r="D5" s="5" t="s">
         <v>2226</v>
       </c>
@@ -30435,10 +30438,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B6" s="299" t="s">
+      <c r="B6" s="303" t="s">
         <v>2233</v>
       </c>
-      <c r="C6" s="299" t="s">
+      <c r="C6" s="303" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -30455,8 +30458,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B7" s="308"/>
-      <c r="C7" s="300"/>
+      <c r="B7" s="304"/>
+      <c r="C7" s="305"/>
       <c r="D7" s="5" t="s">
         <v>2234</v>
       </c>
@@ -30471,8 +30474,8 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B8" s="308"/>
-      <c r="C8" s="299" t="s">
+      <c r="B8" s="304"/>
+      <c r="C8" s="303" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -30489,8 +30492,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B9" s="300"/>
-      <c r="C9" s="300"/>
+      <c r="B9" s="305"/>
+      <c r="C9" s="305"/>
       <c r="D9" s="5" t="s">
         <v>2291</v>
       </c>
@@ -30505,10 +30508,10 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B10" s="299" t="s">
+      <c r="B10" s="303" t="s">
         <v>2295</v>
       </c>
-      <c r="C10" s="299" t="s">
+      <c r="C10" s="303" t="s">
         <v>2296</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -30520,11 +30523,11 @@
       <c r="F10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="297"/>
+      <c r="G10" s="309"/>
     </row>
     <row r="11" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B11" s="308"/>
-      <c r="C11" s="308"/>
+      <c r="B11" s="304"/>
+      <c r="C11" s="304"/>
       <c r="D11" s="5" t="s">
         <v>2297</v>
       </c>
@@ -30534,35 +30537,35 @@
       <c r="F11" s="5" t="s">
         <v>2299</v>
       </c>
-      <c r="G11" s="298"/>
+      <c r="G11" s="310"/>
     </row>
     <row r="12" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B12" s="308"/>
-      <c r="C12" s="308"/>
+      <c r="B12" s="304"/>
+      <c r="C12" s="304"/>
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="297"/>
+      <c r="E12" s="309"/>
       <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="297"/>
+      <c r="G12" s="309"/>
     </row>
     <row r="13" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B13" s="308"/>
-      <c r="C13" s="300"/>
+      <c r="B13" s="304"/>
+      <c r="C13" s="305"/>
       <c r="D13" s="5" t="s">
         <v>2250</v>
       </c>
-      <c r="E13" s="298"/>
+      <c r="E13" s="310"/>
       <c r="F13" s="5" t="s">
         <v>2251</v>
       </c>
-      <c r="G13" s="298"/>
+      <c r="G13" s="310"/>
     </row>
     <row r="14" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B14" s="308"/>
-      <c r="C14" s="299" t="s">
+      <c r="B14" s="304"/>
+      <c r="C14" s="303" t="s">
         <v>2300</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -30574,11 +30577,11 @@
       <c r="F14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="297"/>
+      <c r="G14" s="309"/>
     </row>
     <row r="15" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B15" s="308"/>
-      <c r="C15" s="308"/>
+      <c r="B15" s="304"/>
+      <c r="C15" s="304"/>
       <c r="D15" s="5" t="s">
         <v>2301</v>
       </c>
@@ -30588,35 +30591,35 @@
       <c r="F15" s="5" t="s">
         <v>2303</v>
       </c>
-      <c r="G15" s="298"/>
+      <c r="G15" s="310"/>
     </row>
     <row r="16" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B16" s="308"/>
-      <c r="C16" s="308"/>
+      <c r="B16" s="304"/>
+      <c r="C16" s="304"/>
       <c r="D16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="297"/>
+      <c r="E16" s="309"/>
       <c r="F16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="297"/>
+      <c r="G16" s="309"/>
     </row>
     <row r="17" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B17" s="308"/>
-      <c r="C17" s="300"/>
+      <c r="B17" s="304"/>
+      <c r="C17" s="305"/>
       <c r="D17" s="5" t="s">
         <v>2304</v>
       </c>
-      <c r="E17" s="298"/>
+      <c r="E17" s="310"/>
       <c r="F17" s="5" t="s">
         <v>2305</v>
       </c>
-      <c r="G17" s="298"/>
+      <c r="G17" s="310"/>
     </row>
     <row r="18" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B18" s="308"/>
-      <c r="C18" s="299" t="s">
+      <c r="B18" s="304"/>
+      <c r="C18" s="303" t="s">
         <v>2306</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -30628,11 +30631,11 @@
       <c r="F18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="297"/>
+      <c r="G18" s="309"/>
     </row>
     <row r="19" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B19" s="308"/>
-      <c r="C19" s="308"/>
+      <c r="B19" s="304"/>
+      <c r="C19" s="304"/>
       <c r="D19" s="5" t="s">
         <v>2307</v>
       </c>
@@ -30642,37 +30645,37 @@
       <c r="F19" s="5" t="s">
         <v>2309</v>
       </c>
-      <c r="G19" s="298"/>
+      <c r="G19" s="310"/>
     </row>
     <row r="20" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B20" s="308"/>
-      <c r="C20" s="308"/>
+      <c r="B20" s="304"/>
+      <c r="C20" s="304"/>
       <c r="D20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="297"/>
+      <c r="E20" s="309"/>
       <c r="F20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="297"/>
+      <c r="G20" s="309"/>
     </row>
     <row r="21" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B21" s="300"/>
-      <c r="C21" s="300"/>
+      <c r="B21" s="305"/>
+      <c r="C21" s="305"/>
       <c r="D21" s="5" t="s">
         <v>2264</v>
       </c>
-      <c r="E21" s="298"/>
+      <c r="E21" s="310"/>
       <c r="F21" s="5" t="s">
         <v>2265</v>
       </c>
-      <c r="G21" s="298"/>
+      <c r="G21" s="310"/>
     </row>
     <row r="22" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B22" s="304" t="s">
+      <c r="B22" s="297" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="305"/>
+      <c r="C22" s="298"/>
       <c r="D22" s="4" t="s">
         <v>124</v>
       </c>
@@ -30687,8 +30690,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B23" s="306"/>
-      <c r="C23" s="307"/>
+      <c r="B23" s="299"/>
+      <c r="C23" s="300"/>
       <c r="D23" s="5" t="s">
         <v>2270</v>
       </c>
@@ -30703,144 +30706,160 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B24" s="304" t="s">
+      <c r="B24" s="297" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="305"/>
+      <c r="C24" s="298"/>
       <c r="D24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="297"/>
-      <c r="F24" s="297"/>
-      <c r="G24" s="297"/>
+      <c r="E24" s="309"/>
+      <c r="F24" s="309"/>
+      <c r="G24" s="309"/>
     </row>
     <row r="25" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B25" s="309"/>
-      <c r="C25" s="310"/>
+      <c r="B25" s="301"/>
+      <c r="C25" s="302"/>
       <c r="D25" s="5" t="s">
         <v>2282</v>
       </c>
-      <c r="E25" s="298"/>
-      <c r="F25" s="298"/>
-      <c r="G25" s="298"/>
+      <c r="E25" s="310"/>
+      <c r="F25" s="310"/>
+      <c r="G25" s="310"/>
     </row>
     <row r="26" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B26" s="309"/>
-      <c r="C26" s="310"/>
+      <c r="B26" s="301"/>
+      <c r="C26" s="302"/>
       <c r="D26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="297"/>
+      <c r="E26" s="309"/>
       <c r="F26" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="297"/>
+      <c r="G26" s="309"/>
     </row>
     <row r="27" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B27" s="309"/>
-      <c r="C27" s="310"/>
+      <c r="B27" s="301"/>
+      <c r="C27" s="302"/>
       <c r="D27" s="5" t="s">
         <v>2275</v>
       </c>
-      <c r="E27" s="298"/>
+      <c r="E27" s="310"/>
       <c r="F27" s="5" t="s">
         <v>2276</v>
       </c>
-      <c r="G27" s="298"/>
+      <c r="G27" s="310"/>
     </row>
     <row r="28" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B28" s="309"/>
-      <c r="C28" s="310"/>
-      <c r="D28" s="297"/>
-      <c r="E28" s="297"/>
-      <c r="F28" s="297"/>
+      <c r="B28" s="301"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="309"/>
       <c r="G28" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B29" s="309"/>
-      <c r="C29" s="310"/>
-      <c r="D29" s="298"/>
-      <c r="E29" s="298"/>
-      <c r="F29" s="298"/>
+      <c r="B29" s="301"/>
+      <c r="C29" s="302"/>
+      <c r="D29" s="310"/>
+      <c r="E29" s="310"/>
+      <c r="F29" s="310"/>
       <c r="G29" s="5" t="s">
         <v>2311</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B30" s="309"/>
-      <c r="C30" s="310"/>
-      <c r="D30" s="297"/>
-      <c r="E30" s="297"/>
-      <c r="F30" s="297"/>
+      <c r="B30" s="301"/>
+      <c r="C30" s="302"/>
+      <c r="D30" s="309"/>
+      <c r="E30" s="309"/>
+      <c r="F30" s="309"/>
       <c r="G30" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B31" s="306"/>
-      <c r="C31" s="307"/>
-      <c r="D31" s="298"/>
-      <c r="E31" s="298"/>
-      <c r="F31" s="298"/>
+      <c r="B31" s="299"/>
+      <c r="C31" s="300"/>
+      <c r="D31" s="310"/>
+      <c r="E31" s="310"/>
+      <c r="F31" s="310"/>
       <c r="G31" s="5" t="s">
         <v>2312</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B32" s="304" t="s">
+      <c r="B32" s="297" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="305"/>
-      <c r="D32" s="297"/>
+      <c r="C32" s="298"/>
+      <c r="D32" s="309"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="297"/>
+      <c r="F32" s="309"/>
       <c r="G32" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B33" s="306"/>
-      <c r="C33" s="307"/>
-      <c r="D33" s="298"/>
+      <c r="B33" s="299"/>
+      <c r="C33" s="300"/>
+      <c r="D33" s="310"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="298"/>
+      <c r="F33" s="310"/>
       <c r="G33" s="5" t="s">
         <v>2232</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B34" s="304" t="s">
+      <c r="B34" s="297" t="s">
         <v>2313</v>
       </c>
-      <c r="C34" s="305"/>
-      <c r="D34" s="297"/>
+      <c r="C34" s="298"/>
+      <c r="D34" s="309"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="297"/>
+      <c r="F34" s="309"/>
       <c r="G34" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B35" s="306"/>
-      <c r="C35" s="307"/>
-      <c r="D35" s="298"/>
+      <c r="B35" s="299"/>
+      <c r="C35" s="300"/>
+      <c r="D35" s="310"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="298"/>
+      <c r="F35" s="310"/>
       <c r="G35" s="5" t="s">
         <v>2314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -30849,29 +30868,13 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30908,7 +30911,7 @@
     <row r="3" spans="2:20">
       <c r="B3" s="239"/>
       <c r="C3" s="239"/>
-      <c r="D3" s="311"/>
+      <c r="D3" s="319"/>
       <c r="E3" s="239" t="s">
         <v>173</v>
       </c>
@@ -30941,7 +30944,7 @@
     <row r="4" spans="2:20" s="6" customFormat="1">
       <c r="B4" s="239"/>
       <c r="C4" s="239"/>
-      <c r="D4" s="311"/>
+      <c r="D4" s="319"/>
       <c r="E4" s="16" t="s">
         <v>174</v>
       </c>
@@ -31023,16 +31026,16 @@
         <v>2320</v>
       </c>
       <c r="P5" s="15"/>
-      <c r="Q5" s="312" t="s">
+      <c r="Q5" s="311" t="s">
         <v>2318</v>
       </c>
-      <c r="R5" s="312" t="s">
+      <c r="R5" s="311" t="s">
         <v>2319</v>
       </c>
-      <c r="S5" s="312" t="s">
+      <c r="S5" s="311" t="s">
         <v>2320</v>
       </c>
-      <c r="T5" s="312" t="s">
+      <c r="T5" s="311" t="s">
         <v>2321</v>
       </c>
     </row>
@@ -31091,16 +31094,16 @@
         <v>2323</v>
       </c>
       <c r="P7" s="15"/>
-      <c r="Q7" s="312" t="s">
+      <c r="Q7" s="311" t="s">
         <v>2322</v>
       </c>
-      <c r="R7" s="312" t="s">
+      <c r="R7" s="311" t="s">
         <v>2324</v>
       </c>
-      <c r="S7" s="312" t="s">
+      <c r="S7" s="311" t="s">
         <v>2323</v>
       </c>
-      <c r="T7" s="312" t="s">
+      <c r="T7" s="311" t="s">
         <v>2325</v>
       </c>
     </row>
@@ -31126,10 +31129,10 @@
       <c r="P8" s="14" t="s">
         <v>2325</v>
       </c>
-      <c r="Q8" s="314"/>
-      <c r="R8" s="314"/>
-      <c r="S8" s="314"/>
-      <c r="T8" s="314"/>
+      <c r="Q8" s="312"/>
+      <c r="R8" s="312"/>
+      <c r="S8" s="312"/>
+      <c r="T8" s="312"/>
     </row>
     <row r="9" spans="2:20" ht="25.5">
       <c r="B9" s="239"/>
@@ -31159,10 +31162,10 @@
         <v>2327</v>
       </c>
       <c r="P9" s="15"/>
-      <c r="Q9" s="314"/>
-      <c r="R9" s="314"/>
-      <c r="S9" s="314"/>
-      <c r="T9" s="314"/>
+      <c r="Q9" s="312"/>
+      <c r="R9" s="312"/>
+      <c r="S9" s="312"/>
+      <c r="T9" s="312"/>
     </row>
     <row r="10" spans="2:20" ht="25.5">
       <c r="B10" s="239"/>
@@ -31221,16 +31224,16 @@
         <v>2332</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="Q11" s="312" t="s">
+      <c r="Q11" s="311" t="s">
         <v>2333</v>
       </c>
-      <c r="R11" s="312" t="s">
+      <c r="R11" s="311" t="s">
         <v>2331</v>
       </c>
-      <c r="S11" s="312" t="s">
+      <c r="S11" s="311" t="s">
         <v>2334</v>
       </c>
-      <c r="T11" s="312" t="s">
+      <c r="T11" s="311" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -31293,16 +31296,16 @@
         <v>2340</v>
       </c>
       <c r="P13" s="15"/>
-      <c r="Q13" s="312" t="s">
+      <c r="Q13" s="311" t="s">
         <v>2341</v>
       </c>
-      <c r="R13" s="312" t="s">
+      <c r="R13" s="311" t="s">
         <v>2339</v>
       </c>
-      <c r="S13" s="312" t="s">
+      <c r="S13" s="311" t="s">
         <v>2342</v>
       </c>
-      <c r="T13" s="312"/>
+      <c r="T13" s="311"/>
     </row>
     <row r="14" spans="2:20" ht="25.5">
       <c r="B14" s="239"/>
@@ -31334,10 +31337,10 @@
         <v>2345</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="Q14" s="314"/>
-      <c r="R14" s="314"/>
-      <c r="S14" s="314"/>
-      <c r="T14" s="314"/>
+      <c r="Q14" s="312"/>
+      <c r="R14" s="312"/>
+      <c r="S14" s="312"/>
+      <c r="T14" s="312"/>
     </row>
     <row r="15" spans="2:20" ht="25.5">
       <c r="B15" s="239"/>
@@ -31482,16 +31485,16 @@
         <v>1943</v>
       </c>
       <c r="P18" s="15"/>
-      <c r="Q18" s="312" t="s">
+      <c r="Q18" s="311" t="s">
         <v>2363</v>
       </c>
-      <c r="R18" s="312" t="s">
+      <c r="R18" s="311" t="s">
         <v>2364</v>
       </c>
-      <c r="S18" s="312" t="s">
+      <c r="S18" s="311" t="s">
         <v>2365</v>
       </c>
-      <c r="T18" s="312"/>
+      <c r="T18" s="311"/>
     </row>
     <row r="19" spans="2:20" ht="25.5">
       <c r="B19" s="239"/>
@@ -31558,16 +31561,16 @@
         <v>1953</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="Q20" s="312" t="s">
+      <c r="Q20" s="311" t="s">
         <v>2368</v>
       </c>
-      <c r="R20" s="312" t="s">
+      <c r="R20" s="311" t="s">
         <v>2369</v>
       </c>
-      <c r="S20" s="312" t="s">
+      <c r="S20" s="311" t="s">
         <v>2370</v>
       </c>
-      <c r="T20" s="312"/>
+      <c r="T20" s="311"/>
     </row>
     <row r="21" spans="2:20" ht="25.5">
       <c r="B21" s="239"/>
@@ -31663,16 +31666,16 @@
         <v>1962</v>
       </c>
       <c r="P23" s="15"/>
-      <c r="Q23" s="312" t="s">
+      <c r="Q23" s="311" t="s">
         <v>2372</v>
       </c>
-      <c r="R23" s="312" t="s">
+      <c r="R23" s="311" t="s">
         <v>2373</v>
       </c>
-      <c r="S23" s="312" t="s">
+      <c r="S23" s="311" t="s">
         <v>1965</v>
       </c>
-      <c r="T23" s="312"/>
+      <c r="T23" s="311"/>
     </row>
     <row r="24" spans="2:20" ht="25.5">
       <c r="B24" s="239"/>
@@ -31706,7 +31709,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="313"/>
       <c r="R24" s="313"/>
-      <c r="S24" s="314"/>
+      <c r="S24" s="312"/>
       <c r="T24" s="313"/>
     </row>
     <row r="25" spans="2:20" ht="25.5">
@@ -31768,13 +31771,13 @@
         <v>1973</v>
       </c>
       <c r="P26" s="15"/>
-      <c r="Q26" s="312" t="s">
+      <c r="Q26" s="311" t="s">
         <v>1974</v>
       </c>
-      <c r="R26" s="312" t="s">
+      <c r="R26" s="311" t="s">
         <v>1975</v>
       </c>
-      <c r="S26" s="312" t="s">
+      <c r="S26" s="311" t="s">
         <v>1976</v>
       </c>
       <c r="T26" s="11"/>
@@ -31809,7 +31812,7 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="313"/>
       <c r="R27" s="313"/>
-      <c r="S27" s="314"/>
+      <c r="S27" s="312"/>
       <c r="T27" s="11"/>
     </row>
     <row r="28" spans="2:20" ht="25.5">
@@ -31875,16 +31878,16 @@
         <v>1984</v>
       </c>
       <c r="P29" s="15"/>
-      <c r="Q29" s="312" t="s">
+      <c r="Q29" s="311" t="s">
         <v>2379</v>
       </c>
-      <c r="R29" s="312" t="s">
+      <c r="R29" s="311" t="s">
         <v>1986</v>
       </c>
-      <c r="S29" s="312" t="s">
+      <c r="S29" s="311" t="s">
         <v>1987</v>
       </c>
-      <c r="T29" s="312" t="s">
+      <c r="T29" s="311" t="s">
         <v>2380</v>
       </c>
     </row>
@@ -31912,10 +31915,10 @@
       <c r="P30" s="14" t="s">
         <v>2383</v>
       </c>
-      <c r="Q30" s="314"/>
-      <c r="R30" s="314"/>
-      <c r="S30" s="314"/>
-      <c r="T30" s="314"/>
+      <c r="Q30" s="312"/>
+      <c r="R30" s="312"/>
+      <c r="S30" s="312"/>
+      <c r="T30" s="312"/>
     </row>
     <row r="31" spans="2:20" ht="25.5">
       <c r="B31" s="239"/>
@@ -31945,10 +31948,10 @@
         <v>1992</v>
       </c>
       <c r="P31" s="15"/>
-      <c r="Q31" s="314"/>
-      <c r="R31" s="314"/>
-      <c r="S31" s="314"/>
-      <c r="T31" s="314"/>
+      <c r="Q31" s="312"/>
+      <c r="R31" s="312"/>
+      <c r="S31" s="312"/>
+      <c r="T31" s="312"/>
     </row>
     <row r="32" spans="2:20" ht="25.5">
       <c r="B32" s="239"/>
@@ -31972,10 +31975,10 @@
       <c r="P32" s="14" t="s">
         <v>2384</v>
       </c>
-      <c r="Q32" s="314"/>
+      <c r="Q32" s="312"/>
       <c r="R32" s="313"/>
       <c r="S32" s="313"/>
-      <c r="T32" s="314"/>
+      <c r="T32" s="312"/>
     </row>
     <row r="33" spans="2:20" ht="25.5">
       <c r="B33" s="239"/>
@@ -32001,10 +32004,10 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="314"/>
-      <c r="R33" s="312"/>
-      <c r="S33" s="318"/>
-      <c r="T33" s="314"/>
+      <c r="Q33" s="312"/>
+      <c r="R33" s="311"/>
+      <c r="S33" s="314"/>
+      <c r="T33" s="312"/>
     </row>
     <row r="34" spans="2:20" ht="25.5">
       <c r="B34" s="239"/>
@@ -32030,7 +32033,7 @@
       </c>
       <c r="Q34" s="313"/>
       <c r="R34" s="313"/>
-      <c r="S34" s="319"/>
+      <c r="S34" s="315"/>
       <c r="T34" s="313"/>
     </row>
     <row r="35" spans="2:20" ht="25.5">
@@ -32061,16 +32064,16 @@
         <v>1998</v>
       </c>
       <c r="P35" s="15"/>
-      <c r="Q35" s="312" t="s">
+      <c r="Q35" s="311" t="s">
         <v>1999</v>
       </c>
-      <c r="R35" s="312" t="s">
+      <c r="R35" s="311" t="s">
         <v>2000</v>
       </c>
-      <c r="S35" s="312" t="s">
+      <c r="S35" s="311" t="s">
         <v>2001</v>
       </c>
-      <c r="T35" s="312" t="s">
+      <c r="T35" s="311" t="s">
         <v>2386</v>
       </c>
     </row>
@@ -32096,10 +32099,10 @@
       <c r="P36" s="14" t="s">
         <v>2387</v>
       </c>
-      <c r="Q36" s="314"/>
-      <c r="R36" s="314"/>
-      <c r="S36" s="314"/>
-      <c r="T36" s="314"/>
+      <c r="Q36" s="312"/>
+      <c r="R36" s="312"/>
+      <c r="S36" s="312"/>
+      <c r="T36" s="312"/>
     </row>
     <row r="37" spans="2:20" ht="25.5">
       <c r="B37" s="239"/>
@@ -32129,10 +32132,10 @@
         <v>2006</v>
       </c>
       <c r="P37" s="15"/>
-      <c r="Q37" s="314"/>
-      <c r="R37" s="314"/>
-      <c r="S37" s="314"/>
-      <c r="T37" s="314"/>
+      <c r="Q37" s="312"/>
+      <c r="R37" s="312"/>
+      <c r="S37" s="312"/>
+      <c r="T37" s="312"/>
     </row>
     <row r="38" spans="2:20" ht="25.5">
       <c r="B38" s="239"/>
@@ -32189,16 +32192,16 @@
         <v>2391</v>
       </c>
       <c r="P39" s="15"/>
-      <c r="Q39" s="312" t="s">
+      <c r="Q39" s="311" t="s">
         <v>2011</v>
       </c>
-      <c r="R39" s="312" t="s">
+      <c r="R39" s="311" t="s">
         <v>2012</v>
       </c>
-      <c r="S39" s="312" t="s">
+      <c r="S39" s="311" t="s">
         <v>2013</v>
       </c>
-      <c r="T39" s="312" t="s">
+      <c r="T39" s="311" t="s">
         <v>2392</v>
       </c>
     </row>
@@ -32224,10 +32227,10 @@
       <c r="P40" s="14" t="s">
         <v>2393</v>
       </c>
-      <c r="Q40" s="314"/>
-      <c r="R40" s="314"/>
-      <c r="S40" s="314"/>
-      <c r="T40" s="314"/>
+      <c r="Q40" s="312"/>
+      <c r="R40" s="312"/>
+      <c r="S40" s="312"/>
+      <c r="T40" s="312"/>
     </row>
     <row r="41" spans="2:20" ht="25.5">
       <c r="B41" s="239"/>
@@ -32257,10 +32260,10 @@
         <v>2396</v>
       </c>
       <c r="P41" s="15"/>
-      <c r="Q41" s="314"/>
-      <c r="R41" s="314"/>
-      <c r="S41" s="314"/>
-      <c r="T41" s="314"/>
+      <c r="Q41" s="312"/>
+      <c r="R41" s="312"/>
+      <c r="S41" s="312"/>
+      <c r="T41" s="312"/>
     </row>
     <row r="42" spans="2:20" ht="25.5">
       <c r="B42" s="239"/>
@@ -32282,10 +32285,10 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="314"/>
-      <c r="R42" s="314"/>
-      <c r="S42" s="314"/>
-      <c r="T42" s="314"/>
+      <c r="Q42" s="312"/>
+      <c r="R42" s="312"/>
+      <c r="S42" s="312"/>
+      <c r="T42" s="312"/>
     </row>
     <row r="43" spans="2:20" ht="25.5">
       <c r="B43" s="239"/>
@@ -32317,10 +32320,10 @@
         <v>2399</v>
       </c>
       <c r="P43" s="15"/>
-      <c r="Q43" s="314"/>
-      <c r="R43" s="314"/>
-      <c r="S43" s="314"/>
-      <c r="T43" s="314"/>
+      <c r="Q43" s="312"/>
+      <c r="R43" s="312"/>
+      <c r="S43" s="312"/>
+      <c r="T43" s="312"/>
     </row>
     <row r="44" spans="2:20" ht="25.5">
       <c r="B44" s="239"/>
@@ -32381,16 +32384,16 @@
         <v>2030</v>
       </c>
       <c r="P45" s="15"/>
-      <c r="Q45" s="312" t="s">
+      <c r="Q45" s="311" t="s">
         <v>2024</v>
       </c>
-      <c r="R45" s="312" t="s">
+      <c r="R45" s="311" t="s">
         <v>2025</v>
       </c>
-      <c r="S45" s="312" t="s">
+      <c r="S45" s="311" t="s">
         <v>2026</v>
       </c>
-      <c r="T45" s="312" t="s">
+      <c r="T45" s="311" t="s">
         <v>2402</v>
       </c>
     </row>
@@ -32416,10 +32419,10 @@
       <c r="P46" s="14" t="s">
         <v>2031</v>
       </c>
-      <c r="Q46" s="314"/>
-      <c r="R46" s="314"/>
-      <c r="S46" s="314"/>
-      <c r="T46" s="314"/>
+      <c r="Q46" s="312"/>
+      <c r="R46" s="312"/>
+      <c r="S46" s="312"/>
+      <c r="T46" s="312"/>
     </row>
     <row r="47" spans="2:20" ht="25.5">
       <c r="B47" s="239"/>
@@ -32449,10 +32452,10 @@
         <v>2034</v>
       </c>
       <c r="P47" s="15"/>
-      <c r="Q47" s="314"/>
-      <c r="R47" s="314"/>
-      <c r="S47" s="314"/>
-      <c r="T47" s="314"/>
+      <c r="Q47" s="312"/>
+      <c r="R47" s="312"/>
+      <c r="S47" s="312"/>
+      <c r="T47" s="312"/>
     </row>
     <row r="48" spans="2:20" ht="25.5">
       <c r="B48" s="239"/>
@@ -32511,16 +32514,16 @@
         <v>2403</v>
       </c>
       <c r="P49" s="15"/>
-      <c r="Q49" s="312" t="s">
+      <c r="Q49" s="311" t="s">
         <v>2036</v>
       </c>
-      <c r="R49" s="312" t="s">
+      <c r="R49" s="311" t="s">
         <v>2037</v>
       </c>
-      <c r="S49" s="312" t="s">
+      <c r="S49" s="311" t="s">
         <v>2038</v>
       </c>
-      <c r="T49" s="312" t="s">
+      <c r="T49" s="311" t="s">
         <v>2404</v>
       </c>
     </row>
@@ -32548,10 +32551,10 @@
       <c r="P50" s="14" t="s">
         <v>2043</v>
       </c>
-      <c r="Q50" s="314"/>
-      <c r="R50" s="314"/>
-      <c r="S50" s="314"/>
-      <c r="T50" s="314"/>
+      <c r="Q50" s="312"/>
+      <c r="R50" s="312"/>
+      <c r="S50" s="312"/>
+      <c r="T50" s="312"/>
     </row>
     <row r="51" spans="2:20" ht="25.5">
       <c r="B51" s="239"/>
@@ -32583,10 +32586,10 @@
         <v>2046</v>
       </c>
       <c r="P51" s="15"/>
-      <c r="Q51" s="314"/>
-      <c r="R51" s="314"/>
-      <c r="S51" s="314"/>
-      <c r="T51" s="314"/>
+      <c r="Q51" s="312"/>
+      <c r="R51" s="312"/>
+      <c r="S51" s="312"/>
+      <c r="T51" s="312"/>
     </row>
     <row r="52" spans="2:20" ht="25.5">
       <c r="B52" s="239"/>
@@ -32647,16 +32650,16 @@
         <v>2406</v>
       </c>
       <c r="P53" s="15"/>
-      <c r="Q53" s="312" t="s">
+      <c r="Q53" s="311" t="s">
         <v>2405</v>
       </c>
-      <c r="R53" s="312" t="s">
+      <c r="R53" s="311" t="s">
         <v>2049</v>
       </c>
-      <c r="S53" s="312" t="s">
+      <c r="S53" s="311" t="s">
         <v>2407</v>
       </c>
-      <c r="T53" s="312" t="s">
+      <c r="T53" s="311" t="s">
         <v>2408</v>
       </c>
     </row>
@@ -32684,10 +32687,10 @@
       <c r="P54" s="14" t="s">
         <v>2055</v>
       </c>
-      <c r="Q54" s="314"/>
-      <c r="R54" s="314"/>
-      <c r="S54" s="314"/>
-      <c r="T54" s="314"/>
+      <c r="Q54" s="312"/>
+      <c r="R54" s="312"/>
+      <c r="S54" s="312"/>
+      <c r="T54" s="312"/>
     </row>
     <row r="55" spans="2:20" ht="25.5">
       <c r="B55" s="239"/>
@@ -32719,10 +32722,10 @@
         <v>2058</v>
       </c>
       <c r="P55" s="15"/>
-      <c r="Q55" s="314"/>
-      <c r="R55" s="314"/>
-      <c r="S55" s="314"/>
-      <c r="T55" s="314"/>
+      <c r="Q55" s="312"/>
+      <c r="R55" s="312"/>
+      <c r="S55" s="312"/>
+      <c r="T55" s="312"/>
     </row>
     <row r="56" spans="2:20" ht="25.5">
       <c r="B56" s="239"/>
@@ -32754,7 +32757,7 @@
       <c r="T56" s="313"/>
     </row>
     <row r="57" spans="2:20" ht="25.5">
-      <c r="B57" s="315" t="s">
+      <c r="B57" s="316" t="s">
         <v>2410</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -32783,19 +32786,19 @@
         <v>2065</v>
       </c>
       <c r="P57" s="15"/>
-      <c r="Q57" s="312" t="s">
+      <c r="Q57" s="311" t="s">
         <v>2414</v>
       </c>
-      <c r="R57" s="312" t="s">
+      <c r="R57" s="311" t="s">
         <v>2415</v>
       </c>
-      <c r="S57" s="312" t="s">
+      <c r="S57" s="311" t="s">
         <v>2062</v>
       </c>
-      <c r="T57" s="312"/>
+      <c r="T57" s="311"/>
     </row>
     <row r="58" spans="2:20" ht="25.5">
-      <c r="B58" s="316"/>
+      <c r="B58" s="317"/>
       <c r="C58" s="16" t="s">
         <v>525</v>
       </c>
@@ -32825,10 +32828,10 @@
       <c r="Q58" s="313"/>
       <c r="R58" s="313"/>
       <c r="S58" s="313"/>
-      <c r="T58" s="314"/>
+      <c r="T58" s="312"/>
     </row>
     <row r="59" spans="2:20" ht="25.5">
-      <c r="B59" s="316"/>
+      <c r="B59" s="317"/>
       <c r="C59" s="16" t="s">
         <v>2072</v>
       </c>
@@ -32864,10 +32867,10 @@
       <c r="S59" s="12" t="s">
         <v>2071</v>
       </c>
-      <c r="T59" s="314"/>
+      <c r="T59" s="312"/>
     </row>
     <row r="60" spans="2:20" ht="25.5">
-      <c r="B60" s="317"/>
+      <c r="B60" s="318"/>
       <c r="C60" s="16" t="s">
         <v>517</v>
       </c>
@@ -32903,10 +32906,10 @@
       <c r="S60" s="12" t="s">
         <v>2078</v>
       </c>
-      <c r="T60" s="314"/>
+      <c r="T60" s="312"/>
     </row>
     <row r="61" spans="2:20" ht="25.5">
-      <c r="B61" s="315" t="s">
+      <c r="B61" s="316" t="s">
         <v>2424</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -32935,19 +32938,19 @@
         <v>2088</v>
       </c>
       <c r="P61" s="15"/>
-      <c r="Q61" s="312" t="s">
+      <c r="Q61" s="311" t="s">
         <v>2426</v>
       </c>
-      <c r="R61" s="312" t="s">
+      <c r="R61" s="311" t="s">
         <v>2427</v>
       </c>
-      <c r="S61" s="312" t="s">
+      <c r="S61" s="311" t="s">
         <v>2085</v>
       </c>
-      <c r="T61" s="314"/>
+      <c r="T61" s="312"/>
     </row>
     <row r="62" spans="2:20" ht="25.5">
-      <c r="B62" s="317"/>
+      <c r="B62" s="318"/>
       <c r="C62" s="16" t="s">
         <v>540</v>
       </c>
@@ -32981,7 +32984,7 @@
       <c r="Q62" s="313"/>
       <c r="R62" s="313"/>
       <c r="S62" s="313"/>
-      <c r="T62" s="314"/>
+      <c r="T62" s="312"/>
     </row>
     <row r="63" spans="2:20" ht="25.5">
       <c r="B63" s="16" t="s">
@@ -33060,16 +33063,16 @@
         <v>2104</v>
       </c>
       <c r="P64" s="15"/>
-      <c r="Q64" s="312" t="s">
+      <c r="Q64" s="311" t="s">
         <v>2434</v>
       </c>
-      <c r="R64" s="312" t="s">
+      <c r="R64" s="311" t="s">
         <v>2099</v>
       </c>
-      <c r="S64" s="312" t="s">
+      <c r="S64" s="311" t="s">
         <v>2100</v>
       </c>
-      <c r="T64" s="312" t="s">
+      <c r="T64" s="311" t="s">
         <v>2435</v>
       </c>
     </row>
@@ -33097,10 +33100,10 @@
       <c r="P65" s="14" t="s">
         <v>2436</v>
       </c>
-      <c r="Q65" s="314"/>
-      <c r="R65" s="314"/>
-      <c r="S65" s="314"/>
-      <c r="T65" s="314"/>
+      <c r="Q65" s="312"/>
+      <c r="R65" s="312"/>
+      <c r="S65" s="312"/>
+      <c r="T65" s="312"/>
     </row>
     <row r="66" spans="2:20" ht="25.5">
       <c r="B66" s="239"/>
@@ -33132,10 +33135,10 @@
         <v>2108</v>
       </c>
       <c r="P66" s="15"/>
-      <c r="Q66" s="314"/>
-      <c r="R66" s="314"/>
-      <c r="S66" s="314"/>
-      <c r="T66" s="314"/>
+      <c r="Q66" s="312"/>
+      <c r="R66" s="312"/>
+      <c r="S66" s="312"/>
+      <c r="T66" s="312"/>
     </row>
     <row r="67" spans="2:20" ht="25.5">
       <c r="B67" s="239"/>
@@ -33202,16 +33205,16 @@
         <v>2440</v>
       </c>
       <c r="P68" s="15"/>
-      <c r="Q68" s="312" t="s">
+      <c r="Q68" s="311" t="s">
         <v>2441</v>
       </c>
-      <c r="R68" s="312" t="s">
+      <c r="R68" s="311" t="s">
         <v>2114</v>
       </c>
-      <c r="S68" s="312" t="s">
+      <c r="S68" s="311" t="s">
         <v>2442</v>
       </c>
-      <c r="T68" s="312" t="s">
+      <c r="T68" s="311" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -33243,10 +33246,10 @@
       <c r="P69" s="14" t="s">
         <v>2117</v>
       </c>
-      <c r="Q69" s="314"/>
-      <c r="R69" s="314"/>
-      <c r="S69" s="314"/>
-      <c r="T69" s="314"/>
+      <c r="Q69" s="312"/>
+      <c r="R69" s="312"/>
+      <c r="S69" s="312"/>
+      <c r="T69" s="312"/>
     </row>
     <row r="70" spans="2:20" ht="25.5">
       <c r="B70" s="239"/>
@@ -33278,10 +33281,10 @@
         <v>2120</v>
       </c>
       <c r="P70" s="15"/>
-      <c r="Q70" s="314"/>
-      <c r="R70" s="314"/>
-      <c r="S70" s="314"/>
-      <c r="T70" s="314"/>
+      <c r="Q70" s="312"/>
+      <c r="R70" s="312"/>
+      <c r="S70" s="312"/>
+      <c r="T70" s="312"/>
     </row>
     <row r="71" spans="2:20" ht="25.5">
       <c r="B71" s="239"/>
@@ -33307,10 +33310,10 @@
       <c r="P71" s="14" t="s">
         <v>2121</v>
       </c>
-      <c r="Q71" s="314"/>
-      <c r="R71" s="314"/>
-      <c r="S71" s="314"/>
-      <c r="T71" s="314"/>
+      <c r="Q71" s="312"/>
+      <c r="R71" s="312"/>
+      <c r="S71" s="312"/>
+      <c r="T71" s="312"/>
     </row>
     <row r="72" spans="2:20" ht="25.5">
       <c r="B72" s="239"/>
@@ -33342,10 +33345,10 @@
         <v>2124</v>
       </c>
       <c r="P72" s="15"/>
-      <c r="Q72" s="314"/>
-      <c r="R72" s="314"/>
-      <c r="S72" s="314"/>
-      <c r="T72" s="314"/>
+      <c r="Q72" s="312"/>
+      <c r="R72" s="312"/>
+      <c r="S72" s="312"/>
+      <c r="T72" s="312"/>
     </row>
     <row r="73" spans="2:20" ht="25.5">
       <c r="B73" s="239"/>
@@ -33406,16 +33409,16 @@
         <v>2129</v>
       </c>
       <c r="P74" s="15"/>
-      <c r="Q74" s="312" t="s">
+      <c r="Q74" s="311" t="s">
         <v>2447</v>
       </c>
-      <c r="R74" s="312" t="s">
+      <c r="R74" s="311" t="s">
         <v>2131</v>
       </c>
-      <c r="S74" s="312" t="s">
+      <c r="S74" s="311" t="s">
         <v>2132</v>
       </c>
-      <c r="T74" s="312" t="s">
+      <c r="T74" s="311" t="s">
         <v>2133</v>
       </c>
     </row>
@@ -33478,16 +33481,16 @@
         <v>2137</v>
       </c>
       <c r="P76" s="15"/>
-      <c r="Q76" s="312" t="s">
+      <c r="Q76" s="311" t="s">
         <v>2138</v>
       </c>
-      <c r="R76" s="312" t="s">
+      <c r="R76" s="311" t="s">
         <v>2451</v>
       </c>
-      <c r="S76" s="312" t="s">
+      <c r="S76" s="311" t="s">
         <v>2140</v>
       </c>
-      <c r="T76" s="312" t="s">
+      <c r="T76" s="311" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -33515,10 +33518,10 @@
       <c r="P77" s="14" t="s">
         <v>2142</v>
       </c>
-      <c r="Q77" s="314"/>
-      <c r="R77" s="314"/>
-      <c r="S77" s="314"/>
-      <c r="T77" s="314"/>
+      <c r="Q77" s="312"/>
+      <c r="R77" s="312"/>
+      <c r="S77" s="312"/>
+      <c r="T77" s="312"/>
     </row>
     <row r="78" spans="2:20" ht="25.5">
       <c r="B78" s="239"/>
@@ -33550,10 +33553,10 @@
         <v>2145</v>
       </c>
       <c r="P78" s="15"/>
-      <c r="Q78" s="314"/>
-      <c r="R78" s="314"/>
-      <c r="S78" s="314"/>
-      <c r="T78" s="314"/>
+      <c r="Q78" s="312"/>
+      <c r="R78" s="312"/>
+      <c r="S78" s="312"/>
+      <c r="T78" s="312"/>
     </row>
     <row r="79" spans="2:20" ht="25.5">
       <c r="B79" s="239"/>
@@ -33614,16 +33617,16 @@
         <v>2456</v>
       </c>
       <c r="P80" s="15"/>
-      <c r="Q80" s="312" t="s">
+      <c r="Q80" s="311" t="s">
         <v>2150</v>
       </c>
-      <c r="R80" s="312" t="s">
+      <c r="R80" s="311" t="s">
         <v>2151</v>
       </c>
-      <c r="S80" s="312" t="s">
+      <c r="S80" s="311" t="s">
         <v>2457</v>
       </c>
-      <c r="T80" s="312"/>
+      <c r="T80" s="311"/>
     </row>
     <row r="81" spans="2:20" ht="25.5">
       <c r="B81" s="239"/>
@@ -33653,10 +33656,10 @@
         <v>2459</v>
       </c>
       <c r="P81" s="15"/>
-      <c r="Q81" s="314"/>
-      <c r="R81" s="314"/>
-      <c r="S81" s="314"/>
-      <c r="T81" s="314"/>
+      <c r="Q81" s="312"/>
+      <c r="R81" s="312"/>
+      <c r="S81" s="312"/>
+      <c r="T81" s="312"/>
     </row>
     <row r="82" spans="2:20" ht="25.5">
       <c r="B82" s="239"/>
@@ -33721,16 +33724,16 @@
         <v>2161</v>
       </c>
       <c r="P83" s="15"/>
-      <c r="Q83" s="312" t="s">
+      <c r="Q83" s="311" t="s">
         <v>2162</v>
       </c>
-      <c r="R83" s="312" t="s">
+      <c r="R83" s="311" t="s">
         <v>2163</v>
       </c>
-      <c r="S83" s="312" t="s">
+      <c r="S83" s="311" t="s">
         <v>2164</v>
       </c>
-      <c r="T83" s="312" t="s">
+      <c r="T83" s="311" t="s">
         <v>2165</v>
       </c>
     </row>
@@ -33791,16 +33794,16 @@
         <v>2169</v>
       </c>
       <c r="P85" s="15"/>
-      <c r="Q85" s="312" t="s">
+      <c r="Q85" s="311" t="s">
         <v>2170</v>
       </c>
-      <c r="R85" s="312" t="s">
+      <c r="R85" s="311" t="s">
         <v>2171</v>
       </c>
-      <c r="S85" s="312" t="s">
+      <c r="S85" s="311" t="s">
         <v>2172</v>
       </c>
-      <c r="T85" s="312" t="s">
+      <c r="T85" s="311" t="s">
         <v>2173</v>
       </c>
     </row>
@@ -33826,10 +33829,10 @@
       <c r="P86" s="14" t="s">
         <v>2174</v>
       </c>
-      <c r="Q86" s="314"/>
-      <c r="R86" s="314"/>
-      <c r="S86" s="314"/>
-      <c r="T86" s="314"/>
+      <c r="Q86" s="312"/>
+      <c r="R86" s="312"/>
+      <c r="S86" s="312"/>
+      <c r="T86" s="312"/>
     </row>
     <row r="87" spans="2:20" ht="25.5">
       <c r="B87" s="239"/>
@@ -33859,10 +33862,10 @@
         <v>2177</v>
       </c>
       <c r="P87" s="15"/>
-      <c r="Q87" s="314"/>
-      <c r="R87" s="314"/>
-      <c r="S87" s="314"/>
-      <c r="T87" s="314"/>
+      <c r="Q87" s="312"/>
+      <c r="R87" s="312"/>
+      <c r="S87" s="312"/>
+      <c r="T87" s="312"/>
     </row>
     <row r="88" spans="2:20" ht="25.5">
       <c r="B88" s="239"/>
@@ -33919,16 +33922,16 @@
         <v>2181</v>
       </c>
       <c r="P89" s="15"/>
-      <c r="Q89" s="312" t="s">
+      <c r="Q89" s="311" t="s">
         <v>2182</v>
       </c>
-      <c r="R89" s="312" t="s">
+      <c r="R89" s="311" t="s">
         <v>2183</v>
       </c>
-      <c r="S89" s="312" t="s">
+      <c r="S89" s="311" t="s">
         <v>2184</v>
       </c>
-      <c r="T89" s="312" t="s">
+      <c r="T89" s="311" t="s">
         <v>2185</v>
       </c>
     </row>
@@ -33954,10 +33957,10 @@
       <c r="P90" s="14" t="s">
         <v>2186</v>
       </c>
-      <c r="Q90" s="314"/>
-      <c r="R90" s="314"/>
-      <c r="S90" s="314"/>
-      <c r="T90" s="314"/>
+      <c r="Q90" s="312"/>
+      <c r="R90" s="312"/>
+      <c r="S90" s="312"/>
+      <c r="T90" s="312"/>
     </row>
     <row r="91" spans="2:20" ht="25.5">
       <c r="B91" s="239"/>
@@ -33987,10 +33990,10 @@
         <v>2189</v>
       </c>
       <c r="P91" s="15"/>
-      <c r="Q91" s="314"/>
-      <c r="R91" s="314"/>
-      <c r="S91" s="314"/>
-      <c r="T91" s="314"/>
+      <c r="Q91" s="312"/>
+      <c r="R91" s="312"/>
+      <c r="S91" s="312"/>
+      <c r="T91" s="312"/>
     </row>
     <row r="92" spans="2:20" ht="25.5">
       <c r="B92" s="239"/>
@@ -34047,16 +34050,16 @@
         <v>2472</v>
       </c>
       <c r="P93" s="15"/>
-      <c r="Q93" s="312" t="s">
+      <c r="Q93" s="311" t="s">
         <v>2473</v>
       </c>
-      <c r="R93" s="312" t="s">
+      <c r="R93" s="311" t="s">
         <v>2200</v>
       </c>
-      <c r="S93" s="312" t="s">
+      <c r="S93" s="311" t="s">
         <v>2474</v>
       </c>
-      <c r="T93" s="312" t="s">
+      <c r="T93" s="311" t="s">
         <v>2202</v>
       </c>
     </row>
@@ -34082,10 +34085,10 @@
       <c r="P94" s="14" t="s">
         <v>2203</v>
       </c>
-      <c r="Q94" s="314"/>
-      <c r="R94" s="314"/>
-      <c r="S94" s="314"/>
-      <c r="T94" s="314"/>
+      <c r="Q94" s="312"/>
+      <c r="R94" s="312"/>
+      <c r="S94" s="312"/>
+      <c r="T94" s="312"/>
     </row>
     <row r="95" spans="2:20" ht="25.5">
       <c r="B95" s="239"/>
@@ -34115,10 +34118,10 @@
         <v>2478</v>
       </c>
       <c r="P95" s="15"/>
-      <c r="Q95" s="314"/>
-      <c r="R95" s="314"/>
-      <c r="S95" s="314"/>
-      <c r="T95" s="314"/>
+      <c r="Q95" s="312"/>
+      <c r="R95" s="312"/>
+      <c r="S95" s="312"/>
+      <c r="T95" s="312"/>
     </row>
     <row r="96" spans="2:20" ht="25.5">
       <c r="B96" s="239"/>
@@ -34142,10 +34145,10 @@
       <c r="P96" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="Q96" s="314"/>
-      <c r="R96" s="314"/>
-      <c r="S96" s="314"/>
-      <c r="T96" s="314"/>
+      <c r="Q96" s="312"/>
+      <c r="R96" s="312"/>
+      <c r="S96" s="312"/>
+      <c r="T96" s="312"/>
     </row>
     <row r="97" spans="2:20" ht="25.5">
       <c r="B97" s="239"/>
@@ -34175,10 +34178,10 @@
         <v>2481</v>
       </c>
       <c r="P97" s="15"/>
-      <c r="Q97" s="314"/>
-      <c r="R97" s="314"/>
-      <c r="S97" s="314"/>
-      <c r="T97" s="314"/>
+      <c r="Q97" s="312"/>
+      <c r="R97" s="312"/>
+      <c r="S97" s="312"/>
+      <c r="T97" s="312"/>
     </row>
     <row r="98" spans="2:20" ht="25.5">
       <c r="B98" s="239"/>
@@ -34202,10 +34205,10 @@
       <c r="P98" s="14" t="s">
         <v>2195</v>
       </c>
-      <c r="Q98" s="314"/>
-      <c r="R98" s="314"/>
-      <c r="S98" s="314"/>
-      <c r="T98" s="314"/>
+      <c r="Q98" s="312"/>
+      <c r="R98" s="312"/>
+      <c r="S98" s="312"/>
+      <c r="T98" s="312"/>
     </row>
     <row r="99" spans="2:20" ht="25.5">
       <c r="B99" s="239"/>
@@ -34235,10 +34238,10 @@
         <v>2484</v>
       </c>
       <c r="P99" s="15"/>
-      <c r="Q99" s="314"/>
-      <c r="R99" s="314"/>
-      <c r="S99" s="314"/>
-      <c r="T99" s="314"/>
+      <c r="Q99" s="312"/>
+      <c r="R99" s="312"/>
+      <c r="S99" s="312"/>
+      <c r="T99" s="312"/>
     </row>
     <row r="100" spans="2:20" ht="25.5">
       <c r="B100" s="239"/>
@@ -34274,49 +34277,98 @@
     </row>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="Q93:Q100"/>
-    <mergeCell ref="R93:R100"/>
-    <mergeCell ref="S93:S100"/>
-    <mergeCell ref="T93:T100"/>
-    <mergeCell ref="Q85:Q88"/>
-    <mergeCell ref="R85:R88"/>
-    <mergeCell ref="S85:S88"/>
-    <mergeCell ref="T85:T88"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="S89:S92"/>
-    <mergeCell ref="T89:T92"/>
-    <mergeCell ref="Q80:Q82"/>
-    <mergeCell ref="R80:R82"/>
-    <mergeCell ref="S80:S82"/>
-    <mergeCell ref="T80:T82"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="S76:S79"/>
-    <mergeCell ref="T76:T79"/>
-    <mergeCell ref="Q68:Q73"/>
-    <mergeCell ref="R68:R73"/>
-    <mergeCell ref="S68:S73"/>
-    <mergeCell ref="T68:T73"/>
-    <mergeCell ref="Q64:Q67"/>
-    <mergeCell ref="R64:R67"/>
-    <mergeCell ref="S64:S67"/>
-    <mergeCell ref="T64:T67"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T57:T63"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="B29:B44"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B85:B100"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="Q29:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S28"/>
     <mergeCell ref="Q49:Q52"/>
     <mergeCell ref="R49:R52"/>
     <mergeCell ref="S49:S52"/>
@@ -34341,98 +34393,49 @@
     <mergeCell ref="R35:R38"/>
     <mergeCell ref="S35:S38"/>
     <mergeCell ref="T35:T38"/>
-    <mergeCell ref="Q29:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S28"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B85:B100"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B29:B44"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="T7:T10"/>
+    <mergeCell ref="Q68:Q73"/>
+    <mergeCell ref="R68:R73"/>
+    <mergeCell ref="S68:S73"/>
+    <mergeCell ref="T68:T73"/>
+    <mergeCell ref="Q64:Q67"/>
+    <mergeCell ref="R64:R67"/>
+    <mergeCell ref="S64:S67"/>
+    <mergeCell ref="T64:T67"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T57:T63"/>
+    <mergeCell ref="Q80:Q82"/>
+    <mergeCell ref="R80:R82"/>
+    <mergeCell ref="S80:S82"/>
+    <mergeCell ref="T80:T82"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="S76:S79"/>
+    <mergeCell ref="T76:T79"/>
+    <mergeCell ref="Q93:Q100"/>
+    <mergeCell ref="R93:R100"/>
+    <mergeCell ref="S93:S100"/>
+    <mergeCell ref="T93:T100"/>
+    <mergeCell ref="Q85:Q88"/>
+    <mergeCell ref="R85:R88"/>
+    <mergeCell ref="S85:S88"/>
+    <mergeCell ref="T85:T88"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="S89:S92"/>
+    <mergeCell ref="T89:T92"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -35551,58 +35554,58 @@
       </c>
       <c r="C2" s="331"/>
       <c r="D2" s="331"/>
-      <c r="E2" s="328" t="s">
+      <c r="E2" s="330" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="328"/>
-      <c r="G2" s="328"/>
-      <c r="H2" s="328"/>
-      <c r="I2" s="328" t="s">
+      <c r="F2" s="330"/>
+      <c r="G2" s="330"/>
+      <c r="H2" s="330"/>
+      <c r="I2" s="330" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="328"/>
-      <c r="K2" s="328"/>
-      <c r="L2" s="328"/>
-      <c r="M2" s="328" t="s">
+      <c r="J2" s="330"/>
+      <c r="K2" s="330"/>
+      <c r="L2" s="330"/>
+      <c r="M2" s="330" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="328"/>
-      <c r="O2" s="328"/>
-      <c r="P2" s="328"/>
-      <c r="Q2" s="328" t="s">
+      <c r="N2" s="330"/>
+      <c r="O2" s="330"/>
+      <c r="P2" s="330"/>
+      <c r="Q2" s="330" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="328"/>
-      <c r="S2" s="328"/>
-      <c r="T2" s="328"/>
-      <c r="U2" s="328"/>
-      <c r="V2" s="328" t="s">
+      <c r="R2" s="330"/>
+      <c r="S2" s="330"/>
+      <c r="T2" s="330"/>
+      <c r="U2" s="330"/>
+      <c r="V2" s="330" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="328"/>
-      <c r="X2" s="328"/>
-      <c r="Y2" s="328"/>
-      <c r="Z2" s="328"/>
-      <c r="AA2" s="328" t="s">
+      <c r="W2" s="330"/>
+      <c r="X2" s="330"/>
+      <c r="Y2" s="330"/>
+      <c r="Z2" s="330"/>
+      <c r="AA2" s="330" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" s="328"/>
-      <c r="AC2" s="328"/>
-      <c r="AD2" s="328"/>
-      <c r="AE2" s="328"/>
-      <c r="AF2" s="328" t="s">
+      <c r="AB2" s="330"/>
+      <c r="AC2" s="330"/>
+      <c r="AD2" s="330"/>
+      <c r="AE2" s="330"/>
+      <c r="AF2" s="330" t="s">
         <v>123</v>
       </c>
-      <c r="AG2" s="328"/>
-      <c r="AH2" s="328"/>
-      <c r="AI2" s="328"/>
-      <c r="AJ2" s="328" t="s">
+      <c r="AG2" s="330"/>
+      <c r="AH2" s="330"/>
+      <c r="AI2" s="330"/>
+      <c r="AJ2" s="330" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" s="328"/>
-      <c r="AL2" s="328"/>
-      <c r="AM2" s="328"/>
-      <c r="AN2" s="328"/>
+      <c r="AK2" s="330"/>
+      <c r="AL2" s="330"/>
+      <c r="AM2" s="330"/>
+      <c r="AN2" s="330"/>
       <c r="AO2" s="52" t="s">
         <v>154</v>
       </c>
@@ -35730,10 +35733,10 @@
       </c>
     </row>
     <row r="4" spans="2:42">
-      <c r="B4" s="329" t="s">
+      <c r="B4" s="328" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="330" t="s">
+      <c r="C4" s="329" t="s">
         <v>174</v>
       </c>
       <c r="D4" s="51" t="s">
@@ -35811,8 +35814,8 @@
       <c r="AP4" s="51"/>
     </row>
     <row r="5" spans="2:42">
-      <c r="B5" s="329"/>
-      <c r="C5" s="330"/>
+      <c r="B5" s="328"/>
+      <c r="C5" s="329"/>
       <c r="D5" s="51" t="s">
         <v>191</v>
       </c>
@@ -35856,8 +35859,8 @@
       <c r="AP5" s="51"/>
     </row>
     <row r="6" spans="2:42">
-      <c r="B6" s="329"/>
-      <c r="C6" s="330"/>
+      <c r="B6" s="328"/>
+      <c r="C6" s="329"/>
       <c r="D6" s="51" t="s">
         <v>179</v>
       </c>
@@ -35937,8 +35940,8 @@
       </c>
     </row>
     <row r="7" spans="2:42">
-      <c r="B7" s="329"/>
-      <c r="C7" s="330"/>
+      <c r="B7" s="328"/>
+      <c r="C7" s="329"/>
       <c r="D7" s="51" t="s">
         <v>335</v>
       </c>
@@ -35982,8 +35985,8 @@
       <c r="AP7" s="51"/>
     </row>
     <row r="8" spans="2:42">
-      <c r="B8" s="329"/>
-      <c r="C8" s="330" t="s">
+      <c r="B8" s="328"/>
+      <c r="C8" s="329" t="s">
         <v>220</v>
       </c>
       <c r="D8" s="51" t="s">
@@ -36029,8 +36032,8 @@
       <c r="AP8" s="51"/>
     </row>
     <row r="9" spans="2:42">
-      <c r="B9" s="329"/>
-      <c r="C9" s="330"/>
+      <c r="B9" s="328"/>
+      <c r="C9" s="329"/>
       <c r="D9" s="51" t="s">
         <v>191</v>
       </c>
@@ -36074,8 +36077,8 @@
       <c r="AP9" s="51"/>
     </row>
     <row r="10" spans="2:42">
-      <c r="B10" s="329"/>
-      <c r="C10" s="330"/>
+      <c r="B10" s="328"/>
+      <c r="C10" s="329"/>
       <c r="D10" s="51" t="s">
         <v>179</v>
       </c>
@@ -36119,8 +36122,8 @@
       <c r="AP10" s="51"/>
     </row>
     <row r="11" spans="2:42">
-      <c r="B11" s="329"/>
-      <c r="C11" s="330"/>
+      <c r="B11" s="328"/>
+      <c r="C11" s="329"/>
       <c r="D11" s="51" t="s">
         <v>335</v>
       </c>
@@ -36164,10 +36167,10 @@
       <c r="AP11" s="51"/>
     </row>
     <row r="12" spans="2:42">
-      <c r="B12" s="329" t="s">
+      <c r="B12" s="328" t="s">
         <v>2590</v>
       </c>
-      <c r="C12" s="330" t="s">
+      <c r="C12" s="329" t="s">
         <v>174</v>
       </c>
       <c r="D12" s="51" t="s">
@@ -36241,8 +36244,8 @@
       <c r="AP12" s="51"/>
     </row>
     <row r="13" spans="2:42">
-      <c r="B13" s="329"/>
-      <c r="C13" s="330"/>
+      <c r="B13" s="328"/>
+      <c r="C13" s="329"/>
       <c r="D13" s="51" t="s">
         <v>191</v>
       </c>
@@ -36286,8 +36289,8 @@
       <c r="AP13" s="51"/>
     </row>
     <row r="14" spans="2:42">
-      <c r="B14" s="329"/>
-      <c r="C14" s="330"/>
+      <c r="B14" s="328"/>
+      <c r="C14" s="329"/>
       <c r="D14" s="51" t="s">
         <v>179</v>
       </c>
@@ -36331,8 +36334,8 @@
       <c r="AP14" s="51"/>
     </row>
     <row r="15" spans="2:42">
-      <c r="B15" s="329"/>
-      <c r="C15" s="330"/>
+      <c r="B15" s="328"/>
+      <c r="C15" s="329"/>
       <c r="D15" s="51" t="s">
         <v>335</v>
       </c>
@@ -36376,8 +36379,8 @@
       <c r="AP15" s="51"/>
     </row>
     <row r="16" spans="2:42">
-      <c r="B16" s="329"/>
-      <c r="C16" s="330" t="s">
+      <c r="B16" s="328"/>
+      <c r="C16" s="329" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="51" t="s">
@@ -36423,8 +36426,8 @@
       <c r="AP16" s="51"/>
     </row>
     <row r="17" spans="2:42">
-      <c r="B17" s="329"/>
-      <c r="C17" s="330"/>
+      <c r="B17" s="328"/>
+      <c r="C17" s="329"/>
       <c r="D17" s="51" t="s">
         <v>191</v>
       </c>
@@ -36468,8 +36471,8 @@
       <c r="AP17" s="51"/>
     </row>
     <row r="18" spans="2:42">
-      <c r="B18" s="329"/>
-      <c r="C18" s="330"/>
+      <c r="B18" s="328"/>
+      <c r="C18" s="329"/>
       <c r="D18" s="51" t="s">
         <v>179</v>
       </c>
@@ -36513,8 +36516,8 @@
       <c r="AP18" s="51"/>
     </row>
     <row r="19" spans="2:42">
-      <c r="B19" s="329"/>
-      <c r="C19" s="330"/>
+      <c r="B19" s="328"/>
+      <c r="C19" s="329"/>
       <c r="D19" s="51" t="s">
         <v>335</v>
       </c>
@@ -36558,10 +36561,10 @@
       <c r="AP19" s="51"/>
     </row>
     <row r="20" spans="2:42">
-      <c r="B20" s="329" t="s">
+      <c r="B20" s="328" t="s">
         <v>2604</v>
       </c>
-      <c r="C20" s="330" t="s">
+      <c r="C20" s="329" t="s">
         <v>174</v>
       </c>
       <c r="D20" s="51" t="s">
@@ -36637,8 +36640,8 @@
       <c r="AP20" s="51"/>
     </row>
     <row r="21" spans="2:42">
-      <c r="B21" s="329"/>
-      <c r="C21" s="330"/>
+      <c r="B21" s="328"/>
+      <c r="C21" s="329"/>
       <c r="D21" s="51" t="s">
         <v>191</v>
       </c>
@@ -36682,8 +36685,8 @@
       <c r="AP21" s="51"/>
     </row>
     <row r="22" spans="2:42">
-      <c r="B22" s="329"/>
-      <c r="C22" s="330"/>
+      <c r="B22" s="328"/>
+      <c r="C22" s="329"/>
       <c r="D22" s="51" t="s">
         <v>179</v>
       </c>
@@ -36751,8 +36754,8 @@
       <c r="AP22" s="51"/>
     </row>
     <row r="23" spans="2:42">
-      <c r="B23" s="329"/>
-      <c r="C23" s="330"/>
+      <c r="B23" s="328"/>
+      <c r="C23" s="329"/>
       <c r="D23" s="51" t="s">
         <v>335</v>
       </c>
@@ -36796,8 +36799,8 @@
       <c r="AP23" s="51"/>
     </row>
     <row r="24" spans="2:42">
-      <c r="B24" s="329"/>
-      <c r="C24" s="330" t="s">
+      <c r="B24" s="328"/>
+      <c r="C24" s="329" t="s">
         <v>220</v>
       </c>
       <c r="D24" s="51" t="s">
@@ -36843,8 +36846,8 @@
       <c r="AP24" s="51"/>
     </row>
     <row r="25" spans="2:42">
-      <c r="B25" s="329"/>
-      <c r="C25" s="330"/>
+      <c r="B25" s="328"/>
+      <c r="C25" s="329"/>
       <c r="D25" s="51" t="s">
         <v>191</v>
       </c>
@@ -36888,8 +36891,8 @@
       <c r="AP25" s="51"/>
     </row>
     <row r="26" spans="2:42">
-      <c r="B26" s="329"/>
-      <c r="C26" s="330"/>
+      <c r="B26" s="328"/>
+      <c r="C26" s="329"/>
       <c r="D26" s="51" t="s">
         <v>179</v>
       </c>
@@ -36933,8 +36936,8 @@
       <c r="AP26" s="51"/>
     </row>
     <row r="27" spans="2:42">
-      <c r="B27" s="329"/>
-      <c r="C27" s="330"/>
+      <c r="B27" s="328"/>
+      <c r="C27" s="329"/>
       <c r="D27" s="51" t="s">
         <v>335</v>
       </c>
@@ -36978,10 +36981,10 @@
       <c r="AP27" s="51"/>
     </row>
     <row r="28" spans="2:42">
-      <c r="B28" s="329" t="s">
+      <c r="B28" s="328" t="s">
         <v>2629</v>
       </c>
-      <c r="C28" s="330" t="s">
+      <c r="C28" s="329" t="s">
         <v>174</v>
       </c>
       <c r="D28" s="51" t="s">
@@ -37061,8 +37064,8 @@
       <c r="AP28" s="51"/>
     </row>
     <row r="29" spans="2:42">
-      <c r="B29" s="329"/>
-      <c r="C29" s="330"/>
+      <c r="B29" s="328"/>
+      <c r="C29" s="329"/>
       <c r="D29" s="51" t="s">
         <v>191</v>
       </c>
@@ -37106,8 +37109,8 @@
       <c r="AP29" s="51"/>
     </row>
     <row r="30" spans="2:42">
-      <c r="B30" s="329"/>
-      <c r="C30" s="330"/>
+      <c r="B30" s="328"/>
+      <c r="C30" s="329"/>
       <c r="D30" s="51" t="s">
         <v>179</v>
       </c>
@@ -37209,8 +37212,8 @@
       </c>
     </row>
     <row r="31" spans="2:42">
-      <c r="B31" s="329"/>
-      <c r="C31" s="330"/>
+      <c r="B31" s="328"/>
+      <c r="C31" s="329"/>
       <c r="D31" s="51" t="s">
         <v>335</v>
       </c>
@@ -37254,8 +37257,8 @@
       <c r="AP31" s="51"/>
     </row>
     <row r="32" spans="2:42">
-      <c r="B32" s="329"/>
-      <c r="C32" s="330" t="s">
+      <c r="B32" s="328"/>
+      <c r="C32" s="329" t="s">
         <v>220</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -37301,8 +37304,8 @@
       <c r="AP32" s="51"/>
     </row>
     <row r="33" spans="2:42">
-      <c r="B33" s="329"/>
-      <c r="C33" s="330"/>
+      <c r="B33" s="328"/>
+      <c r="C33" s="329"/>
       <c r="D33" s="51" t="s">
         <v>191</v>
       </c>
@@ -37346,8 +37349,8 @@
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42">
-      <c r="B34" s="329"/>
-      <c r="C34" s="330"/>
+      <c r="B34" s="328"/>
+      <c r="C34" s="329"/>
       <c r="D34" s="51" t="s">
         <v>179</v>
       </c>
@@ -37391,8 +37394,8 @@
       <c r="AP34" s="51"/>
     </row>
     <row r="35" spans="2:42">
-      <c r="B35" s="329"/>
-      <c r="C35" s="330"/>
+      <c r="B35" s="328"/>
+      <c r="C35" s="329"/>
       <c r="D35" s="51" t="s">
         <v>335</v>
       </c>
@@ -37437,15 +37440,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
@@ -37458,6 +37452,15 @@
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -42369,7 +42372,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="25.5"/>
@@ -43343,7 +43346,7 @@
   <dimension ref="B1:N189"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
@@ -50426,8 +50429,8 @@
   <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25"/>

--- a/tools/廣韻反切查音工具.xlsx
+++ b/tools/廣韻反切查音工具.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB7A50F-683C-45DE-9056-130C57504560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D221F2-E415-45DD-9BE8-3A632876E534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23040" yWindow="1035" windowWidth="22200" windowHeight="12975" xr2:uid="{A3AA0022-8200-F44B-B604-2F2D57F4DE47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37815" windowHeight="15840" activeTab="13" xr2:uid="{A3AA0022-8200-F44B-B604-2F2D57F4DE47}"/>
   </bookViews>
   <sheets>
     <sheet name="反切" sheetId="16" r:id="rId1"/>
@@ -8600,7 +8600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="92">
+  <fonts count="93">
     <font>
       <sz val="18"/>
       <color theme="1"/>
@@ -9212,6 +9212,14 @@
       <color theme="4"/>
       <name val="Noto Serif TC SemiBold"/>
       <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="4"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -9868,7 +9876,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="332">
+  <cellXfs count="333">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10504,6 +10512,75 @@
     <xf numFmtId="0" fontId="83" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
@@ -10512,6 +10589,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
@@ -10524,15 +10625,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
@@ -10552,88 +10644,103 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10648,57 +10755,6 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -10708,52 +10764,25 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10768,49 +10797,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10822,7 +10827,10 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -10849,16 +10857,19 @@
     <xf numFmtId="0" fontId="30" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13060,7 +13071,7 @@
   </sheetPr>
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J9" sqref="J9"/>
     </sheetView>
@@ -25961,11 +25972,11 @@
   </sheetPr>
   <dimension ref="B1:T99"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.765625" defaultRowHeight="23.25"/>
@@ -25979,48 +25990,48 @@
       <c r="D1" s="28"/>
     </row>
     <row r="2" spans="2:20" ht="30">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="252" t="s">
-        <v>163</v>
-      </c>
-      <c r="D2" s="252" t="s">
+      <c r="C2" s="332" t="s">
+        <v>784</v>
+      </c>
+      <c r="D2" s="228" t="s">
         <v>1882</v>
       </c>
-      <c r="E2" s="254" t="s">
+      <c r="E2" s="230" t="s">
         <v>1883</v>
       </c>
-      <c r="F2" s="255"/>
-      <c r="G2" s="254" t="s">
+      <c r="F2" s="231"/>
+      <c r="G2" s="230" t="s">
         <v>1884</v>
       </c>
-      <c r="H2" s="255"/>
-      <c r="I2" s="254" t="s">
+      <c r="H2" s="231"/>
+      <c r="I2" s="230" t="s">
         <v>1885</v>
       </c>
-      <c r="J2" s="255"/>
-      <c r="K2" s="254" t="s">
+      <c r="J2" s="231"/>
+      <c r="K2" s="230" t="s">
         <v>1886</v>
       </c>
-      <c r="L2" s="255"/>
-      <c r="M2" s="249" t="s">
+      <c r="L2" s="231"/>
+      <c r="M2" s="213" t="s">
         <v>1887</v>
       </c>
-      <c r="N2" s="250"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="249" t="s">
+      <c r="N2" s="214"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="213" t="s">
         <v>1888</v>
       </c>
-      <c r="R2" s="250"/>
-      <c r="S2" s="250"/>
-      <c r="T2" s="251"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="214"/>
+      <c r="T2" s="215"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="253"/>
-      <c r="C3" s="256"/>
-      <c r="D3" s="253"/>
+      <c r="B3" s="229"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="229"/>
       <c r="E3" s="91" t="s">
         <v>1889</v>
       </c>
@@ -26071,7 +26082,7 @@
       </c>
     </row>
     <row r="4" spans="2:20">
-      <c r="B4" s="220" t="s">
+      <c r="B4" s="216" t="s">
         <v>170</v>
       </c>
       <c r="C4" s="239" t="s">
@@ -26114,21 +26125,21 @@
         <v>1900</v>
       </c>
       <c r="P4" s="92"/>
-      <c r="Q4" s="232" t="s">
+      <c r="Q4" s="219" t="s">
         <v>1898</v>
       </c>
-      <c r="R4" s="230" t="s">
+      <c r="R4" s="221" t="s">
         <v>1899</v>
       </c>
-      <c r="S4" s="230" t="s">
+      <c r="S4" s="221" t="s">
         <v>1900</v>
       </c>
-      <c r="T4" s="230" t="s">
+      <c r="T4" s="221" t="s">
         <v>1901</v>
       </c>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="221"/>
+      <c r="B5" s="217"/>
       <c r="C5" s="239"/>
       <c r="D5" s="103" t="s">
         <v>743</v>
@@ -26145,19 +26156,19 @@
       <c r="J5" s="89"/>
       <c r="K5" s="89"/>
       <c r="L5" s="89"/>
-      <c r="M5" s="240"/>
-      <c r="N5" s="241"/>
-      <c r="O5" s="242"/>
+      <c r="M5" s="223"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="225"/>
       <c r="P5" s="92" t="s">
         <v>1901</v>
       </c>
-      <c r="Q5" s="234"/>
-      <c r="R5" s="235"/>
-      <c r="S5" s="235"/>
-      <c r="T5" s="235"/>
+      <c r="Q5" s="220"/>
+      <c r="R5" s="222"/>
+      <c r="S5" s="222"/>
+      <c r="T5" s="222"/>
     </row>
     <row r="6" spans="2:20">
-      <c r="B6" s="221"/>
+      <c r="B6" s="217"/>
       <c r="C6" s="239" t="s">
         <v>184</v>
       </c>
@@ -26182,21 +26193,21 @@
         <v>1903</v>
       </c>
       <c r="P6" s="92"/>
-      <c r="Q6" s="232" t="s">
+      <c r="Q6" s="219" t="s">
         <v>1902</v>
       </c>
-      <c r="R6" s="230" t="s">
+      <c r="R6" s="221" t="s">
         <v>1904</v>
       </c>
-      <c r="S6" s="230" t="s">
+      <c r="S6" s="221" t="s">
         <v>1903</v>
       </c>
-      <c r="T6" s="230" t="s">
+      <c r="T6" s="221" t="s">
         <v>1905</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="221"/>
+      <c r="B7" s="217"/>
       <c r="C7" s="239"/>
       <c r="D7" s="103" t="s">
         <v>743</v>
@@ -26211,19 +26222,19 @@
       <c r="J7" s="89"/>
       <c r="K7" s="89"/>
       <c r="L7" s="89"/>
-      <c r="M7" s="240"/>
-      <c r="N7" s="241"/>
-      <c r="O7" s="242"/>
+      <c r="M7" s="223"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="225"/>
       <c r="P7" s="92" t="s">
         <v>1905</v>
       </c>
-      <c r="Q7" s="233"/>
-      <c r="R7" s="231"/>
-      <c r="S7" s="231"/>
-      <c r="T7" s="231"/>
+      <c r="Q7" s="226"/>
+      <c r="R7" s="227"/>
+      <c r="S7" s="227"/>
+      <c r="T7" s="227"/>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="221"/>
+      <c r="B8" s="217"/>
       <c r="C8" s="239" t="s">
         <v>187</v>
       </c>
@@ -26250,13 +26261,13 @@
         <v>1907</v>
       </c>
       <c r="P8" s="92"/>
-      <c r="Q8" s="233"/>
-      <c r="R8" s="231"/>
-      <c r="S8" s="231"/>
-      <c r="T8" s="231"/>
+      <c r="Q8" s="226"/>
+      <c r="R8" s="227"/>
+      <c r="S8" s="227"/>
+      <c r="T8" s="227"/>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="222"/>
+      <c r="B9" s="218"/>
       <c r="C9" s="239"/>
       <c r="D9" s="103" t="s">
         <v>743</v>
@@ -26271,19 +26282,19 @@
       <c r="J9" s="89"/>
       <c r="K9" s="89"/>
       <c r="L9" s="89"/>
-      <c r="M9" s="240"/>
-      <c r="N9" s="241"/>
-      <c r="O9" s="242"/>
+      <c r="M9" s="223"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="225"/>
       <c r="P9" s="92" t="s">
         <v>1908</v>
       </c>
-      <c r="Q9" s="234"/>
-      <c r="R9" s="235"/>
-      <c r="S9" s="235"/>
-      <c r="T9" s="235"/>
+      <c r="Q9" s="220"/>
+      <c r="R9" s="222"/>
+      <c r="S9" s="222"/>
+      <c r="T9" s="222"/>
     </row>
     <row r="10" spans="2:20">
-      <c r="B10" s="220" t="s">
+      <c r="B10" s="216" t="s">
         <v>190</v>
       </c>
       <c r="C10" s="239" t="s">
@@ -26312,21 +26323,21 @@
         <v>1912</v>
       </c>
       <c r="P10" s="92"/>
-      <c r="Q10" s="232" t="s">
+      <c r="Q10" s="219" t="s">
         <v>1913</v>
       </c>
-      <c r="R10" s="230" t="s">
+      <c r="R10" s="221" t="s">
         <v>1911</v>
       </c>
-      <c r="S10" s="230" t="s">
+      <c r="S10" s="221" t="s">
         <v>1914</v>
       </c>
-      <c r="T10" s="230" t="s">
+      <c r="T10" s="221" t="s">
         <v>1915</v>
       </c>
     </row>
     <row r="11" spans="2:20">
-      <c r="B11" s="222"/>
+      <c r="B11" s="218"/>
       <c r="C11" s="239"/>
       <c r="D11" s="103" t="s">
         <v>743</v>
@@ -26341,19 +26352,19 @@
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
       <c r="L11" s="89"/>
-      <c r="M11" s="240"/>
-      <c r="N11" s="241"/>
-      <c r="O11" s="242"/>
+      <c r="M11" s="223"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="225"/>
       <c r="P11" s="92" t="s">
         <v>1916</v>
       </c>
-      <c r="Q11" s="234"/>
-      <c r="R11" s="235"/>
-      <c r="S11" s="235"/>
-      <c r="T11" s="235"/>
+      <c r="Q11" s="220"/>
+      <c r="R11" s="222"/>
+      <c r="S11" s="222"/>
+      <c r="T11" s="222"/>
     </row>
     <row r="12" spans="2:20">
-      <c r="B12" s="220" t="s">
+      <c r="B12" s="216" t="s">
         <v>214</v>
       </c>
       <c r="C12" s="16" t="s">
@@ -26383,20 +26394,20 @@
       <c r="O12" s="92" t="s">
         <v>1919</v>
       </c>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="232" t="s">
+      <c r="P12" s="221"/>
+      <c r="Q12" s="219" t="s">
         <v>1920</v>
       </c>
-      <c r="R12" s="230" t="s">
+      <c r="R12" s="221" t="s">
         <v>1918</v>
       </c>
-      <c r="S12" s="230" t="s">
+      <c r="S12" s="221" t="s">
         <v>1921</v>
       </c>
-      <c r="T12" s="230"/>
+      <c r="T12" s="221"/>
     </row>
     <row r="13" spans="2:20">
-      <c r="B13" s="221"/>
+      <c r="B13" s="217"/>
       <c r="C13" s="16" t="s">
         <v>235</v>
       </c>
@@ -26424,14 +26435,14 @@
       <c r="O13" s="92" t="s">
         <v>1924</v>
       </c>
-      <c r="P13" s="231"/>
-      <c r="Q13" s="233"/>
-      <c r="R13" s="231"/>
-      <c r="S13" s="231"/>
-      <c r="T13" s="231"/>
+      <c r="P13" s="227"/>
+      <c r="Q13" s="226"/>
+      <c r="R13" s="227"/>
+      <c r="S13" s="227"/>
+      <c r="T13" s="227"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="B14" s="221"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="16" t="s">
         <v>252</v>
       </c>
@@ -26457,14 +26468,14 @@
       <c r="O14" s="92" t="s">
         <v>1927</v>
       </c>
-      <c r="P14" s="235"/>
-      <c r="Q14" s="234"/>
-      <c r="R14" s="235"/>
-      <c r="S14" s="235"/>
-      <c r="T14" s="235"/>
+      <c r="P14" s="222"/>
+      <c r="Q14" s="220"/>
+      <c r="R14" s="222"/>
+      <c r="S14" s="222"/>
+      <c r="T14" s="222"/>
     </row>
     <row r="15" spans="2:20">
-      <c r="B15" s="222"/>
+      <c r="B15" s="218"/>
       <c r="C15" s="16" t="s">
         <v>255</v>
       </c>
@@ -26505,7 +26516,7 @@
       <c r="T15" s="92"/>
     </row>
     <row r="16" spans="2:20">
-      <c r="B16" s="220" t="s">
+      <c r="B16" s="216" t="s">
         <v>262</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -26546,7 +26557,7 @@
       <c r="T16" s="92"/>
     </row>
     <row r="17" spans="2:20">
-      <c r="B17" s="221"/>
+      <c r="B17" s="217"/>
       <c r="C17" s="16" t="s">
         <v>271</v>
       </c>
@@ -26571,20 +26582,20 @@
       <c r="O17" s="92" t="s">
         <v>1943</v>
       </c>
-      <c r="P17" s="230"/>
-      <c r="Q17" s="232" t="s">
+      <c r="P17" s="221"/>
+      <c r="Q17" s="219" t="s">
         <v>1944</v>
       </c>
-      <c r="R17" s="230" t="s">
+      <c r="R17" s="221" t="s">
         <v>1945</v>
       </c>
-      <c r="S17" s="230" t="s">
+      <c r="S17" s="221" t="s">
         <v>1946</v>
       </c>
-      <c r="T17" s="230"/>
+      <c r="T17" s="221"/>
     </row>
     <row r="18" spans="2:20">
-      <c r="B18" s="222"/>
+      <c r="B18" s="218"/>
       <c r="C18" s="16" t="s">
         <v>267</v>
       </c>
@@ -26610,14 +26621,14 @@
       <c r="O18" s="92" t="s">
         <v>1949</v>
       </c>
-      <c r="P18" s="235"/>
-      <c r="Q18" s="234"/>
-      <c r="R18" s="235"/>
-      <c r="S18" s="235"/>
-      <c r="T18" s="235"/>
+      <c r="P18" s="222"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="222"/>
+      <c r="S18" s="222"/>
+      <c r="T18" s="222"/>
     </row>
     <row r="19" spans="2:20">
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="216" t="s">
         <v>275</v>
       </c>
       <c r="C19" s="16" t="s">
@@ -26647,20 +26658,20 @@
       <c r="O19" s="92" t="s">
         <v>1953</v>
       </c>
-      <c r="P19" s="230"/>
-      <c r="Q19" s="232" t="s">
+      <c r="P19" s="221"/>
+      <c r="Q19" s="219" t="s">
         <v>1954</v>
       </c>
-      <c r="R19" s="230" t="s">
+      <c r="R19" s="221" t="s">
         <v>1955</v>
       </c>
-      <c r="S19" s="230" t="s">
+      <c r="S19" s="221" t="s">
         <v>1956</v>
       </c>
-      <c r="T19" s="230"/>
+      <c r="T19" s="221"/>
     </row>
     <row r="20" spans="2:20">
-      <c r="B20" s="221"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="16" t="s">
         <v>317</v>
       </c>
@@ -26679,19 +26690,19 @@
       </c>
       <c r="K20" s="89"/>
       <c r="L20" s="89"/>
-      <c r="M20" s="240"/>
-      <c r="N20" s="242"/>
+      <c r="M20" s="223"/>
+      <c r="N20" s="225"/>
       <c r="O20" s="92" t="s">
         <v>1957</v>
       </c>
-      <c r="P20" s="235"/>
-      <c r="Q20" s="234"/>
-      <c r="R20" s="235"/>
-      <c r="S20" s="235"/>
-      <c r="T20" s="235"/>
+      <c r="P20" s="222"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="222"/>
+      <c r="S20" s="222"/>
+      <c r="T20" s="222"/>
     </row>
     <row r="21" spans="2:20">
-      <c r="B21" s="221"/>
+      <c r="B21" s="217"/>
       <c r="C21" s="16" t="s">
         <v>276</v>
       </c>
@@ -26710,21 +26721,21 @@
       <c r="J21" s="89"/>
       <c r="K21" s="89"/>
       <c r="L21" s="89"/>
-      <c r="M21" s="240"/>
-      <c r="N21" s="242"/>
+      <c r="M21" s="223"/>
+      <c r="N21" s="225"/>
       <c r="O21" s="92" t="s">
         <v>1958</v>
       </c>
       <c r="P21" s="92"/>
-      <c r="Q21" s="240"/>
-      <c r="R21" s="242"/>
+      <c r="Q21" s="223"/>
+      <c r="R21" s="225"/>
       <c r="S21" s="96" t="s">
         <v>1959</v>
       </c>
       <c r="T21" s="92"/>
     </row>
     <row r="22" spans="2:20">
-      <c r="B22" s="221"/>
+      <c r="B22" s="217"/>
       <c r="C22" s="16" t="s">
         <v>301</v>
       </c>
@@ -26752,20 +26763,20 @@
       <c r="O22" s="92" t="s">
         <v>1962</v>
       </c>
-      <c r="P22" s="230"/>
-      <c r="Q22" s="232" t="s">
+      <c r="P22" s="221"/>
+      <c r="Q22" s="219" t="s">
         <v>1963</v>
       </c>
-      <c r="R22" s="230" t="s">
+      <c r="R22" s="221" t="s">
         <v>1964</v>
       </c>
-      <c r="S22" s="230" t="s">
+      <c r="S22" s="221" t="s">
         <v>1965</v>
       </c>
-      <c r="T22" s="230"/>
+      <c r="T22" s="221"/>
     </row>
     <row r="23" spans="2:20">
-      <c r="B23" s="221"/>
+      <c r="B23" s="217"/>
       <c r="C23" s="16" t="s">
         <v>310</v>
       </c>
@@ -26793,14 +26804,14 @@
       <c r="O23" s="92" t="s">
         <v>1969</v>
       </c>
-      <c r="P23" s="231"/>
-      <c r="Q23" s="233"/>
-      <c r="R23" s="231"/>
-      <c r="S23" s="231"/>
-      <c r="T23" s="231"/>
+      <c r="P23" s="227"/>
+      <c r="Q23" s="226"/>
+      <c r="R23" s="227"/>
+      <c r="S23" s="227"/>
+      <c r="T23" s="227"/>
     </row>
     <row r="24" spans="2:20">
-      <c r="B24" s="221"/>
+      <c r="B24" s="217"/>
       <c r="C24" s="16" t="s">
         <v>293</v>
       </c>
@@ -26819,19 +26830,19 @@
       <c r="J24" s="89"/>
       <c r="K24" s="89"/>
       <c r="L24" s="89"/>
-      <c r="M24" s="240"/>
-      <c r="N24" s="242"/>
+      <c r="M24" s="223"/>
+      <c r="N24" s="225"/>
       <c r="O24" s="92" t="s">
         <v>1970</v>
       </c>
-      <c r="P24" s="235"/>
-      <c r="Q24" s="234"/>
-      <c r="R24" s="235"/>
-      <c r="S24" s="235"/>
-      <c r="T24" s="235"/>
+      <c r="P24" s="222"/>
+      <c r="Q24" s="220"/>
+      <c r="R24" s="222"/>
+      <c r="S24" s="222"/>
+      <c r="T24" s="222"/>
     </row>
     <row r="25" spans="2:20">
-      <c r="B25" s="221"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="16" t="s">
         <v>345</v>
       </c>
@@ -26857,20 +26868,20 @@
       <c r="O25" s="92" t="s">
         <v>1973</v>
       </c>
-      <c r="P25" s="230"/>
-      <c r="Q25" s="232" t="s">
+      <c r="P25" s="221"/>
+      <c r="Q25" s="219" t="s">
         <v>1974</v>
       </c>
-      <c r="R25" s="230" t="s">
+      <c r="R25" s="221" t="s">
         <v>1975</v>
       </c>
-      <c r="S25" s="230" t="s">
+      <c r="S25" s="221" t="s">
         <v>1976</v>
       </c>
-      <c r="T25" s="230"/>
+      <c r="T25" s="221"/>
     </row>
     <row r="26" spans="2:20">
-      <c r="B26" s="221"/>
+      <c r="B26" s="217"/>
       <c r="C26" s="16" t="s">
         <v>342</v>
       </c>
@@ -26896,14 +26907,14 @@
       <c r="O26" s="92" t="s">
         <v>1979</v>
       </c>
-      <c r="P26" s="231"/>
-      <c r="Q26" s="233"/>
-      <c r="R26" s="231"/>
-      <c r="S26" s="231"/>
-      <c r="T26" s="231"/>
+      <c r="P26" s="227"/>
+      <c r="Q26" s="226"/>
+      <c r="R26" s="227"/>
+      <c r="S26" s="227"/>
+      <c r="T26" s="227"/>
     </row>
     <row r="27" spans="2:20">
-      <c r="B27" s="222"/>
+      <c r="B27" s="218"/>
       <c r="C27" s="16" t="s">
         <v>285</v>
       </c>
@@ -26920,19 +26931,19 @@
       </c>
       <c r="K27" s="89"/>
       <c r="L27" s="89"/>
-      <c r="M27" s="240"/>
-      <c r="N27" s="242"/>
+      <c r="M27" s="223"/>
+      <c r="N27" s="225"/>
       <c r="O27" s="92" t="s">
         <v>1980</v>
       </c>
-      <c r="P27" s="235"/>
-      <c r="Q27" s="234"/>
-      <c r="R27" s="235"/>
-      <c r="S27" s="235"/>
-      <c r="T27" s="235"/>
+      <c r="P27" s="222"/>
+      <c r="Q27" s="220"/>
+      <c r="R27" s="222"/>
+      <c r="S27" s="222"/>
+      <c r="T27" s="222"/>
     </row>
     <row r="28" spans="2:20">
-      <c r="B28" s="236" t="s">
+      <c r="B28" s="244" t="s">
         <v>348</v>
       </c>
       <c r="C28" s="239" t="s">
@@ -26961,21 +26972,21 @@
         <v>1984</v>
       </c>
       <c r="P28" s="92"/>
-      <c r="Q28" s="232" t="s">
+      <c r="Q28" s="219" t="s">
         <v>1985</v>
       </c>
-      <c r="R28" s="230" t="s">
+      <c r="R28" s="221" t="s">
         <v>1986</v>
       </c>
-      <c r="S28" s="230" t="s">
+      <c r="S28" s="221" t="s">
         <v>1987</v>
       </c>
-      <c r="T28" s="230" t="s">
+      <c r="T28" s="221" t="s">
         <v>1988</v>
       </c>
     </row>
     <row r="29" spans="2:20">
-      <c r="B29" s="237"/>
+      <c r="B29" s="245"/>
       <c r="C29" s="239"/>
       <c r="D29" s="103" t="s">
         <v>743</v>
@@ -26990,19 +27001,19 @@
       <c r="J29" s="89"/>
       <c r="K29" s="89"/>
       <c r="L29" s="89"/>
-      <c r="M29" s="240"/>
-      <c r="N29" s="241"/>
-      <c r="O29" s="242"/>
+      <c r="M29" s="223"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="225"/>
       <c r="P29" s="92" t="s">
         <v>1989</v>
       </c>
-      <c r="Q29" s="233"/>
-      <c r="R29" s="231"/>
-      <c r="S29" s="231"/>
-      <c r="T29" s="231"/>
+      <c r="Q29" s="226"/>
+      <c r="R29" s="227"/>
+      <c r="S29" s="227"/>
+      <c r="T29" s="227"/>
     </row>
     <row r="30" spans="2:20">
-      <c r="B30" s="237"/>
+      <c r="B30" s="245"/>
       <c r="C30" s="239" t="s">
         <v>364</v>
       </c>
@@ -27029,13 +27040,13 @@
         <v>1992</v>
       </c>
       <c r="P30" s="92"/>
-      <c r="Q30" s="233"/>
-      <c r="R30" s="231"/>
-      <c r="S30" s="231"/>
-      <c r="T30" s="231"/>
+      <c r="Q30" s="226"/>
+      <c r="R30" s="227"/>
+      <c r="S30" s="227"/>
+      <c r="T30" s="227"/>
     </row>
     <row r="31" spans="2:20">
-      <c r="B31" s="237"/>
+      <c r="B31" s="245"/>
       <c r="C31" s="239"/>
       <c r="D31" s="103" t="s">
         <v>743</v>
@@ -27050,19 +27061,19 @@
       <c r="J31" s="89"/>
       <c r="K31" s="89"/>
       <c r="L31" s="89"/>
-      <c r="M31" s="240"/>
-      <c r="N31" s="241"/>
-      <c r="O31" s="242"/>
+      <c r="M31" s="223"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="225"/>
       <c r="P31" s="92" t="s">
         <v>1993</v>
       </c>
-      <c r="Q31" s="233"/>
-      <c r="R31" s="235"/>
-      <c r="S31" s="235"/>
-      <c r="T31" s="231"/>
+      <c r="Q31" s="226"/>
+      <c r="R31" s="222"/>
+      <c r="S31" s="222"/>
+      <c r="T31" s="227"/>
     </row>
     <row r="32" spans="2:20">
-      <c r="B32" s="237"/>
+      <c r="B32" s="245"/>
       <c r="C32" s="239" t="s">
         <v>348</v>
       </c>
@@ -27082,16 +27093,16 @@
       <c r="M32" s="92" t="s">
         <v>1994</v>
       </c>
-      <c r="N32" s="240"/>
-      <c r="O32" s="242"/>
+      <c r="N32" s="223"/>
+      <c r="O32" s="225"/>
       <c r="P32" s="92"/>
-      <c r="Q32" s="233"/>
-      <c r="R32" s="230"/>
-      <c r="S32" s="230"/>
-      <c r="T32" s="231"/>
+      <c r="Q32" s="226"/>
+      <c r="R32" s="221"/>
+      <c r="S32" s="221"/>
+      <c r="T32" s="227"/>
     </row>
     <row r="33" spans="2:20">
-      <c r="B33" s="237"/>
+      <c r="B33" s="245"/>
       <c r="C33" s="239"/>
       <c r="D33" s="103" t="s">
         <v>743</v>
@@ -27106,19 +27117,19 @@
       <c r="J33" s="89"/>
       <c r="K33" s="89"/>
       <c r="L33" s="89"/>
-      <c r="M33" s="240"/>
-      <c r="N33" s="241"/>
-      <c r="O33" s="242"/>
+      <c r="M33" s="223"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="225"/>
       <c r="P33" s="92" t="s">
         <v>1995</v>
       </c>
-      <c r="Q33" s="234"/>
-      <c r="R33" s="235"/>
-      <c r="S33" s="235"/>
-      <c r="T33" s="235"/>
+      <c r="Q33" s="220"/>
+      <c r="R33" s="222"/>
+      <c r="S33" s="222"/>
+      <c r="T33" s="222"/>
     </row>
     <row r="34" spans="2:20">
-      <c r="B34" s="237"/>
+      <c r="B34" s="245"/>
       <c r="C34" s="239" t="s">
         <v>380</v>
       </c>
@@ -27145,21 +27156,21 @@
         <v>1998</v>
       </c>
       <c r="P34" s="92"/>
-      <c r="Q34" s="232" t="s">
+      <c r="Q34" s="219" t="s">
         <v>1999</v>
       </c>
-      <c r="R34" s="230" t="s">
+      <c r="R34" s="221" t="s">
         <v>2000</v>
       </c>
-      <c r="S34" s="230" t="s">
+      <c r="S34" s="221" t="s">
         <v>2001</v>
       </c>
-      <c r="T34" s="230" t="s">
+      <c r="T34" s="221" t="s">
         <v>2002</v>
       </c>
     </row>
     <row r="35" spans="2:20">
-      <c r="B35" s="237"/>
+      <c r="B35" s="245"/>
       <c r="C35" s="239"/>
       <c r="D35" s="103" t="s">
         <v>743</v>
@@ -27174,19 +27185,19 @@
       <c r="J35" s="89"/>
       <c r="K35" s="89"/>
       <c r="L35" s="89"/>
-      <c r="M35" s="240"/>
-      <c r="N35" s="241"/>
-      <c r="O35" s="242"/>
+      <c r="M35" s="223"/>
+      <c r="N35" s="224"/>
+      <c r="O35" s="225"/>
       <c r="P35" s="92" t="s">
         <v>2003</v>
       </c>
-      <c r="Q35" s="233"/>
-      <c r="R35" s="231"/>
-      <c r="S35" s="231"/>
-      <c r="T35" s="231"/>
+      <c r="Q35" s="226"/>
+      <c r="R35" s="227"/>
+      <c r="S35" s="227"/>
+      <c r="T35" s="227"/>
     </row>
     <row r="36" spans="2:20">
-      <c r="B36" s="237"/>
+      <c r="B36" s="245"/>
       <c r="C36" s="239" t="s">
         <v>377</v>
       </c>
@@ -27213,13 +27224,13 @@
         <v>2006</v>
       </c>
       <c r="P36" s="92"/>
-      <c r="Q36" s="233"/>
-      <c r="R36" s="231"/>
-      <c r="S36" s="231"/>
-      <c r="T36" s="231"/>
+      <c r="Q36" s="226"/>
+      <c r="R36" s="227"/>
+      <c r="S36" s="227"/>
+      <c r="T36" s="227"/>
     </row>
     <row r="37" spans="2:20">
-      <c r="B37" s="237"/>
+      <c r="B37" s="245"/>
       <c r="C37" s="239"/>
       <c r="D37" s="103" t="s">
         <v>743</v>
@@ -27234,19 +27245,19 @@
       <c r="J37" s="89"/>
       <c r="K37" s="89"/>
       <c r="L37" s="89"/>
-      <c r="M37" s="240"/>
-      <c r="N37" s="241"/>
-      <c r="O37" s="242"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="224"/>
+      <c r="O37" s="225"/>
       <c r="P37" s="92" t="s">
         <v>2007</v>
       </c>
-      <c r="Q37" s="234"/>
-      <c r="R37" s="235"/>
-      <c r="S37" s="235"/>
-      <c r="T37" s="235"/>
+      <c r="Q37" s="220"/>
+      <c r="R37" s="222"/>
+      <c r="S37" s="222"/>
+      <c r="T37" s="222"/>
     </row>
     <row r="38" spans="2:20">
-      <c r="B38" s="237"/>
+      <c r="B38" s="245"/>
       <c r="C38" s="239" t="s">
         <v>374</v>
       </c>
@@ -27273,21 +27284,21 @@
         <v>2010</v>
       </c>
       <c r="P38" s="92"/>
-      <c r="Q38" s="232" t="s">
+      <c r="Q38" s="219" t="s">
         <v>2011</v>
       </c>
-      <c r="R38" s="230" t="s">
+      <c r="R38" s="221" t="s">
         <v>2012</v>
       </c>
-      <c r="S38" s="230" t="s">
+      <c r="S38" s="221" t="s">
         <v>2013</v>
       </c>
-      <c r="T38" s="230" t="s">
+      <c r="T38" s="221" t="s">
         <v>2014</v>
       </c>
     </row>
     <row r="39" spans="2:20">
-      <c r="B39" s="237"/>
+      <c r="B39" s="245"/>
       <c r="C39" s="239"/>
       <c r="D39" s="103" t="s">
         <v>743</v>
@@ -27302,19 +27313,19 @@
       <c r="J39" s="89"/>
       <c r="K39" s="89"/>
       <c r="L39" s="89"/>
-      <c r="M39" s="240"/>
-      <c r="N39" s="241"/>
-      <c r="O39" s="242"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="224"/>
+      <c r="O39" s="225"/>
       <c r="P39" s="92" t="s">
         <v>2015</v>
       </c>
-      <c r="Q39" s="233"/>
-      <c r="R39" s="231"/>
-      <c r="S39" s="231"/>
-      <c r="T39" s="231"/>
+      <c r="Q39" s="226"/>
+      <c r="R39" s="227"/>
+      <c r="S39" s="227"/>
+      <c r="T39" s="227"/>
     </row>
     <row r="40" spans="2:20">
-      <c r="B40" s="237"/>
+      <c r="B40" s="245"/>
       <c r="C40" s="239" t="s">
         <v>370</v>
       </c>
@@ -27341,13 +27352,13 @@
         <v>2019</v>
       </c>
       <c r="P40" s="92"/>
-      <c r="Q40" s="233"/>
-      <c r="R40" s="231"/>
-      <c r="S40" s="231"/>
-      <c r="T40" s="231"/>
+      <c r="Q40" s="226"/>
+      <c r="R40" s="227"/>
+      <c r="S40" s="227"/>
+      <c r="T40" s="227"/>
     </row>
     <row r="41" spans="2:20">
-      <c r="B41" s="237"/>
+      <c r="B41" s="245"/>
       <c r="C41" s="239"/>
       <c r="D41" s="103" t="s">
         <v>743</v>
@@ -27364,13 +27375,13 @@
       <c r="N41" s="92"/>
       <c r="O41" s="92"/>
       <c r="P41" s="92"/>
-      <c r="Q41" s="233"/>
-      <c r="R41" s="231"/>
-      <c r="S41" s="231"/>
-      <c r="T41" s="231"/>
+      <c r="Q41" s="226"/>
+      <c r="R41" s="227"/>
+      <c r="S41" s="227"/>
+      <c r="T41" s="227"/>
     </row>
     <row r="42" spans="2:20">
-      <c r="B42" s="237"/>
+      <c r="B42" s="245"/>
       <c r="C42" s="239" t="s">
         <v>392</v>
       </c>
@@ -27399,13 +27410,13 @@
         <v>2022</v>
       </c>
       <c r="P42" s="92"/>
-      <c r="Q42" s="234"/>
-      <c r="R42" s="235"/>
-      <c r="S42" s="235"/>
-      <c r="T42" s="235"/>
+      <c r="Q42" s="220"/>
+      <c r="R42" s="222"/>
+      <c r="S42" s="222"/>
+      <c r="T42" s="222"/>
     </row>
     <row r="43" spans="2:20">
-      <c r="B43" s="238"/>
+      <c r="B43" s="246"/>
       <c r="C43" s="239"/>
       <c r="D43" s="103" t="s">
         <v>743</v>
@@ -27422,27 +27433,27 @@
       </c>
       <c r="K43" s="89"/>
       <c r="L43" s="89"/>
-      <c r="M43" s="240"/>
-      <c r="N43" s="241"/>
-      <c r="O43" s="242"/>
+      <c r="M43" s="223"/>
+      <c r="N43" s="224"/>
+      <c r="O43" s="225"/>
       <c r="P43" s="92" t="s">
         <v>2023</v>
       </c>
-      <c r="Q43" s="232" t="s">
+      <c r="Q43" s="219" t="s">
         <v>2024</v>
       </c>
-      <c r="R43" s="230" t="s">
+      <c r="R43" s="221" t="s">
         <v>2025</v>
       </c>
-      <c r="S43" s="230" t="s">
+      <c r="S43" s="221" t="s">
         <v>2026</v>
       </c>
-      <c r="T43" s="230" t="s">
+      <c r="T43" s="221" t="s">
         <v>2027</v>
       </c>
     </row>
     <row r="44" spans="2:20">
-      <c r="B44" s="220" t="s">
+      <c r="B44" s="216" t="s">
         <v>383</v>
       </c>
       <c r="C44" s="239" t="s">
@@ -27471,13 +27482,13 @@
         <v>2030</v>
       </c>
       <c r="P44" s="92"/>
-      <c r="Q44" s="233"/>
-      <c r="R44" s="231"/>
-      <c r="S44" s="231"/>
-      <c r="T44" s="231"/>
+      <c r="Q44" s="226"/>
+      <c r="R44" s="227"/>
+      <c r="S44" s="227"/>
+      <c r="T44" s="227"/>
     </row>
     <row r="45" spans="2:20">
-      <c r="B45" s="221"/>
+      <c r="B45" s="217"/>
       <c r="C45" s="239"/>
       <c r="D45" s="103" t="s">
         <v>743</v>
@@ -27492,19 +27503,19 @@
       <c r="J45" s="89"/>
       <c r="K45" s="89"/>
       <c r="L45" s="89"/>
-      <c r="M45" s="240"/>
-      <c r="N45" s="241"/>
-      <c r="O45" s="242"/>
+      <c r="M45" s="223"/>
+      <c r="N45" s="224"/>
+      <c r="O45" s="225"/>
       <c r="P45" s="92" t="s">
         <v>2031</v>
       </c>
-      <c r="Q45" s="233"/>
-      <c r="R45" s="231"/>
-      <c r="S45" s="231"/>
-      <c r="T45" s="231"/>
+      <c r="Q45" s="226"/>
+      <c r="R45" s="227"/>
+      <c r="S45" s="227"/>
+      <c r="T45" s="227"/>
     </row>
     <row r="46" spans="2:20">
-      <c r="B46" s="221"/>
+      <c r="B46" s="217"/>
       <c r="C46" s="239" t="s">
         <v>388</v>
       </c>
@@ -27531,13 +27542,13 @@
         <v>2034</v>
       </c>
       <c r="P46" s="92"/>
-      <c r="Q46" s="234"/>
-      <c r="R46" s="235"/>
-      <c r="S46" s="235"/>
-      <c r="T46" s="235"/>
+      <c r="Q46" s="220"/>
+      <c r="R46" s="222"/>
+      <c r="S46" s="222"/>
+      <c r="T46" s="222"/>
     </row>
     <row r="47" spans="2:20">
-      <c r="B47" s="221"/>
+      <c r="B47" s="217"/>
       <c r="C47" s="239"/>
       <c r="D47" s="103" t="s">
         <v>743</v>
@@ -27552,27 +27563,27 @@
       <c r="J47" s="89"/>
       <c r="K47" s="89"/>
       <c r="L47" s="89"/>
-      <c r="M47" s="240"/>
-      <c r="N47" s="241"/>
-      <c r="O47" s="242"/>
+      <c r="M47" s="223"/>
+      <c r="N47" s="224"/>
+      <c r="O47" s="225"/>
       <c r="P47" s="92" t="s">
         <v>2035</v>
       </c>
-      <c r="Q47" s="232" t="s">
+      <c r="Q47" s="219" t="s">
         <v>2036</v>
       </c>
-      <c r="R47" s="230" t="s">
+      <c r="R47" s="221" t="s">
         <v>2037</v>
       </c>
-      <c r="S47" s="230" t="s">
+      <c r="S47" s="221" t="s">
         <v>2038</v>
       </c>
-      <c r="T47" s="230" t="s">
+      <c r="T47" s="221" t="s">
         <v>2039</v>
       </c>
     </row>
     <row r="48" spans="2:20">
-      <c r="B48" s="221"/>
+      <c r="B48" s="217"/>
       <c r="C48" s="239" t="s">
         <v>400</v>
       </c>
@@ -27601,13 +27612,13 @@
         <v>2042</v>
       </c>
       <c r="P48" s="92"/>
-      <c r="Q48" s="233"/>
-      <c r="R48" s="231"/>
-      <c r="S48" s="231"/>
-      <c r="T48" s="231"/>
+      <c r="Q48" s="226"/>
+      <c r="R48" s="227"/>
+      <c r="S48" s="227"/>
+      <c r="T48" s="227"/>
     </row>
     <row r="49" spans="2:20">
-      <c r="B49" s="221"/>
+      <c r="B49" s="217"/>
       <c r="C49" s="239"/>
       <c r="D49" s="103" t="s">
         <v>743</v>
@@ -27624,19 +27635,19 @@
       <c r="J49" s="89"/>
       <c r="K49" s="89"/>
       <c r="L49" s="89"/>
-      <c r="M49" s="240"/>
-      <c r="N49" s="241"/>
-      <c r="O49" s="242"/>
+      <c r="M49" s="223"/>
+      <c r="N49" s="224"/>
+      <c r="O49" s="225"/>
       <c r="P49" s="92" t="s">
         <v>2043</v>
       </c>
-      <c r="Q49" s="233"/>
-      <c r="R49" s="231"/>
-      <c r="S49" s="231"/>
-      <c r="T49" s="231"/>
+      <c r="Q49" s="226"/>
+      <c r="R49" s="227"/>
+      <c r="S49" s="227"/>
+      <c r="T49" s="227"/>
     </row>
     <row r="50" spans="2:20">
-      <c r="B50" s="221"/>
+      <c r="B50" s="217"/>
       <c r="C50" s="239" t="s">
         <v>383</v>
       </c>
@@ -27665,13 +27676,13 @@
         <v>2046</v>
       </c>
       <c r="P50" s="92"/>
-      <c r="Q50" s="234"/>
-      <c r="R50" s="235"/>
-      <c r="S50" s="235"/>
-      <c r="T50" s="235"/>
+      <c r="Q50" s="220"/>
+      <c r="R50" s="222"/>
+      <c r="S50" s="222"/>
+      <c r="T50" s="222"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="221"/>
+      <c r="B51" s="217"/>
       <c r="C51" s="239"/>
       <c r="D51" s="103" t="s">
         <v>743</v>
@@ -27688,27 +27699,27 @@
       <c r="J51" s="89"/>
       <c r="K51" s="89"/>
       <c r="L51" s="89"/>
-      <c r="M51" s="240"/>
-      <c r="N51" s="241"/>
-      <c r="O51" s="242"/>
+      <c r="M51" s="223"/>
+      <c r="N51" s="224"/>
+      <c r="O51" s="225"/>
       <c r="P51" s="92" t="s">
         <v>2047</v>
       </c>
-      <c r="Q51" s="232" t="s">
+      <c r="Q51" s="219" t="s">
         <v>2048</v>
       </c>
-      <c r="R51" s="230" t="s">
+      <c r="R51" s="221" t="s">
         <v>2049</v>
       </c>
-      <c r="S51" s="230" t="s">
+      <c r="S51" s="221" t="s">
         <v>2050</v>
       </c>
-      <c r="T51" s="230" t="s">
+      <c r="T51" s="221" t="s">
         <v>2051</v>
       </c>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="221"/>
+      <c r="B52" s="217"/>
       <c r="C52" s="239" t="s">
         <v>430</v>
       </c>
@@ -27735,13 +27746,13 @@
         <v>2054</v>
       </c>
       <c r="P52" s="92"/>
-      <c r="Q52" s="233"/>
-      <c r="R52" s="231"/>
-      <c r="S52" s="231"/>
-      <c r="T52" s="231"/>
+      <c r="Q52" s="226"/>
+      <c r="R52" s="227"/>
+      <c r="S52" s="227"/>
+      <c r="T52" s="227"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="221"/>
+      <c r="B53" s="217"/>
       <c r="C53" s="239"/>
       <c r="D53" s="103" t="s">
         <v>743</v>
@@ -27756,19 +27767,19 @@
         <v>478</v>
       </c>
       <c r="L53" s="89"/>
-      <c r="M53" s="240"/>
-      <c r="N53" s="241"/>
-      <c r="O53" s="242"/>
+      <c r="M53" s="223"/>
+      <c r="N53" s="224"/>
+      <c r="O53" s="225"/>
       <c r="P53" s="92" t="s">
         <v>2055</v>
       </c>
-      <c r="Q53" s="233"/>
-      <c r="R53" s="231"/>
-      <c r="S53" s="231"/>
-      <c r="T53" s="231"/>
+      <c r="Q53" s="226"/>
+      <c r="R53" s="227"/>
+      <c r="S53" s="227"/>
+      <c r="T53" s="227"/>
     </row>
     <row r="54" spans="2:20">
-      <c r="B54" s="221"/>
+      <c r="B54" s="217"/>
       <c r="C54" s="239" t="s">
         <v>413</v>
       </c>
@@ -27797,13 +27808,13 @@
         <v>2058</v>
       </c>
       <c r="P54" s="92"/>
-      <c r="Q54" s="234"/>
-      <c r="R54" s="235"/>
-      <c r="S54" s="235"/>
-      <c r="T54" s="235"/>
+      <c r="Q54" s="220"/>
+      <c r="R54" s="222"/>
+      <c r="S54" s="222"/>
+      <c r="T54" s="222"/>
     </row>
     <row r="55" spans="2:20">
-      <c r="B55" s="222"/>
+      <c r="B55" s="218"/>
       <c r="C55" s="239"/>
       <c r="D55" s="103" t="s">
         <v>743</v>
@@ -27820,25 +27831,25 @@
       </c>
       <c r="K55" s="89"/>
       <c r="L55" s="89"/>
-      <c r="M55" s="240"/>
-      <c r="N55" s="241"/>
-      <c r="O55" s="242"/>
+      <c r="M55" s="223"/>
+      <c r="N55" s="224"/>
+      <c r="O55" s="225"/>
       <c r="P55" s="92" t="s">
         <v>2059</v>
       </c>
-      <c r="Q55" s="232" t="s">
+      <c r="Q55" s="219" t="s">
         <v>2060</v>
       </c>
-      <c r="R55" s="230" t="s">
+      <c r="R55" s="221" t="s">
         <v>2061</v>
       </c>
-      <c r="S55" s="230" t="s">
+      <c r="S55" s="221" t="s">
         <v>2062</v>
       </c>
-      <c r="T55" s="230"/>
+      <c r="T55" s="221"/>
     </row>
     <row r="56" spans="2:20">
-      <c r="B56" s="220" t="s">
+      <c r="B56" s="216" t="s">
         <v>516</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -27866,14 +27877,14 @@
       <c r="O56" s="92" t="s">
         <v>2065</v>
       </c>
-      <c r="P56" s="230"/>
-      <c r="Q56" s="234"/>
-      <c r="R56" s="235"/>
-      <c r="S56" s="235"/>
-      <c r="T56" s="235"/>
+      <c r="P56" s="221"/>
+      <c r="Q56" s="220"/>
+      <c r="R56" s="222"/>
+      <c r="S56" s="222"/>
+      <c r="T56" s="222"/>
     </row>
     <row r="57" spans="2:20">
-      <c r="B57" s="221"/>
+      <c r="B57" s="217"/>
       <c r="C57" s="16" t="s">
         <v>525</v>
       </c>
@@ -27899,7 +27910,7 @@
       <c r="O57" s="92" t="s">
         <v>2068</v>
       </c>
-      <c r="P57" s="235"/>
+      <c r="P57" s="222"/>
       <c r="Q57" s="96" t="s">
         <v>2069</v>
       </c>
@@ -27912,7 +27923,7 @@
       <c r="T57" s="92"/>
     </row>
     <row r="58" spans="2:20">
-      <c r="B58" s="221"/>
+      <c r="B58" s="217"/>
       <c r="C58" s="16" t="s">
         <v>2072</v>
       </c>
@@ -27951,7 +27962,7 @@
       <c r="T58" s="92"/>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="222"/>
+      <c r="B59" s="218"/>
       <c r="C59" s="16" t="s">
         <v>517</v>
       </c>
@@ -27978,19 +27989,19 @@
         <v>2082</v>
       </c>
       <c r="P59" s="92"/>
-      <c r="Q59" s="232" t="s">
+      <c r="Q59" s="219" t="s">
         <v>2083</v>
       </c>
-      <c r="R59" s="230" t="s">
+      <c r="R59" s="221" t="s">
         <v>2084</v>
       </c>
-      <c r="S59" s="230" t="s">
+      <c r="S59" s="221" t="s">
         <v>2085</v>
       </c>
-      <c r="T59" s="230"/>
+      <c r="T59" s="221"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="220" t="s">
+      <c r="B60" s="216" t="s">
         <v>535</v>
       </c>
       <c r="C60" s="16" t="s">
@@ -28018,14 +28029,14 @@
       <c r="O60" s="92" t="s">
         <v>2088</v>
       </c>
-      <c r="P60" s="230"/>
-      <c r="Q60" s="234"/>
-      <c r="R60" s="235"/>
-      <c r="S60" s="235"/>
-      <c r="T60" s="235"/>
+      <c r="P60" s="221"/>
+      <c r="Q60" s="220"/>
+      <c r="R60" s="222"/>
+      <c r="S60" s="222"/>
+      <c r="T60" s="222"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="222"/>
+      <c r="B61" s="218"/>
       <c r="C61" s="16" t="s">
         <v>540</v>
       </c>
@@ -28051,7 +28062,7 @@
       <c r="O61" s="92" t="s">
         <v>2091</v>
       </c>
-      <c r="P61" s="235"/>
+      <c r="P61" s="222"/>
       <c r="Q61" s="93" t="s">
         <v>2092</v>
       </c>
@@ -28097,21 +28108,21 @@
         <v>2097</v>
       </c>
       <c r="P62" s="95"/>
-      <c r="Q62" s="216" t="s">
+      <c r="Q62" s="247" t="s">
         <v>2098</v>
       </c>
-      <c r="R62" s="223" t="s">
+      <c r="R62" s="251" t="s">
         <v>2099</v>
       </c>
-      <c r="S62" s="213" t="s">
+      <c r="S62" s="236" t="s">
         <v>2100</v>
       </c>
-      <c r="T62" s="246" t="s">
+      <c r="T62" s="233" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="236" t="s">
+      <c r="B63" s="244" t="s">
         <v>563</v>
       </c>
       <c r="C63" s="239" t="s">
@@ -28140,13 +28151,13 @@
         <v>2104</v>
       </c>
       <c r="P63" s="95"/>
-      <c r="Q63" s="217"/>
-      <c r="R63" s="224"/>
-      <c r="S63" s="214"/>
-      <c r="T63" s="247"/>
+      <c r="Q63" s="248"/>
+      <c r="R63" s="252"/>
+      <c r="S63" s="237"/>
+      <c r="T63" s="234"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="237"/>
+      <c r="B64" s="245"/>
       <c r="C64" s="239"/>
       <c r="D64" s="103" t="s">
         <v>743</v>
@@ -28161,19 +28172,19 @@
       <c r="J64" s="89"/>
       <c r="K64" s="89"/>
       <c r="L64" s="89"/>
-      <c r="M64" s="240"/>
-      <c r="N64" s="241"/>
-      <c r="O64" s="242"/>
+      <c r="M64" s="223"/>
+      <c r="N64" s="224"/>
+      <c r="O64" s="225"/>
       <c r="P64" s="95" t="s">
         <v>2105</v>
       </c>
-      <c r="Q64" s="217"/>
-      <c r="R64" s="224"/>
-      <c r="S64" s="214"/>
-      <c r="T64" s="247"/>
+      <c r="Q64" s="248"/>
+      <c r="R64" s="252"/>
+      <c r="S64" s="237"/>
+      <c r="T64" s="234"/>
     </row>
     <row r="65" spans="2:20">
-      <c r="B65" s="237"/>
+      <c r="B65" s="245"/>
       <c r="C65" s="239" t="s">
         <v>564</v>
       </c>
@@ -28200,13 +28211,13 @@
         <v>2108</v>
       </c>
       <c r="P65" s="95"/>
-      <c r="Q65" s="217"/>
-      <c r="R65" s="224"/>
-      <c r="S65" s="214"/>
-      <c r="T65" s="247"/>
+      <c r="Q65" s="248"/>
+      <c r="R65" s="252"/>
+      <c r="S65" s="237"/>
+      <c r="T65" s="234"/>
     </row>
     <row r="66" spans="2:20">
-      <c r="B66" s="237"/>
+      <c r="B66" s="245"/>
       <c r="C66" s="239"/>
       <c r="D66" s="103" t="s">
         <v>743</v>
@@ -28221,22 +28232,22 @@
       <c r="J66" s="89"/>
       <c r="K66" s="89"/>
       <c r="L66" s="89"/>
-      <c r="M66" s="240"/>
-      <c r="N66" s="241"/>
-      <c r="O66" s="242"/>
+      <c r="M66" s="223"/>
+      <c r="N66" s="224"/>
+      <c r="O66" s="225"/>
       <c r="P66" s="95" t="s">
         <v>2109</v>
       </c>
-      <c r="Q66" s="218"/>
-      <c r="R66" s="225"/>
-      <c r="S66" s="215"/>
-      <c r="T66" s="248"/>
+      <c r="Q66" s="249"/>
+      <c r="R66" s="253"/>
+      <c r="S66" s="238"/>
+      <c r="T66" s="235"/>
     </row>
     <row r="67" spans="2:20">
-      <c r="B67" s="220" t="s">
+      <c r="B67" s="216" t="s">
         <v>578</v>
       </c>
-      <c r="C67" s="229" t="s">
+      <c r="C67" s="243" t="s">
         <v>579</v>
       </c>
       <c r="D67" s="103" t="s">
@@ -28262,22 +28273,22 @@
         <v>2112</v>
       </c>
       <c r="P67" s="92"/>
-      <c r="Q67" s="226" t="s">
+      <c r="Q67" s="254" t="s">
         <v>2113</v>
       </c>
-      <c r="R67" s="213" t="s">
+      <c r="R67" s="236" t="s">
         <v>2114</v>
       </c>
-      <c r="S67" s="213" t="s">
+      <c r="S67" s="236" t="s">
         <v>2115</v>
       </c>
-      <c r="T67" s="213" t="s">
+      <c r="T67" s="236" t="s">
         <v>2116</v>
       </c>
     </row>
     <row r="68" spans="2:20">
-      <c r="B68" s="221"/>
-      <c r="C68" s="229"/>
+      <c r="B68" s="217"/>
+      <c r="C68" s="243"/>
       <c r="D68" s="103" t="s">
         <v>743</v>
       </c>
@@ -28290,20 +28301,20 @@
       <c r="J68" s="89"/>
       <c r="K68" s="89"/>
       <c r="L68" s="89"/>
-      <c r="M68" s="240"/>
-      <c r="N68" s="241"/>
-      <c r="O68" s="242"/>
+      <c r="M68" s="223"/>
+      <c r="N68" s="224"/>
+      <c r="O68" s="225"/>
       <c r="P68" s="92" t="s">
         <v>2117</v>
       </c>
-      <c r="Q68" s="227"/>
-      <c r="R68" s="214"/>
-      <c r="S68" s="214"/>
-      <c r="T68" s="214"/>
+      <c r="Q68" s="255"/>
+      <c r="R68" s="237"/>
+      <c r="S68" s="237"/>
+      <c r="T68" s="237"/>
     </row>
     <row r="69" spans="2:20">
-      <c r="B69" s="221"/>
-      <c r="C69" s="229" t="s">
+      <c r="B69" s="217"/>
+      <c r="C69" s="243" t="s">
         <v>593</v>
       </c>
       <c r="D69" s="103" t="s">
@@ -28329,14 +28340,14 @@
         <v>2120</v>
       </c>
       <c r="P69" s="92"/>
-      <c r="Q69" s="227"/>
-      <c r="R69" s="214"/>
-      <c r="S69" s="214"/>
-      <c r="T69" s="214"/>
+      <c r="Q69" s="255"/>
+      <c r="R69" s="237"/>
+      <c r="S69" s="237"/>
+      <c r="T69" s="237"/>
     </row>
     <row r="70" spans="2:20">
-      <c r="B70" s="221"/>
-      <c r="C70" s="229"/>
+      <c r="B70" s="217"/>
+      <c r="C70" s="243"/>
       <c r="D70" s="103" t="s">
         <v>743</v>
       </c>
@@ -28349,20 +28360,20 @@
       <c r="J70" s="89"/>
       <c r="K70" s="89"/>
       <c r="L70" s="89"/>
-      <c r="M70" s="240"/>
-      <c r="N70" s="241"/>
-      <c r="O70" s="242"/>
+      <c r="M70" s="223"/>
+      <c r="N70" s="224"/>
+      <c r="O70" s="225"/>
       <c r="P70" s="92" t="s">
         <v>2121</v>
       </c>
-      <c r="Q70" s="227"/>
-      <c r="R70" s="214"/>
-      <c r="S70" s="214"/>
-      <c r="T70" s="214"/>
+      <c r="Q70" s="255"/>
+      <c r="R70" s="237"/>
+      <c r="S70" s="237"/>
+      <c r="T70" s="237"/>
     </row>
     <row r="71" spans="2:20">
-      <c r="B71" s="221"/>
-      <c r="C71" s="229" t="s">
+      <c r="B71" s="217"/>
+      <c r="C71" s="243" t="s">
         <v>83</v>
       </c>
       <c r="D71" s="103" t="s">
@@ -28388,14 +28399,14 @@
         <v>2124</v>
       </c>
       <c r="P71" s="92"/>
-      <c r="Q71" s="227"/>
-      <c r="R71" s="214"/>
-      <c r="S71" s="214"/>
-      <c r="T71" s="214"/>
+      <c r="Q71" s="255"/>
+      <c r="R71" s="237"/>
+      <c r="S71" s="237"/>
+      <c r="T71" s="237"/>
     </row>
     <row r="72" spans="2:20">
-      <c r="B72" s="221"/>
-      <c r="C72" s="229"/>
+      <c r="B72" s="217"/>
+      <c r="C72" s="243"/>
       <c r="D72" s="103" t="s">
         <v>743</v>
       </c>
@@ -28409,20 +28420,20 @@
       <c r="J72" s="89"/>
       <c r="K72" s="89"/>
       <c r="L72" s="89"/>
-      <c r="M72" s="240"/>
-      <c r="N72" s="241"/>
-      <c r="O72" s="242"/>
+      <c r="M72" s="223"/>
+      <c r="N72" s="224"/>
+      <c r="O72" s="225"/>
       <c r="P72" s="92" t="s">
         <v>2125</v>
       </c>
-      <c r="Q72" s="228"/>
-      <c r="R72" s="215"/>
-      <c r="S72" s="215"/>
-      <c r="T72" s="215"/>
+      <c r="Q72" s="256"/>
+      <c r="R72" s="238"/>
+      <c r="S72" s="238"/>
+      <c r="T72" s="238"/>
     </row>
     <row r="73" spans="2:20">
-      <c r="B73" s="221"/>
-      <c r="C73" s="229" t="s">
+      <c r="B73" s="217"/>
+      <c r="C73" s="243" t="s">
         <v>2126</v>
       </c>
       <c r="D73" s="103" t="s">
@@ -28448,22 +28459,22 @@
         <v>2129</v>
       </c>
       <c r="P73" s="92"/>
-      <c r="Q73" s="232" t="s">
+      <c r="Q73" s="219" t="s">
         <v>2130</v>
       </c>
-      <c r="R73" s="243" t="s">
+      <c r="R73" s="240" t="s">
         <v>2131</v>
       </c>
-      <c r="S73" s="243" t="s">
+      <c r="S73" s="240" t="s">
         <v>2132</v>
       </c>
-      <c r="T73" s="230" t="s">
+      <c r="T73" s="221" t="s">
         <v>2133</v>
       </c>
     </row>
     <row r="74" spans="2:20">
-      <c r="B74" s="222"/>
-      <c r="C74" s="229"/>
+      <c r="B74" s="218"/>
+      <c r="C74" s="243"/>
       <c r="D74" s="103" t="s">
         <v>743</v>
       </c>
@@ -28477,22 +28488,22 @@
         <v>642</v>
       </c>
       <c r="L74" s="89"/>
-      <c r="M74" s="240"/>
-      <c r="N74" s="241"/>
-      <c r="O74" s="242"/>
+      <c r="M74" s="223"/>
+      <c r="N74" s="224"/>
+      <c r="O74" s="225"/>
       <c r="P74" s="92" t="s">
         <v>2134</v>
       </c>
-      <c r="Q74" s="234"/>
-      <c r="R74" s="244"/>
-      <c r="S74" s="244"/>
-      <c r="T74" s="235"/>
+      <c r="Q74" s="220"/>
+      <c r="R74" s="241"/>
+      <c r="S74" s="241"/>
+      <c r="T74" s="222"/>
     </row>
     <row r="75" spans="2:20">
-      <c r="B75" s="221" t="s">
+      <c r="B75" s="217" t="s">
         <v>618</v>
       </c>
-      <c r="C75" s="229" t="s">
+      <c r="C75" s="243" t="s">
         <v>626</v>
       </c>
       <c r="D75" s="103" t="s">
@@ -28518,22 +28529,22 @@
         <v>2137</v>
       </c>
       <c r="P75" s="92"/>
-      <c r="Q75" s="232" t="s">
+      <c r="Q75" s="219" t="s">
         <v>2138</v>
       </c>
-      <c r="R75" s="243" t="s">
+      <c r="R75" s="240" t="s">
         <v>2139</v>
       </c>
-      <c r="S75" s="243" t="s">
+      <c r="S75" s="240" t="s">
         <v>2140</v>
       </c>
-      <c r="T75" s="230" t="s">
+      <c r="T75" s="221" t="s">
         <v>2141</v>
       </c>
     </row>
     <row r="76" spans="2:20">
-      <c r="B76" s="221"/>
-      <c r="C76" s="229"/>
+      <c r="B76" s="217"/>
+      <c r="C76" s="243"/>
       <c r="D76" s="103" t="s">
         <v>743</v>
       </c>
@@ -28547,20 +28558,20 @@
       <c r="J76" s="89"/>
       <c r="K76" s="87"/>
       <c r="L76" s="89"/>
-      <c r="M76" s="240"/>
-      <c r="N76" s="241"/>
-      <c r="O76" s="242"/>
+      <c r="M76" s="223"/>
+      <c r="N76" s="224"/>
+      <c r="O76" s="225"/>
       <c r="P76" s="92" t="s">
         <v>2142</v>
       </c>
-      <c r="Q76" s="233"/>
-      <c r="R76" s="245"/>
-      <c r="S76" s="245"/>
-      <c r="T76" s="231"/>
+      <c r="Q76" s="226"/>
+      <c r="R76" s="242"/>
+      <c r="S76" s="242"/>
+      <c r="T76" s="227"/>
     </row>
     <row r="77" spans="2:20">
-      <c r="B77" s="221"/>
-      <c r="C77" s="229" t="s">
+      <c r="B77" s="217"/>
+      <c r="C77" s="243" t="s">
         <v>619</v>
       </c>
       <c r="D77" s="103" t="s">
@@ -28586,14 +28597,14 @@
         <v>2145</v>
       </c>
       <c r="P77" s="92"/>
-      <c r="Q77" s="233"/>
-      <c r="R77" s="245"/>
-      <c r="S77" s="245"/>
-      <c r="T77" s="231"/>
+      <c r="Q77" s="226"/>
+      <c r="R77" s="242"/>
+      <c r="S77" s="242"/>
+      <c r="T77" s="227"/>
     </row>
     <row r="78" spans="2:20">
-      <c r="B78" s="222"/>
-      <c r="C78" s="229"/>
+      <c r="B78" s="218"/>
+      <c r="C78" s="243"/>
       <c r="D78" s="103" t="s">
         <v>743</v>
       </c>
@@ -28607,19 +28618,19 @@
       <c r="J78" s="89"/>
       <c r="K78" s="89"/>
       <c r="L78" s="89"/>
-      <c r="M78" s="240"/>
-      <c r="N78" s="241"/>
-      <c r="O78" s="242"/>
+      <c r="M78" s="223"/>
+      <c r="N78" s="224"/>
+      <c r="O78" s="225"/>
       <c r="P78" s="92" t="s">
         <v>2146</v>
       </c>
-      <c r="Q78" s="234"/>
-      <c r="R78" s="244"/>
-      <c r="S78" s="244"/>
-      <c r="T78" s="235"/>
+      <c r="Q78" s="220"/>
+      <c r="R78" s="241"/>
+      <c r="S78" s="241"/>
+      <c r="T78" s="222"/>
     </row>
     <row r="79" spans="2:20">
-      <c r="B79" s="237" t="s">
+      <c r="B79" s="245" t="s">
         <v>687</v>
       </c>
       <c r="C79" s="16" t="s">
@@ -28647,20 +28658,20 @@
       <c r="O79" s="92" t="s">
         <v>2149</v>
       </c>
-      <c r="P79" s="230"/>
-      <c r="Q79" s="232" t="s">
+      <c r="P79" s="221"/>
+      <c r="Q79" s="219" t="s">
         <v>2150</v>
       </c>
-      <c r="R79" s="230" t="s">
+      <c r="R79" s="221" t="s">
         <v>2151</v>
       </c>
-      <c r="S79" s="230" t="s">
+      <c r="S79" s="221" t="s">
         <v>2152</v>
       </c>
-      <c r="T79" s="230"/>
+      <c r="T79" s="221"/>
     </row>
     <row r="80" spans="2:20">
-      <c r="B80" s="237"/>
+      <c r="B80" s="245"/>
       <c r="C80" s="16" t="s">
         <v>692</v>
       </c>
@@ -28686,14 +28697,14 @@
       <c r="O80" s="92" t="s">
         <v>2155</v>
       </c>
-      <c r="P80" s="231"/>
-      <c r="Q80" s="233"/>
-      <c r="R80" s="231"/>
-      <c r="S80" s="231"/>
-      <c r="T80" s="231"/>
+      <c r="P80" s="227"/>
+      <c r="Q80" s="226"/>
+      <c r="R80" s="227"/>
+      <c r="S80" s="227"/>
+      <c r="T80" s="227"/>
     </row>
     <row r="81" spans="2:20">
-      <c r="B81" s="237"/>
+      <c r="B81" s="245"/>
       <c r="C81" s="16" t="s">
         <v>696</v>
       </c>
@@ -28719,14 +28730,14 @@
       <c r="O81" s="92" t="s">
         <v>2158</v>
       </c>
-      <c r="P81" s="235"/>
-      <c r="Q81" s="234"/>
-      <c r="R81" s="235"/>
-      <c r="S81" s="235"/>
-      <c r="T81" s="235"/>
+      <c r="P81" s="222"/>
+      <c r="Q81" s="220"/>
+      <c r="R81" s="222"/>
+      <c r="S81" s="222"/>
+      <c r="T81" s="222"/>
     </row>
     <row r="82" spans="2:20">
-      <c r="B82" s="220" t="s">
+      <c r="B82" s="216" t="s">
         <v>699</v>
       </c>
       <c r="C82" s="239" t="s">
@@ -28755,21 +28766,21 @@
         <v>2161</v>
       </c>
       <c r="P82" s="92"/>
-      <c r="Q82" s="232" t="s">
+      <c r="Q82" s="219" t="s">
         <v>2162</v>
       </c>
-      <c r="R82" s="230" t="s">
+      <c r="R82" s="221" t="s">
         <v>2163</v>
       </c>
-      <c r="S82" s="230" t="s">
+      <c r="S82" s="221" t="s">
         <v>2164</v>
       </c>
-      <c r="T82" s="230" t="s">
+      <c r="T82" s="221" t="s">
         <v>2165</v>
       </c>
     </row>
     <row r="83" spans="2:20">
-      <c r="B83" s="221"/>
+      <c r="B83" s="217"/>
       <c r="C83" s="239"/>
       <c r="D83" s="103" t="s">
         <v>743</v>
@@ -28784,22 +28795,22 @@
       <c r="J83" s="89"/>
       <c r="K83" s="89"/>
       <c r="L83" s="89"/>
-      <c r="M83" s="240"/>
-      <c r="N83" s="241"/>
-      <c r="O83" s="242"/>
+      <c r="M83" s="223"/>
+      <c r="N83" s="224"/>
+      <c r="O83" s="225"/>
       <c r="P83" s="92" t="s">
         <v>2166</v>
       </c>
-      <c r="Q83" s="234"/>
-      <c r="R83" s="235"/>
-      <c r="S83" s="235"/>
-      <c r="T83" s="235"/>
+      <c r="Q83" s="220"/>
+      <c r="R83" s="222"/>
+      <c r="S83" s="222"/>
+      <c r="T83" s="222"/>
     </row>
     <row r="84" spans="2:20">
-      <c r="B84" s="220" t="s">
+      <c r="B84" s="216" t="s">
         <v>708</v>
       </c>
-      <c r="C84" s="229" t="s">
+      <c r="C84" s="243" t="s">
         <v>735</v>
       </c>
       <c r="D84" s="103" t="s">
@@ -28825,22 +28836,22 @@
         <v>2169</v>
       </c>
       <c r="P84" s="92"/>
-      <c r="Q84" s="232" t="s">
+      <c r="Q84" s="219" t="s">
         <v>2170</v>
       </c>
-      <c r="R84" s="230" t="s">
+      <c r="R84" s="221" t="s">
         <v>2171</v>
       </c>
-      <c r="S84" s="230" t="s">
+      <c r="S84" s="221" t="s">
         <v>2172</v>
       </c>
-      <c r="T84" s="230" t="s">
+      <c r="T84" s="221" t="s">
         <v>2173</v>
       </c>
     </row>
     <row r="85" spans="2:20">
-      <c r="B85" s="221"/>
-      <c r="C85" s="229"/>
+      <c r="B85" s="217"/>
+      <c r="C85" s="243"/>
       <c r="D85" s="103" t="s">
         <v>743</v>
       </c>
@@ -28854,20 +28865,20 @@
       <c r="J85" s="89"/>
       <c r="K85" s="89"/>
       <c r="L85" s="89"/>
-      <c r="M85" s="240"/>
-      <c r="N85" s="241"/>
-      <c r="O85" s="242"/>
+      <c r="M85" s="223"/>
+      <c r="N85" s="224"/>
+      <c r="O85" s="225"/>
       <c r="P85" s="92" t="s">
         <v>2174</v>
       </c>
-      <c r="Q85" s="233"/>
-      <c r="R85" s="231"/>
-      <c r="S85" s="231"/>
-      <c r="T85" s="231"/>
+      <c r="Q85" s="226"/>
+      <c r="R85" s="227"/>
+      <c r="S85" s="227"/>
+      <c r="T85" s="227"/>
     </row>
     <row r="86" spans="2:20">
-      <c r="B86" s="221"/>
-      <c r="C86" s="229" t="s">
+      <c r="B86" s="217"/>
+      <c r="C86" s="243" t="s">
         <v>709</v>
       </c>
       <c r="D86" s="103" t="s">
@@ -28893,14 +28904,14 @@
         <v>2177</v>
       </c>
       <c r="P86" s="92"/>
-      <c r="Q86" s="233"/>
-      <c r="R86" s="231"/>
-      <c r="S86" s="231"/>
-      <c r="T86" s="231"/>
+      <c r="Q86" s="226"/>
+      <c r="R86" s="227"/>
+      <c r="S86" s="227"/>
+      <c r="T86" s="227"/>
     </row>
     <row r="87" spans="2:20">
-      <c r="B87" s="221"/>
-      <c r="C87" s="229"/>
+      <c r="B87" s="217"/>
+      <c r="C87" s="243"/>
       <c r="D87" s="103" t="s">
         <v>743</v>
       </c>
@@ -28914,20 +28925,20 @@
       <c r="J87" s="89"/>
       <c r="K87" s="89"/>
       <c r="L87" s="89"/>
-      <c r="M87" s="240"/>
-      <c r="N87" s="241"/>
-      <c r="O87" s="242"/>
+      <c r="M87" s="223"/>
+      <c r="N87" s="224"/>
+      <c r="O87" s="225"/>
       <c r="P87" s="92" t="s">
         <v>2178</v>
       </c>
-      <c r="Q87" s="234"/>
-      <c r="R87" s="235"/>
-      <c r="S87" s="235"/>
-      <c r="T87" s="235"/>
+      <c r="Q87" s="220"/>
+      <c r="R87" s="222"/>
+      <c r="S87" s="222"/>
+      <c r="T87" s="222"/>
     </row>
     <row r="88" spans="2:20">
-      <c r="B88" s="221"/>
-      <c r="C88" s="229" t="s">
+      <c r="B88" s="217"/>
+      <c r="C88" s="243" t="s">
         <v>725</v>
       </c>
       <c r="D88" s="103" t="s">
@@ -28953,22 +28964,22 @@
         <v>2181</v>
       </c>
       <c r="P88" s="92"/>
-      <c r="Q88" s="232" t="s">
+      <c r="Q88" s="219" t="s">
         <v>2182</v>
       </c>
-      <c r="R88" s="230" t="s">
+      <c r="R88" s="221" t="s">
         <v>2183</v>
       </c>
-      <c r="S88" s="230" t="s">
+      <c r="S88" s="221" t="s">
         <v>2184</v>
       </c>
-      <c r="T88" s="230" t="s">
+      <c r="T88" s="221" t="s">
         <v>2185</v>
       </c>
     </row>
     <row r="89" spans="2:20">
-      <c r="B89" s="221"/>
-      <c r="C89" s="229"/>
+      <c r="B89" s="217"/>
+      <c r="C89" s="243"/>
       <c r="D89" s="103" t="s">
         <v>743</v>
       </c>
@@ -28982,20 +28993,20 @@
       <c r="J89" s="89"/>
       <c r="K89" s="89"/>
       <c r="L89" s="89"/>
-      <c r="M89" s="240"/>
-      <c r="N89" s="241"/>
-      <c r="O89" s="242"/>
+      <c r="M89" s="223"/>
+      <c r="N89" s="224"/>
+      <c r="O89" s="225"/>
       <c r="P89" s="92" t="s">
         <v>2186</v>
       </c>
-      <c r="Q89" s="233"/>
-      <c r="R89" s="231"/>
-      <c r="S89" s="231"/>
-      <c r="T89" s="231"/>
+      <c r="Q89" s="226"/>
+      <c r="R89" s="227"/>
+      <c r="S89" s="227"/>
+      <c r="T89" s="227"/>
     </row>
     <row r="90" spans="2:20">
-      <c r="B90" s="221"/>
-      <c r="C90" s="229" t="s">
+      <c r="B90" s="217"/>
+      <c r="C90" s="243" t="s">
         <v>732</v>
       </c>
       <c r="D90" s="103" t="s">
@@ -29021,14 +29032,14 @@
         <v>2189</v>
       </c>
       <c r="P90" s="92"/>
-      <c r="Q90" s="233"/>
-      <c r="R90" s="231"/>
-      <c r="S90" s="231"/>
-      <c r="T90" s="231"/>
+      <c r="Q90" s="226"/>
+      <c r="R90" s="227"/>
+      <c r="S90" s="227"/>
+      <c r="T90" s="227"/>
     </row>
     <row r="91" spans="2:20">
-      <c r="B91" s="221"/>
-      <c r="C91" s="229"/>
+      <c r="B91" s="217"/>
+      <c r="C91" s="243"/>
       <c r="D91" s="103" t="s">
         <v>743</v>
       </c>
@@ -29042,20 +29053,20 @@
         <v>751</v>
       </c>
       <c r="L91" s="89"/>
-      <c r="M91" s="240"/>
-      <c r="N91" s="241"/>
-      <c r="O91" s="242"/>
+      <c r="M91" s="223"/>
+      <c r="N91" s="224"/>
+      <c r="O91" s="225"/>
       <c r="P91" s="92" t="s">
         <v>2190</v>
       </c>
-      <c r="Q91" s="233"/>
-      <c r="R91" s="231"/>
-      <c r="S91" s="231"/>
-      <c r="T91" s="231"/>
+      <c r="Q91" s="226"/>
+      <c r="R91" s="227"/>
+      <c r="S91" s="227"/>
+      <c r="T91" s="227"/>
     </row>
     <row r="92" spans="2:20">
-      <c r="B92" s="221"/>
-      <c r="C92" s="229" t="s">
+      <c r="B92" s="217"/>
+      <c r="C92" s="243" t="s">
         <v>2191</v>
       </c>
       <c r="D92" s="103" t="s">
@@ -29081,14 +29092,14 @@
         <v>2194</v>
       </c>
       <c r="P92" s="92"/>
-      <c r="Q92" s="233"/>
-      <c r="R92" s="231"/>
-      <c r="S92" s="231"/>
-      <c r="T92" s="231"/>
+      <c r="Q92" s="226"/>
+      <c r="R92" s="227"/>
+      <c r="S92" s="227"/>
+      <c r="T92" s="227"/>
     </row>
     <row r="93" spans="2:20">
-      <c r="B93" s="221"/>
-      <c r="C93" s="229"/>
+      <c r="B93" s="217"/>
+      <c r="C93" s="243"/>
       <c r="D93" s="103" t="s">
         <v>743</v>
       </c>
@@ -29102,20 +29113,20 @@
       <c r="J93" s="89"/>
       <c r="K93" s="89"/>
       <c r="L93" s="89"/>
-      <c r="M93" s="240"/>
-      <c r="N93" s="241"/>
-      <c r="O93" s="242"/>
+      <c r="M93" s="223"/>
+      <c r="N93" s="224"/>
+      <c r="O93" s="225"/>
       <c r="P93" s="92" t="s">
         <v>2195</v>
       </c>
-      <c r="Q93" s="233"/>
-      <c r="R93" s="231"/>
-      <c r="S93" s="231"/>
-      <c r="T93" s="231"/>
+      <c r="Q93" s="226"/>
+      <c r="R93" s="227"/>
+      <c r="S93" s="227"/>
+      <c r="T93" s="227"/>
     </row>
     <row r="94" spans="2:20">
-      <c r="B94" s="221"/>
-      <c r="C94" s="229" t="s">
+      <c r="B94" s="217"/>
+      <c r="C94" s="243" t="s">
         <v>721</v>
       </c>
       <c r="D94" s="103" t="s">
@@ -29141,22 +29152,22 @@
         <v>2198</v>
       </c>
       <c r="P94" s="95"/>
-      <c r="Q94" s="216" t="s">
+      <c r="Q94" s="247" t="s">
         <v>2199</v>
       </c>
-      <c r="R94" s="219" t="s">
+      <c r="R94" s="250" t="s">
         <v>2200</v>
       </c>
-      <c r="S94" s="219" t="s">
+      <c r="S94" s="250" t="s">
         <v>2201</v>
       </c>
-      <c r="T94" s="219" t="s">
+      <c r="T94" s="250" t="s">
         <v>2202</v>
       </c>
     </row>
     <row r="95" spans="2:20">
-      <c r="B95" s="221"/>
-      <c r="C95" s="229"/>
+      <c r="B95" s="217"/>
+      <c r="C95" s="243"/>
       <c r="D95" s="103" t="s">
         <v>743</v>
       </c>
@@ -29170,20 +29181,20 @@
       <c r="J95" s="89"/>
       <c r="K95" s="89"/>
       <c r="L95" s="89"/>
-      <c r="M95" s="240"/>
-      <c r="N95" s="241"/>
-      <c r="O95" s="242"/>
+      <c r="M95" s="223"/>
+      <c r="N95" s="224"/>
+      <c r="O95" s="225"/>
       <c r="P95" s="95" t="s">
         <v>2203</v>
       </c>
-      <c r="Q95" s="217"/>
-      <c r="R95" s="219"/>
-      <c r="S95" s="219"/>
-      <c r="T95" s="219"/>
+      <c r="Q95" s="248"/>
+      <c r="R95" s="250"/>
+      <c r="S95" s="250"/>
+      <c r="T95" s="250"/>
     </row>
     <row r="96" spans="2:20">
-      <c r="B96" s="221"/>
-      <c r="C96" s="229" t="s">
+      <c r="B96" s="217"/>
+      <c r="C96" s="243" t="s">
         <v>713</v>
       </c>
       <c r="D96" s="103" t="s">
@@ -29209,14 +29220,14 @@
         <v>2206</v>
       </c>
       <c r="P96" s="95"/>
-      <c r="Q96" s="217"/>
-      <c r="R96" s="219"/>
-      <c r="S96" s="219"/>
-      <c r="T96" s="219"/>
+      <c r="Q96" s="248"/>
+      <c r="R96" s="250"/>
+      <c r="S96" s="250"/>
+      <c r="T96" s="250"/>
     </row>
     <row r="97" spans="2:20">
-      <c r="B97" s="221"/>
-      <c r="C97" s="229"/>
+      <c r="B97" s="217"/>
+      <c r="C97" s="243"/>
       <c r="D97" s="103" t="s">
         <v>743</v>
       </c>
@@ -29230,20 +29241,20 @@
       <c r="J97" s="89"/>
       <c r="K97" s="89"/>
       <c r="L97" s="89"/>
-      <c r="M97" s="240"/>
-      <c r="N97" s="241"/>
-      <c r="O97" s="242"/>
+      <c r="M97" s="223"/>
+      <c r="N97" s="224"/>
+      <c r="O97" s="225"/>
       <c r="P97" s="95" t="s">
         <v>2207</v>
       </c>
-      <c r="Q97" s="217"/>
-      <c r="R97" s="219"/>
-      <c r="S97" s="219"/>
-      <c r="T97" s="219"/>
+      <c r="Q97" s="248"/>
+      <c r="R97" s="250"/>
+      <c r="S97" s="250"/>
+      <c r="T97" s="250"/>
     </row>
     <row r="98" spans="2:20">
-      <c r="B98" s="221"/>
-      <c r="C98" s="229" t="s">
+      <c r="B98" s="217"/>
+      <c r="C98" s="243" t="s">
         <v>717</v>
       </c>
       <c r="D98" s="103" t="s">
@@ -29269,14 +29280,14 @@
         <v>2211</v>
       </c>
       <c r="P98" s="95"/>
-      <c r="Q98" s="217"/>
-      <c r="R98" s="219"/>
-      <c r="S98" s="219"/>
-      <c r="T98" s="219"/>
+      <c r="Q98" s="248"/>
+      <c r="R98" s="250"/>
+      <c r="S98" s="250"/>
+      <c r="T98" s="250"/>
     </row>
     <row r="99" spans="2:20">
-      <c r="B99" s="222"/>
-      <c r="C99" s="229"/>
+      <c r="B99" s="218"/>
+      <c r="C99" s="243"/>
       <c r="D99" s="103" t="s">
         <v>743</v>
       </c>
@@ -29290,111 +29301,112 @@
       </c>
       <c r="K99" s="89"/>
       <c r="L99" s="89"/>
-      <c r="M99" s="240"/>
-      <c r="N99" s="241"/>
-      <c r="O99" s="242"/>
+      <c r="M99" s="223"/>
+      <c r="N99" s="224"/>
+      <c r="O99" s="225"/>
       <c r="P99" s="95" t="s">
         <v>2213</v>
       </c>
-      <c r="Q99" s="218"/>
-      <c r="R99" s="219"/>
-      <c r="S99" s="219"/>
-      <c r="T99" s="219"/>
+      <c r="Q99" s="249"/>
+      <c r="R99" s="250"/>
+      <c r="S99" s="250"/>
+      <c r="T99" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="209">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="Q6:Q9"/>
-    <mergeCell ref="R6:R9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="S6:S9"/>
-    <mergeCell ref="T6:T9"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="R10:R11"/>
-    <mergeCell ref="S10:S11"/>
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="P17:P18"/>
-    <mergeCell ref="Q17:Q18"/>
-    <mergeCell ref="R17:R18"/>
-    <mergeCell ref="S17:S18"/>
-    <mergeCell ref="T17:T18"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="P12:P14"/>
-    <mergeCell ref="Q12:Q14"/>
-    <mergeCell ref="R12:R14"/>
-    <mergeCell ref="S12:S14"/>
-    <mergeCell ref="T12:T14"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="T19:T20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="P22:P24"/>
-    <mergeCell ref="Q22:Q24"/>
-    <mergeCell ref="R22:R24"/>
-    <mergeCell ref="S22:S24"/>
-    <mergeCell ref="T22:T24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="P25:P27"/>
-    <mergeCell ref="Q25:Q27"/>
-    <mergeCell ref="R25:R27"/>
-    <mergeCell ref="S25:S27"/>
-    <mergeCell ref="T25:T27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M43:O43"/>
-    <mergeCell ref="S32:S33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="S34:S37"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="Q28:Q33"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="S28:S31"/>
-    <mergeCell ref="T28:T33"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="R32:R33"/>
-    <mergeCell ref="Q38:Q42"/>
-    <mergeCell ref="R38:R42"/>
-    <mergeCell ref="S38:S42"/>
-    <mergeCell ref="T38:T42"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="Q51:Q54"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="S51:S54"/>
-    <mergeCell ref="T51:T54"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="M55:O55"/>
-    <mergeCell ref="M47:O47"/>
-    <mergeCell ref="Q47:Q50"/>
-    <mergeCell ref="R47:R50"/>
-    <mergeCell ref="S47:S50"/>
+    <mergeCell ref="T67:T72"/>
+    <mergeCell ref="Q94:Q99"/>
+    <mergeCell ref="R94:R99"/>
+    <mergeCell ref="S94:S99"/>
+    <mergeCell ref="T94:T99"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="Q62:Q66"/>
+    <mergeCell ref="R62:R66"/>
+    <mergeCell ref="S62:S66"/>
+    <mergeCell ref="Q67:Q72"/>
+    <mergeCell ref="R67:R72"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="T88:T93"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="S84:S87"/>
+    <mergeCell ref="T84:T87"/>
+    <mergeCell ref="Q88:Q93"/>
+    <mergeCell ref="R88:R93"/>
+    <mergeCell ref="S88:S93"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="B28:B43"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="M99:O99"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="M89:O89"/>
+    <mergeCell ref="M91:O91"/>
+    <mergeCell ref="M93:O93"/>
+    <mergeCell ref="M95:O95"/>
+    <mergeCell ref="M97:O97"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="M87:O87"/>
+    <mergeCell ref="M68:O68"/>
+    <mergeCell ref="M70:O70"/>
+    <mergeCell ref="M72:O72"/>
+    <mergeCell ref="M64:O64"/>
+    <mergeCell ref="M66:O66"/>
+    <mergeCell ref="M49:O49"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="R82:R83"/>
+    <mergeCell ref="S82:S83"/>
+    <mergeCell ref="T82:T83"/>
+    <mergeCell ref="M83:O83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="P79:P81"/>
+    <mergeCell ref="Q79:Q81"/>
+    <mergeCell ref="R79:R81"/>
+    <mergeCell ref="S79:S81"/>
+    <mergeCell ref="T79:T81"/>
+    <mergeCell ref="S73:S74"/>
+    <mergeCell ref="T73:T74"/>
+    <mergeCell ref="M74:O74"/>
+    <mergeCell ref="Q75:Q78"/>
+    <mergeCell ref="R75:R78"/>
+    <mergeCell ref="S75:S78"/>
+    <mergeCell ref="T75:T78"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="M78:O78"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="R73:R74"/>
     <mergeCell ref="T62:T66"/>
     <mergeCell ref="S67:S72"/>
     <mergeCell ref="B60:B61"/>
@@ -29419,99 +29431,98 @@
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="T47:T50"/>
-    <mergeCell ref="S73:S74"/>
-    <mergeCell ref="T73:T74"/>
-    <mergeCell ref="M74:O74"/>
-    <mergeCell ref="Q75:Q78"/>
-    <mergeCell ref="R75:R78"/>
-    <mergeCell ref="S75:S78"/>
-    <mergeCell ref="T75:T78"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="M78:O78"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="R73:R74"/>
-    <mergeCell ref="R82:R83"/>
-    <mergeCell ref="S82:S83"/>
-    <mergeCell ref="T82:T83"/>
-    <mergeCell ref="M83:O83"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="P79:P81"/>
-    <mergeCell ref="Q79:Q81"/>
-    <mergeCell ref="R79:R81"/>
-    <mergeCell ref="S79:S81"/>
-    <mergeCell ref="T79:T81"/>
-    <mergeCell ref="M99:O99"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="M89:O89"/>
-    <mergeCell ref="M91:O91"/>
-    <mergeCell ref="M93:O93"/>
-    <mergeCell ref="M95:O95"/>
-    <mergeCell ref="M97:O97"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="M87:O87"/>
-    <mergeCell ref="M68:O68"/>
-    <mergeCell ref="M70:O70"/>
-    <mergeCell ref="M72:O72"/>
-    <mergeCell ref="M64:O64"/>
-    <mergeCell ref="M66:O66"/>
-    <mergeCell ref="M49:O49"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="B28:B43"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="T67:T72"/>
-    <mergeCell ref="Q94:Q99"/>
-    <mergeCell ref="R94:R99"/>
-    <mergeCell ref="S94:S99"/>
-    <mergeCell ref="T94:T99"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="Q62:Q66"/>
-    <mergeCell ref="R62:R66"/>
-    <mergeCell ref="S62:S66"/>
-    <mergeCell ref="Q67:Q72"/>
-    <mergeCell ref="R67:R72"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="C94:C95"/>
-    <mergeCell ref="C96:C97"/>
-    <mergeCell ref="T88:T93"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="S84:S87"/>
-    <mergeCell ref="T84:T87"/>
-    <mergeCell ref="Q88:Q93"/>
-    <mergeCell ref="R88:R93"/>
-    <mergeCell ref="S88:S93"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="Q82:Q83"/>
+    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="R51:R54"/>
+    <mergeCell ref="S51:S54"/>
+    <mergeCell ref="T51:T54"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="M55:O55"/>
+    <mergeCell ref="M47:O47"/>
+    <mergeCell ref="Q47:Q50"/>
+    <mergeCell ref="R47:R50"/>
+    <mergeCell ref="S47:S50"/>
+    <mergeCell ref="M43:O43"/>
+    <mergeCell ref="S32:S33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="S34:S37"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="Q28:Q33"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="S28:S31"/>
+    <mergeCell ref="T28:T33"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="R32:R33"/>
+    <mergeCell ref="Q38:Q42"/>
+    <mergeCell ref="R38:R42"/>
+    <mergeCell ref="S38:S42"/>
+    <mergeCell ref="T38:T42"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="T19:T20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="P22:P24"/>
+    <mergeCell ref="Q22:Q24"/>
+    <mergeCell ref="R22:R24"/>
+    <mergeCell ref="S22:S24"/>
+    <mergeCell ref="T22:T24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="P25:P27"/>
+    <mergeCell ref="Q25:Q27"/>
+    <mergeCell ref="R25:R27"/>
+    <mergeCell ref="S25:S27"/>
+    <mergeCell ref="T25:T27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="R10:R11"/>
+    <mergeCell ref="S10:S11"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="P17:P18"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="R17:R18"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="T17:T18"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="P12:P14"/>
+    <mergeCell ref="Q12:Q14"/>
+    <mergeCell ref="R12:R14"/>
+    <mergeCell ref="S12:S14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="Q6:Q9"/>
+    <mergeCell ref="R6:R9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="T6:T9"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M9:O9"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -29576,30 +29587,30 @@
   <sheetData>
     <row r="2" spans="2:9" ht="9.9499999999999993" customHeight="1"/>
     <row r="3" spans="2:9" s="22" customFormat="1" ht="25.5">
-      <c r="B3" s="280" t="s">
+      <c r="B3" s="296" t="s">
         <v>2214</v>
       </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="257" t="s">
+      <c r="C3" s="296"/>
+      <c r="D3" s="290" t="s">
         <v>2215</v>
       </c>
-      <c r="E3" s="257"/>
-      <c r="F3" s="257"/>
-      <c r="G3" s="257"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="257"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
     </row>
     <row r="4" spans="2:9" ht="23.1" customHeight="1">
-      <c r="B4" s="278" t="s">
+      <c r="B4" s="294" t="s">
         <v>2216</v>
       </c>
-      <c r="C4" s="278" t="s">
+      <c r="C4" s="294" t="s">
         <v>2217</v>
       </c>
-      <c r="D4" s="293" t="s">
+      <c r="D4" s="257" t="s">
         <v>2218</v>
       </c>
-      <c r="E4" s="293"/>
+      <c r="E4" s="257"/>
       <c r="F4" s="23" t="s">
         <v>37</v>
       </c>
@@ -29614,10 +29625,10 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="23.1" customHeight="1">
-      <c r="B5" s="279"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="294"/>
-      <c r="E5" s="294"/>
+      <c r="B5" s="295"/>
+      <c r="C5" s="295"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
       <c r="F5" s="24" t="s">
         <v>2219</v>
       </c>
@@ -29632,16 +29643,16 @@
       </c>
     </row>
     <row r="6" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B6" s="261" t="s">
+      <c r="B6" s="273" t="s">
         <v>2223</v>
       </c>
-      <c r="C6" s="273" t="s">
+      <c r="C6" s="266" t="s">
         <v>2224</v>
       </c>
-      <c r="D6" s="264" t="s">
+      <c r="D6" s="259" t="s">
         <v>2225</v>
       </c>
-      <c r="E6" s="277"/>
+      <c r="E6" s="260"/>
       <c r="F6" s="19" t="s">
         <v>35</v>
       </c>
@@ -29656,10 +29667,10 @@
       </c>
     </row>
     <row r="7" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B7" s="263"/>
-      <c r="C7" s="274"/>
-      <c r="D7" s="266"/>
-      <c r="E7" s="267"/>
+      <c r="B7" s="275"/>
+      <c r="C7" s="267"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="262"/>
       <c r="F7" s="25" t="s">
         <v>2226</v>
       </c>
@@ -29674,16 +29685,16 @@
       </c>
     </row>
     <row r="8" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B8" s="261" t="s">
+      <c r="B8" s="273" t="s">
         <v>2230</v>
       </c>
-      <c r="C8" s="273" t="s">
+      <c r="C8" s="266" t="s">
         <v>2231</v>
       </c>
-      <c r="D8" s="264" t="s">
+      <c r="D8" s="259" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="277"/>
+      <c r="E8" s="260"/>
       <c r="F8" s="19"/>
       <c r="G8" s="19"/>
       <c r="H8" s="19" t="s">
@@ -29692,10 +29703,10 @@
       <c r="I8" s="19"/>
     </row>
     <row r="9" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B9" s="262"/>
-      <c r="C9" s="274"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="267"/>
+      <c r="B9" s="274"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="261"/>
+      <c r="E9" s="262"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25" t="s">
@@ -29704,14 +29715,14 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B10" s="262"/>
-      <c r="C10" s="273" t="s">
+      <c r="B10" s="274"/>
+      <c r="C10" s="266" t="s">
         <v>2224</v>
       </c>
-      <c r="D10" s="268" t="s">
+      <c r="D10" s="270" t="s">
         <v>2233</v>
       </c>
-      <c r="E10" s="281" t="s">
+      <c r="E10" s="268" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="19" t="s">
@@ -29728,10 +29739,10 @@
       </c>
     </row>
     <row r="11" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B11" s="263"/>
-      <c r="C11" s="274"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="283"/>
+      <c r="B11" s="275"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="271"/>
+      <c r="E11" s="269"/>
       <c r="F11" s="25" t="s">
         <v>2234</v>
       </c>
@@ -29746,14 +29757,14 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B12" s="275" t="s">
+      <c r="B12" s="281" t="s">
         <v>2238</v>
       </c>
-      <c r="C12" s="273" t="s">
+      <c r="C12" s="266" t="s">
         <v>2224</v>
       </c>
-      <c r="D12" s="269"/>
-      <c r="E12" s="281" t="s">
+      <c r="D12" s="271"/>
+      <c r="E12" s="268" t="s">
         <v>66</v>
       </c>
       <c r="F12" s="19" t="s">
@@ -29770,10 +29781,10 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B13" s="276"/>
-      <c r="C13" s="274"/>
-      <c r="D13" s="296"/>
-      <c r="E13" s="283"/>
+      <c r="B13" s="283"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="272"/>
+      <c r="E13" s="269"/>
       <c r="F13" s="20" t="s">
         <v>2240</v>
       </c>
@@ -29788,16 +29799,16 @@
       </c>
     </row>
     <row r="14" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B14" s="261" t="s">
+      <c r="B14" s="273" t="s">
         <v>2230</v>
       </c>
-      <c r="C14" s="273" t="s">
+      <c r="C14" s="266" t="s">
         <v>2244</v>
       </c>
-      <c r="D14" s="268" t="s">
+      <c r="D14" s="270" t="s">
         <v>2245</v>
       </c>
-      <c r="E14" s="281" t="s">
+      <c r="E14" s="268" t="s">
         <v>79</v>
       </c>
       <c r="F14" s="19" t="s">
@@ -29812,10 +29823,10 @@
       <c r="I14" s="19"/>
     </row>
     <row r="15" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B15" s="262"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="269"/>
-      <c r="E15" s="282"/>
+      <c r="B15" s="274"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="271"/>
+      <c r="E15" s="278"/>
       <c r="F15" s="25" t="s">
         <v>2246</v>
       </c>
@@ -29828,12 +29839,12 @@
       <c r="I15" s="20"/>
     </row>
     <row r="16" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B16" s="262"/>
-      <c r="C16" s="273" t="s">
+      <c r="B16" s="274"/>
+      <c r="C16" s="266" t="s">
         <v>2249</v>
       </c>
-      <c r="D16" s="269"/>
-      <c r="E16" s="282"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="278"/>
       <c r="F16" s="19" t="s">
         <v>90</v>
       </c>
@@ -29844,10 +29855,10 @@
       <c r="I16" s="19"/>
     </row>
     <row r="17" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B17" s="263"/>
-      <c r="C17" s="274"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="283"/>
+      <c r="B17" s="275"/>
+      <c r="C17" s="267"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="269"/>
       <c r="F17" s="25" t="s">
         <v>2250</v>
       </c>
@@ -29858,14 +29869,14 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B18" s="275" t="s">
+      <c r="B18" s="281" t="s">
         <v>2252</v>
       </c>
-      <c r="C18" s="273" t="s">
+      <c r="C18" s="266" t="s">
         <v>2244</v>
       </c>
-      <c r="D18" s="269"/>
-      <c r="E18" s="284" t="s">
+      <c r="D18" s="271"/>
+      <c r="E18" s="279" t="s">
         <v>2253</v>
       </c>
       <c r="F18" s="19" t="s">
@@ -29880,10 +29891,10 @@
       <c r="I18" s="19"/>
     </row>
     <row r="19" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B19" s="286"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="269"/>
-      <c r="E19" s="285"/>
+      <c r="B19" s="282"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="271"/>
+      <c r="E19" s="280"/>
       <c r="F19" s="25" t="s">
         <v>2254</v>
       </c>
@@ -29896,12 +29907,12 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B20" s="286"/>
-      <c r="C20" s="273" t="s">
+      <c r="B20" s="282"/>
+      <c r="C20" s="266" t="s">
         <v>2249</v>
       </c>
-      <c r="D20" s="269"/>
-      <c r="E20" s="285"/>
+      <c r="D20" s="271"/>
+      <c r="E20" s="280"/>
       <c r="F20" s="19" t="s">
         <v>106</v>
       </c>
@@ -29910,13 +29921,13 @@
       <c r="I20" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="J20" s="295"/>
+      <c r="J20" s="263"/>
     </row>
     <row r="21" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B21" s="276"/>
-      <c r="C21" s="274"/>
-      <c r="D21" s="269"/>
-      <c r="E21" s="285"/>
+      <c r="B21" s="283"/>
+      <c r="C21" s="267"/>
+      <c r="D21" s="271"/>
+      <c r="E21" s="280"/>
       <c r="F21" s="25" t="s">
         <v>2257</v>
       </c>
@@ -29925,17 +29936,17 @@
       <c r="I21" s="25" t="s">
         <v>2258</v>
       </c>
-      <c r="J21" s="295"/>
+      <c r="J21" s="263"/>
     </row>
     <row r="22" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B22" s="261" t="s">
+      <c r="B22" s="273" t="s">
         <v>2259</v>
       </c>
-      <c r="C22" s="291" t="s">
+      <c r="C22" s="264" t="s">
         <v>2244</v>
       </c>
-      <c r="D22" s="270"/>
-      <c r="E22" s="258" t="s">
+      <c r="D22" s="276"/>
+      <c r="E22" s="291" t="s">
         <v>2260</v>
       </c>
       <c r="F22" s="26" t="s">
@@ -29950,10 +29961,10 @@
       <c r="I22" s="19"/>
     </row>
     <row r="23" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B23" s="262"/>
-      <c r="C23" s="292"/>
-      <c r="D23" s="270"/>
-      <c r="E23" s="259"/>
+      <c r="B23" s="274"/>
+      <c r="C23" s="265"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="292"/>
       <c r="F23" s="27" t="s">
         <v>2261</v>
       </c>
@@ -29966,12 +29977,12 @@
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B24" s="262"/>
-      <c r="C24" s="291" t="s">
+      <c r="B24" s="274"/>
+      <c r="C24" s="264" t="s">
         <v>2249</v>
       </c>
-      <c r="D24" s="270"/>
-      <c r="E24" s="259"/>
+      <c r="D24" s="276"/>
+      <c r="E24" s="292"/>
       <c r="F24" s="26" t="s">
         <v>119</v>
       </c>
@@ -29982,10 +29993,10 @@
       <c r="I24" s="19"/>
     </row>
     <row r="25" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B25" s="262"/>
-      <c r="C25" s="292"/>
-      <c r="D25" s="266"/>
-      <c r="E25" s="260"/>
+      <c r="B25" s="274"/>
+      <c r="C25" s="265"/>
+      <c r="D25" s="261"/>
+      <c r="E25" s="293"/>
       <c r="F25" s="27" t="s">
         <v>2264</v>
       </c>
@@ -29996,14 +30007,14 @@
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B26" s="262"/>
-      <c r="C26" s="271" t="s">
+      <c r="B26" s="274"/>
+      <c r="C26" s="284" t="s">
         <v>2266</v>
       </c>
-      <c r="D26" s="264" t="s">
+      <c r="D26" s="259" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="265"/>
+      <c r="E26" s="277"/>
       <c r="F26" s="21"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
@@ -30012,10 +30023,10 @@
       </c>
     </row>
     <row r="27" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B27" s="263"/>
-      <c r="C27" s="272"/>
-      <c r="D27" s="266"/>
-      <c r="E27" s="267"/>
+      <c r="B27" s="275"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="262"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
@@ -30024,16 +30035,16 @@
       </c>
     </row>
     <row r="28" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B28" s="261" t="s">
+      <c r="B28" s="273" t="s">
         <v>2268</v>
       </c>
-      <c r="C28" s="273" t="s">
+      <c r="C28" s="266" t="s">
         <v>2224</v>
       </c>
-      <c r="D28" s="264" t="s">
+      <c r="D28" s="259" t="s">
         <v>123</v>
       </c>
-      <c r="E28" s="277"/>
+      <c r="E28" s="260"/>
       <c r="F28" s="19" t="s">
         <v>124</v>
       </c>
@@ -30048,10 +30059,10 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B29" s="262"/>
-      <c r="C29" s="274"/>
-      <c r="D29" s="266"/>
-      <c r="E29" s="267"/>
+      <c r="B29" s="274"/>
+      <c r="C29" s="267"/>
+      <c r="D29" s="261"/>
+      <c r="E29" s="262"/>
       <c r="F29" s="25" t="s">
         <v>2270</v>
       </c>
@@ -30066,14 +30077,14 @@
       </c>
     </row>
     <row r="30" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B30" s="262"/>
-      <c r="C30" s="273" t="s">
+      <c r="B30" s="274"/>
+      <c r="C30" s="266" t="s">
         <v>2274</v>
       </c>
-      <c r="D30" s="264" t="s">
+      <c r="D30" s="259" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="277"/>
+      <c r="E30" s="260"/>
       <c r="F30" s="19" t="s">
         <v>139</v>
       </c>
@@ -30086,10 +30097,10 @@
       </c>
     </row>
     <row r="31" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B31" s="263"/>
-      <c r="C31" s="274"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="265"/>
+      <c r="B31" s="275"/>
+      <c r="C31" s="267"/>
+      <c r="D31" s="276"/>
+      <c r="E31" s="277"/>
       <c r="F31" s="25" t="s">
         <v>2275</v>
       </c>
@@ -30102,14 +30113,14 @@
       </c>
     </row>
     <row r="32" spans="2:10" ht="27.95" customHeight="1">
-      <c r="B32" s="261" t="s">
+      <c r="B32" s="273" t="s">
         <v>2277</v>
       </c>
-      <c r="C32" s="271" t="s">
+      <c r="C32" s="284" t="s">
         <v>2278</v>
       </c>
-      <c r="D32" s="270"/>
-      <c r="E32" s="265"/>
+      <c r="D32" s="276"/>
+      <c r="E32" s="277"/>
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
@@ -30118,10 +30129,10 @@
       </c>
     </row>
     <row r="33" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B33" s="263"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="265"/>
+      <c r="B33" s="275"/>
+      <c r="C33" s="285"/>
+      <c r="D33" s="276"/>
+      <c r="E33" s="277"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -30130,14 +30141,14 @@
       </c>
     </row>
     <row r="34" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B34" s="261" t="s">
+      <c r="B34" s="273" t="s">
         <v>2280</v>
       </c>
-      <c r="C34" s="271" t="s">
+      <c r="C34" s="284" t="s">
         <v>2281</v>
       </c>
-      <c r="D34" s="270"/>
-      <c r="E34" s="265"/>
+      <c r="D34" s="276"/>
+      <c r="E34" s="277"/>
       <c r="F34" s="19" t="s">
         <v>146</v>
       </c>
@@ -30146,10 +30157,10 @@
       <c r="I34" s="19"/>
     </row>
     <row r="35" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B35" s="262"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="265"/>
+      <c r="B35" s="274"/>
+      <c r="C35" s="285"/>
+      <c r="D35" s="276"/>
+      <c r="E35" s="277"/>
       <c r="F35" s="25" t="s">
         <v>2282</v>
       </c>
@@ -30158,12 +30169,12 @@
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B36" s="262"/>
-      <c r="C36" s="271" t="s">
+      <c r="B36" s="274"/>
+      <c r="C36" s="284" t="s">
         <v>2283</v>
       </c>
-      <c r="D36" s="270"/>
-      <c r="E36" s="265"/>
+      <c r="D36" s="276"/>
+      <c r="E36" s="277"/>
       <c r="F36" s="19" t="s">
         <v>139</v>
       </c>
@@ -30176,10 +30187,10 @@
       </c>
     </row>
     <row r="37" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B37" s="263"/>
-      <c r="C37" s="272"/>
-      <c r="D37" s="270"/>
-      <c r="E37" s="265"/>
+      <c r="B37" s="275"/>
+      <c r="C37" s="285"/>
+      <c r="D37" s="276"/>
+      <c r="E37" s="277"/>
       <c r="F37" s="25" t="s">
         <v>2284</v>
       </c>
@@ -30192,12 +30203,12 @@
       </c>
     </row>
     <row r="38" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B38" s="287" t="s">
+      <c r="B38" s="286" t="s">
         <v>2286</v>
       </c>
-      <c r="C38" s="288"/>
-      <c r="D38" s="270"/>
-      <c r="E38" s="265"/>
+      <c r="C38" s="287"/>
+      <c r="D38" s="276"/>
+      <c r="E38" s="277"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
@@ -30206,10 +30217,10 @@
       </c>
     </row>
     <row r="39" spans="2:9" ht="27.95" customHeight="1">
-      <c r="B39" s="289"/>
-      <c r="C39" s="290"/>
-      <c r="D39" s="266"/>
-      <c r="E39" s="267"/>
+      <c r="B39" s="288"/>
+      <c r="C39" s="289"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="262"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
@@ -30219,18 +30230,22 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="D4:E5"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="D26:E27"/>
+    <mergeCell ref="D14:D25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="B3:C3"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="D28:E29"/>
     <mergeCell ref="D30:E39"/>
@@ -30247,22 +30262,18 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="B22:B27"/>
-    <mergeCell ref="D26:E27"/>
-    <mergeCell ref="D14:D25"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D4:E5"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D10:D13"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
@@ -30376,20 +30387,20 @@
   <sheetData>
     <row r="1" spans="2:7" ht="10.5" customHeight="1"/>
     <row r="2" spans="2:7" s="8" customFormat="1">
-      <c r="B2" s="297" t="s">
+      <c r="B2" s="304" t="s">
         <v>2288</v>
       </c>
-      <c r="C2" s="298"/>
-      <c r="D2" s="306" t="s">
+      <c r="C2" s="305"/>
+      <c r="D2" s="301" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="308"/>
+      <c r="E2" s="302"/>
+      <c r="F2" s="302"/>
+      <c r="G2" s="303"/>
     </row>
     <row r="3" spans="2:7" s="8" customFormat="1">
-      <c r="B3" s="299"/>
-      <c r="C3" s="300"/>
+      <c r="B3" s="306"/>
+      <c r="C3" s="307"/>
       <c r="D3" s="9" t="s">
         <v>37</v>
       </c>
@@ -30404,10 +30415,10 @@
       </c>
     </row>
     <row r="4" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B4" s="297" t="s">
+      <c r="B4" s="304" t="s">
         <v>2225</v>
       </c>
-      <c r="C4" s="298"/>
+      <c r="C4" s="305"/>
       <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
@@ -30422,8 +30433,8 @@
       </c>
     </row>
     <row r="5" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B5" s="299"/>
-      <c r="C5" s="300"/>
+      <c r="B5" s="306"/>
+      <c r="C5" s="307"/>
       <c r="D5" s="5" t="s">
         <v>2226</v>
       </c>
@@ -30438,10 +30449,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B6" s="303" t="s">
+      <c r="B6" s="299" t="s">
         <v>2233</v>
       </c>
-      <c r="C6" s="303" t="s">
+      <c r="C6" s="299" t="s">
         <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -30458,8 +30469,8 @@
       </c>
     </row>
     <row r="7" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B7" s="304"/>
-      <c r="C7" s="305"/>
+      <c r="B7" s="308"/>
+      <c r="C7" s="300"/>
       <c r="D7" s="5" t="s">
         <v>2234</v>
       </c>
@@ -30474,8 +30485,8 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B8" s="304"/>
-      <c r="C8" s="303" t="s">
+      <c r="B8" s="308"/>
+      <c r="C8" s="299" t="s">
         <v>66</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -30492,8 +30503,8 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B9" s="305"/>
-      <c r="C9" s="305"/>
+      <c r="B9" s="300"/>
+      <c r="C9" s="300"/>
       <c r="D9" s="5" t="s">
         <v>2291</v>
       </c>
@@ -30508,10 +30519,10 @@
       </c>
     </row>
     <row r="10" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B10" s="303" t="s">
+      <c r="B10" s="299" t="s">
         <v>2295</v>
       </c>
-      <c r="C10" s="303" t="s">
+      <c r="C10" s="299" t="s">
         <v>2296</v>
       </c>
       <c r="D10" s="4" t="s">
@@ -30523,11 +30534,11 @@
       <c r="F10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="309"/>
+      <c r="G10" s="297"/>
     </row>
     <row r="11" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B11" s="304"/>
-      <c r="C11" s="304"/>
+      <c r="B11" s="308"/>
+      <c r="C11" s="308"/>
       <c r="D11" s="5" t="s">
         <v>2297</v>
       </c>
@@ -30537,35 +30548,35 @@
       <c r="F11" s="5" t="s">
         <v>2299</v>
       </c>
-      <c r="G11" s="310"/>
+      <c r="G11" s="298"/>
     </row>
     <row r="12" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B12" s="304"/>
-      <c r="C12" s="304"/>
+      <c r="B12" s="308"/>
+      <c r="C12" s="308"/>
       <c r="D12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="309"/>
+      <c r="E12" s="297"/>
       <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="309"/>
+      <c r="G12" s="297"/>
     </row>
     <row r="13" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B13" s="304"/>
-      <c r="C13" s="305"/>
+      <c r="B13" s="308"/>
+      <c r="C13" s="300"/>
       <c r="D13" s="5" t="s">
         <v>2250</v>
       </c>
-      <c r="E13" s="310"/>
+      <c r="E13" s="298"/>
       <c r="F13" s="5" t="s">
         <v>2251</v>
       </c>
-      <c r="G13" s="310"/>
+      <c r="G13" s="298"/>
     </row>
     <row r="14" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B14" s="304"/>
-      <c r="C14" s="303" t="s">
+      <c r="B14" s="308"/>
+      <c r="C14" s="299" t="s">
         <v>2300</v>
       </c>
       <c r="D14" s="4" t="s">
@@ -30577,11 +30588,11 @@
       <c r="F14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="309"/>
+      <c r="G14" s="297"/>
     </row>
     <row r="15" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B15" s="304"/>
-      <c r="C15" s="304"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="308"/>
       <c r="D15" s="5" t="s">
         <v>2301</v>
       </c>
@@ -30591,35 +30602,35 @@
       <c r="F15" s="5" t="s">
         <v>2303</v>
       </c>
-      <c r="G15" s="310"/>
+      <c r="G15" s="298"/>
     </row>
     <row r="16" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B16" s="304"/>
-      <c r="C16" s="304"/>
+      <c r="B16" s="308"/>
+      <c r="C16" s="308"/>
       <c r="D16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E16" s="309"/>
+      <c r="E16" s="297"/>
       <c r="F16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="309"/>
+      <c r="G16" s="297"/>
     </row>
     <row r="17" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B17" s="304"/>
-      <c r="C17" s="305"/>
+      <c r="B17" s="308"/>
+      <c r="C17" s="300"/>
       <c r="D17" s="5" t="s">
         <v>2304</v>
       </c>
-      <c r="E17" s="310"/>
+      <c r="E17" s="298"/>
       <c r="F17" s="5" t="s">
         <v>2305</v>
       </c>
-      <c r="G17" s="310"/>
+      <c r="G17" s="298"/>
     </row>
     <row r="18" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B18" s="304"/>
-      <c r="C18" s="303" t="s">
+      <c r="B18" s="308"/>
+      <c r="C18" s="299" t="s">
         <v>2306</v>
       </c>
       <c r="D18" s="4" t="s">
@@ -30631,11 +30642,11 @@
       <c r="F18" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="309"/>
+      <c r="G18" s="297"/>
     </row>
     <row r="19" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B19" s="304"/>
-      <c r="C19" s="304"/>
+      <c r="B19" s="308"/>
+      <c r="C19" s="308"/>
       <c r="D19" s="5" t="s">
         <v>2307</v>
       </c>
@@ -30645,37 +30656,37 @@
       <c r="F19" s="5" t="s">
         <v>2309</v>
       </c>
-      <c r="G19" s="310"/>
+      <c r="G19" s="298"/>
     </row>
     <row r="20" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B20" s="304"/>
-      <c r="C20" s="304"/>
+      <c r="B20" s="308"/>
+      <c r="C20" s="308"/>
       <c r="D20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="309"/>
+      <c r="E20" s="297"/>
       <c r="F20" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="309"/>
+      <c r="G20" s="297"/>
     </row>
     <row r="21" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B21" s="305"/>
-      <c r="C21" s="305"/>
+      <c r="B21" s="300"/>
+      <c r="C21" s="300"/>
       <c r="D21" s="5" t="s">
         <v>2264</v>
       </c>
-      <c r="E21" s="310"/>
+      <c r="E21" s="298"/>
       <c r="F21" s="5" t="s">
         <v>2265</v>
       </c>
-      <c r="G21" s="310"/>
+      <c r="G21" s="298"/>
     </row>
     <row r="22" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B22" s="297" t="s">
+      <c r="B22" s="304" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="298"/>
+      <c r="C22" s="305"/>
       <c r="D22" s="4" t="s">
         <v>124</v>
       </c>
@@ -30690,8 +30701,8 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B23" s="299"/>
-      <c r="C23" s="300"/>
+      <c r="B23" s="306"/>
+      <c r="C23" s="307"/>
       <c r="D23" s="5" t="s">
         <v>2270</v>
       </c>
@@ -30706,160 +30717,144 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B24" s="297" t="s">
+      <c r="B24" s="304" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="298"/>
+      <c r="C24" s="305"/>
       <c r="D24" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E24" s="309"/>
-      <c r="F24" s="309"/>
-      <c r="G24" s="309"/>
+      <c r="E24" s="297"/>
+      <c r="F24" s="297"/>
+      <c r="G24" s="297"/>
     </row>
     <row r="25" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B25" s="301"/>
-      <c r="C25" s="302"/>
+      <c r="B25" s="309"/>
+      <c r="C25" s="310"/>
       <c r="D25" s="5" t="s">
         <v>2282</v>
       </c>
-      <c r="E25" s="310"/>
-      <c r="F25" s="310"/>
-      <c r="G25" s="310"/>
+      <c r="E25" s="298"/>
+      <c r="F25" s="298"/>
+      <c r="G25" s="298"/>
     </row>
     <row r="26" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B26" s="301"/>
-      <c r="C26" s="302"/>
+      <c r="B26" s="309"/>
+      <c r="C26" s="310"/>
       <c r="D26" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="309"/>
+      <c r="E26" s="297"/>
       <c r="F26" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G26" s="309"/>
+      <c r="G26" s="297"/>
     </row>
     <row r="27" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B27" s="301"/>
-      <c r="C27" s="302"/>
+      <c r="B27" s="309"/>
+      <c r="C27" s="310"/>
       <c r="D27" s="5" t="s">
         <v>2275</v>
       </c>
-      <c r="E27" s="310"/>
+      <c r="E27" s="298"/>
       <c r="F27" s="5" t="s">
         <v>2276</v>
       </c>
-      <c r="G27" s="310"/>
+      <c r="G27" s="298"/>
     </row>
     <row r="28" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B28" s="301"/>
-      <c r="C28" s="302"/>
-      <c r="D28" s="309"/>
-      <c r="E28" s="309"/>
-      <c r="F28" s="309"/>
+      <c r="B28" s="309"/>
+      <c r="C28" s="310"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="297"/>
+      <c r="F28" s="297"/>
       <c r="G28" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B29" s="301"/>
-      <c r="C29" s="302"/>
-      <c r="D29" s="310"/>
-      <c r="E29" s="310"/>
-      <c r="F29" s="310"/>
+      <c r="B29" s="309"/>
+      <c r="C29" s="310"/>
+      <c r="D29" s="298"/>
+      <c r="E29" s="298"/>
+      <c r="F29" s="298"/>
       <c r="G29" s="5" t="s">
         <v>2311</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B30" s="301"/>
-      <c r="C30" s="302"/>
-      <c r="D30" s="309"/>
-      <c r="E30" s="309"/>
-      <c r="F30" s="309"/>
+      <c r="B30" s="309"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="297"/>
+      <c r="E30" s="297"/>
+      <c r="F30" s="297"/>
       <c r="G30" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B31" s="299"/>
-      <c r="C31" s="300"/>
-      <c r="D31" s="310"/>
-      <c r="E31" s="310"/>
-      <c r="F31" s="310"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="307"/>
+      <c r="D31" s="298"/>
+      <c r="E31" s="298"/>
+      <c r="F31" s="298"/>
       <c r="G31" s="5" t="s">
         <v>2312</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B32" s="297" t="s">
+      <c r="B32" s="304" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="298"/>
-      <c r="D32" s="309"/>
+      <c r="C32" s="305"/>
+      <c r="D32" s="297"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="309"/>
+      <c r="F32" s="297"/>
       <c r="G32" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B33" s="299"/>
-      <c r="C33" s="300"/>
-      <c r="D33" s="310"/>
+      <c r="B33" s="306"/>
+      <c r="C33" s="307"/>
+      <c r="D33" s="298"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="310"/>
+      <c r="F33" s="298"/>
       <c r="G33" s="5" t="s">
         <v>2232</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B34" s="297" t="s">
+      <c r="B34" s="304" t="s">
         <v>2313</v>
       </c>
-      <c r="C34" s="298"/>
-      <c r="D34" s="309"/>
+      <c r="C34" s="305"/>
+      <c r="D34" s="297"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="309"/>
+      <c r="F34" s="297"/>
       <c r="G34" s="4" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="21.75" customHeight="1">
-      <c r="B35" s="299"/>
-      <c r="C35" s="300"/>
-      <c r="D35" s="310"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="307"/>
+      <c r="D35" s="298"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="310"/>
+      <c r="F35" s="298"/>
       <c r="G35" s="5" t="s">
         <v>2314</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="B24:C31"/>
+    <mergeCell ref="B32:C33"/>
+    <mergeCell ref="B34:C35"/>
+    <mergeCell ref="B10:B21"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="C18:C21"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="B4:C5"/>
@@ -30868,13 +30863,29 @@
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="B24:C31"/>
-    <mergeCell ref="B32:C33"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="B10:B21"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30911,7 +30922,7 @@
     <row r="3" spans="2:20">
       <c r="B3" s="239"/>
       <c r="C3" s="239"/>
-      <c r="D3" s="319"/>
+      <c r="D3" s="311"/>
       <c r="E3" s="239" t="s">
         <v>173</v>
       </c>
@@ -30944,7 +30955,7 @@
     <row r="4" spans="2:20" s="6" customFormat="1">
       <c r="B4" s="239"/>
       <c r="C4" s="239"/>
-      <c r="D4" s="319"/>
+      <c r="D4" s="311"/>
       <c r="E4" s="16" t="s">
         <v>174</v>
       </c>
@@ -31026,16 +31037,16 @@
         <v>2320</v>
       </c>
       <c r="P5" s="15"/>
-      <c r="Q5" s="311" t="s">
+      <c r="Q5" s="312" t="s">
         <v>2318</v>
       </c>
-      <c r="R5" s="311" t="s">
+      <c r="R5" s="312" t="s">
         <v>2319</v>
       </c>
-      <c r="S5" s="311" t="s">
+      <c r="S5" s="312" t="s">
         <v>2320</v>
       </c>
-      <c r="T5" s="311" t="s">
+      <c r="T5" s="312" t="s">
         <v>2321</v>
       </c>
     </row>
@@ -31094,16 +31105,16 @@
         <v>2323</v>
       </c>
       <c r="P7" s="15"/>
-      <c r="Q7" s="311" t="s">
+      <c r="Q7" s="312" t="s">
         <v>2322</v>
       </c>
-      <c r="R7" s="311" t="s">
+      <c r="R7" s="312" t="s">
         <v>2324</v>
       </c>
-      <c r="S7" s="311" t="s">
+      <c r="S7" s="312" t="s">
         <v>2323</v>
       </c>
-      <c r="T7" s="311" t="s">
+      <c r="T7" s="312" t="s">
         <v>2325</v>
       </c>
     </row>
@@ -31129,10 +31140,10 @@
       <c r="P8" s="14" t="s">
         <v>2325</v>
       </c>
-      <c r="Q8" s="312"/>
-      <c r="R8" s="312"/>
-      <c r="S8" s="312"/>
-      <c r="T8" s="312"/>
+      <c r="Q8" s="314"/>
+      <c r="R8" s="314"/>
+      <c r="S8" s="314"/>
+      <c r="T8" s="314"/>
     </row>
     <row r="9" spans="2:20" ht="25.5">
       <c r="B9" s="239"/>
@@ -31162,10 +31173,10 @@
         <v>2327</v>
       </c>
       <c r="P9" s="15"/>
-      <c r="Q9" s="312"/>
-      <c r="R9" s="312"/>
-      <c r="S9" s="312"/>
-      <c r="T9" s="312"/>
+      <c r="Q9" s="314"/>
+      <c r="R9" s="314"/>
+      <c r="S9" s="314"/>
+      <c r="T9" s="314"/>
     </row>
     <row r="10" spans="2:20" ht="25.5">
       <c r="B10" s="239"/>
@@ -31224,16 +31235,16 @@
         <v>2332</v>
       </c>
       <c r="P11" s="15"/>
-      <c r="Q11" s="311" t="s">
+      <c r="Q11" s="312" t="s">
         <v>2333</v>
       </c>
-      <c r="R11" s="311" t="s">
+      <c r="R11" s="312" t="s">
         <v>2331</v>
       </c>
-      <c r="S11" s="311" t="s">
+      <c r="S11" s="312" t="s">
         <v>2334</v>
       </c>
-      <c r="T11" s="311" t="s">
+      <c r="T11" s="312" t="s">
         <v>2335</v>
       </c>
     </row>
@@ -31296,16 +31307,16 @@
         <v>2340</v>
       </c>
       <c r="P13" s="15"/>
-      <c r="Q13" s="311" t="s">
+      <c r="Q13" s="312" t="s">
         <v>2341</v>
       </c>
-      <c r="R13" s="311" t="s">
+      <c r="R13" s="312" t="s">
         <v>2339</v>
       </c>
-      <c r="S13" s="311" t="s">
+      <c r="S13" s="312" t="s">
         <v>2342</v>
       </c>
-      <c r="T13" s="311"/>
+      <c r="T13" s="312"/>
     </row>
     <row r="14" spans="2:20" ht="25.5">
       <c r="B14" s="239"/>
@@ -31337,10 +31348,10 @@
         <v>2345</v>
       </c>
       <c r="P14" s="15"/>
-      <c r="Q14" s="312"/>
-      <c r="R14" s="312"/>
-      <c r="S14" s="312"/>
-      <c r="T14" s="312"/>
+      <c r="Q14" s="314"/>
+      <c r="R14" s="314"/>
+      <c r="S14" s="314"/>
+      <c r="T14" s="314"/>
     </row>
     <row r="15" spans="2:20" ht="25.5">
       <c r="B15" s="239"/>
@@ -31485,16 +31496,16 @@
         <v>1943</v>
       </c>
       <c r="P18" s="15"/>
-      <c r="Q18" s="311" t="s">
+      <c r="Q18" s="312" t="s">
         <v>2363</v>
       </c>
-      <c r="R18" s="311" t="s">
+      <c r="R18" s="312" t="s">
         <v>2364</v>
       </c>
-      <c r="S18" s="311" t="s">
+      <c r="S18" s="312" t="s">
         <v>2365</v>
       </c>
-      <c r="T18" s="311"/>
+      <c r="T18" s="312"/>
     </row>
     <row r="19" spans="2:20" ht="25.5">
       <c r="B19" s="239"/>
@@ -31561,16 +31572,16 @@
         <v>1953</v>
       </c>
       <c r="P20" s="15"/>
-      <c r="Q20" s="311" t="s">
+      <c r="Q20" s="312" t="s">
         <v>2368</v>
       </c>
-      <c r="R20" s="311" t="s">
+      <c r="R20" s="312" t="s">
         <v>2369</v>
       </c>
-      <c r="S20" s="311" t="s">
+      <c r="S20" s="312" t="s">
         <v>2370</v>
       </c>
-      <c r="T20" s="311"/>
+      <c r="T20" s="312"/>
     </row>
     <row r="21" spans="2:20" ht="25.5">
       <c r="B21" s="239"/>
@@ -31666,16 +31677,16 @@
         <v>1962</v>
       </c>
       <c r="P23" s="15"/>
-      <c r="Q23" s="311" t="s">
+      <c r="Q23" s="312" t="s">
         <v>2372</v>
       </c>
-      <c r="R23" s="311" t="s">
+      <c r="R23" s="312" t="s">
         <v>2373</v>
       </c>
-      <c r="S23" s="311" t="s">
+      <c r="S23" s="312" t="s">
         <v>1965</v>
       </c>
-      <c r="T23" s="311"/>
+      <c r="T23" s="312"/>
     </row>
     <row r="24" spans="2:20" ht="25.5">
       <c r="B24" s="239"/>
@@ -31709,7 +31720,7 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="313"/>
       <c r="R24" s="313"/>
-      <c r="S24" s="312"/>
+      <c r="S24" s="314"/>
       <c r="T24" s="313"/>
     </row>
     <row r="25" spans="2:20" ht="25.5">
@@ -31771,13 +31782,13 @@
         <v>1973</v>
       </c>
       <c r="P26" s="15"/>
-      <c r="Q26" s="311" t="s">
+      <c r="Q26" s="312" t="s">
         <v>1974</v>
       </c>
-      <c r="R26" s="311" t="s">
+      <c r="R26" s="312" t="s">
         <v>1975</v>
       </c>
-      <c r="S26" s="311" t="s">
+      <c r="S26" s="312" t="s">
         <v>1976</v>
       </c>
       <c r="T26" s="11"/>
@@ -31812,7 +31823,7 @@
       <c r="P27" s="15"/>
       <c r="Q27" s="313"/>
       <c r="R27" s="313"/>
-      <c r="S27" s="312"/>
+      <c r="S27" s="314"/>
       <c r="T27" s="11"/>
     </row>
     <row r="28" spans="2:20" ht="25.5">
@@ -31878,16 +31889,16 @@
         <v>1984</v>
       </c>
       <c r="P29" s="15"/>
-      <c r="Q29" s="311" t="s">
+      <c r="Q29" s="312" t="s">
         <v>2379</v>
       </c>
-      <c r="R29" s="311" t="s">
+      <c r="R29" s="312" t="s">
         <v>1986</v>
       </c>
-      <c r="S29" s="311" t="s">
+      <c r="S29" s="312" t="s">
         <v>1987</v>
       </c>
-      <c r="T29" s="311" t="s">
+      <c r="T29" s="312" t="s">
         <v>2380</v>
       </c>
     </row>
@@ -31915,10 +31926,10 @@
       <c r="P30" s="14" t="s">
         <v>2383</v>
       </c>
-      <c r="Q30" s="312"/>
-      <c r="R30" s="312"/>
-      <c r="S30" s="312"/>
-      <c r="T30" s="312"/>
+      <c r="Q30" s="314"/>
+      <c r="R30" s="314"/>
+      <c r="S30" s="314"/>
+      <c r="T30" s="314"/>
     </row>
     <row r="31" spans="2:20" ht="25.5">
       <c r="B31" s="239"/>
@@ -31948,10 +31959,10 @@
         <v>1992</v>
       </c>
       <c r="P31" s="15"/>
-      <c r="Q31" s="312"/>
-      <c r="R31" s="312"/>
-      <c r="S31" s="312"/>
-      <c r="T31" s="312"/>
+      <c r="Q31" s="314"/>
+      <c r="R31" s="314"/>
+      <c r="S31" s="314"/>
+      <c r="T31" s="314"/>
     </row>
     <row r="32" spans="2:20" ht="25.5">
       <c r="B32" s="239"/>
@@ -31975,10 +31986,10 @@
       <c r="P32" s="14" t="s">
         <v>2384</v>
       </c>
-      <c r="Q32" s="312"/>
+      <c r="Q32" s="314"/>
       <c r="R32" s="313"/>
       <c r="S32" s="313"/>
-      <c r="T32" s="312"/>
+      <c r="T32" s="314"/>
     </row>
     <row r="33" spans="2:20" ht="25.5">
       <c r="B33" s="239"/>
@@ -32004,10 +32015,10 @@
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
-      <c r="Q33" s="312"/>
-      <c r="R33" s="311"/>
-      <c r="S33" s="314"/>
-      <c r="T33" s="312"/>
+      <c r="Q33" s="314"/>
+      <c r="R33" s="312"/>
+      <c r="S33" s="318"/>
+      <c r="T33" s="314"/>
     </row>
     <row r="34" spans="2:20" ht="25.5">
       <c r="B34" s="239"/>
@@ -32033,7 +32044,7 @@
       </c>
       <c r="Q34" s="313"/>
       <c r="R34" s="313"/>
-      <c r="S34" s="315"/>
+      <c r="S34" s="319"/>
       <c r="T34" s="313"/>
     </row>
     <row r="35" spans="2:20" ht="25.5">
@@ -32064,16 +32075,16 @@
         <v>1998</v>
       </c>
       <c r="P35" s="15"/>
-      <c r="Q35" s="311" t="s">
+      <c r="Q35" s="312" t="s">
         <v>1999</v>
       </c>
-      <c r="R35" s="311" t="s">
+      <c r="R35" s="312" t="s">
         <v>2000</v>
       </c>
-      <c r="S35" s="311" t="s">
+      <c r="S35" s="312" t="s">
         <v>2001</v>
       </c>
-      <c r="T35" s="311" t="s">
+      <c r="T35" s="312" t="s">
         <v>2386</v>
       </c>
     </row>
@@ -32099,10 +32110,10 @@
       <c r="P36" s="14" t="s">
         <v>2387</v>
       </c>
-      <c r="Q36" s="312"/>
-      <c r="R36" s="312"/>
-      <c r="S36" s="312"/>
-      <c r="T36" s="312"/>
+      <c r="Q36" s="314"/>
+      <c r="R36" s="314"/>
+      <c r="S36" s="314"/>
+      <c r="T36" s="314"/>
     </row>
     <row r="37" spans="2:20" ht="25.5">
       <c r="B37" s="239"/>
@@ -32132,10 +32143,10 @@
         <v>2006</v>
       </c>
       <c r="P37" s="15"/>
-      <c r="Q37" s="312"/>
-      <c r="R37" s="312"/>
-      <c r="S37" s="312"/>
-      <c r="T37" s="312"/>
+      <c r="Q37" s="314"/>
+      <c r="R37" s="314"/>
+      <c r="S37" s="314"/>
+      <c r="T37" s="314"/>
     </row>
     <row r="38" spans="2:20" ht="25.5">
       <c r="B38" s="239"/>
@@ -32192,16 +32203,16 @@
         <v>2391</v>
       </c>
       <c r="P39" s="15"/>
-      <c r="Q39" s="311" t="s">
+      <c r="Q39" s="312" t="s">
         <v>2011</v>
       </c>
-      <c r="R39" s="311" t="s">
+      <c r="R39" s="312" t="s">
         <v>2012</v>
       </c>
-      <c r="S39" s="311" t="s">
+      <c r="S39" s="312" t="s">
         <v>2013</v>
       </c>
-      <c r="T39" s="311" t="s">
+      <c r="T39" s="312" t="s">
         <v>2392</v>
       </c>
     </row>
@@ -32227,10 +32238,10 @@
       <c r="P40" s="14" t="s">
         <v>2393</v>
       </c>
-      <c r="Q40" s="312"/>
-      <c r="R40" s="312"/>
-      <c r="S40" s="312"/>
-      <c r="T40" s="312"/>
+      <c r="Q40" s="314"/>
+      <c r="R40" s="314"/>
+      <c r="S40" s="314"/>
+      <c r="T40" s="314"/>
     </row>
     <row r="41" spans="2:20" ht="25.5">
       <c r="B41" s="239"/>
@@ -32260,10 +32271,10 @@
         <v>2396</v>
       </c>
       <c r="P41" s="15"/>
-      <c r="Q41" s="312"/>
-      <c r="R41" s="312"/>
-      <c r="S41" s="312"/>
-      <c r="T41" s="312"/>
+      <c r="Q41" s="314"/>
+      <c r="R41" s="314"/>
+      <c r="S41" s="314"/>
+      <c r="T41" s="314"/>
     </row>
     <row r="42" spans="2:20" ht="25.5">
       <c r="B42" s="239"/>
@@ -32285,10 +32296,10 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
       <c r="P42" s="15"/>
-      <c r="Q42" s="312"/>
-      <c r="R42" s="312"/>
-      <c r="S42" s="312"/>
-      <c r="T42" s="312"/>
+      <c r="Q42" s="314"/>
+      <c r="R42" s="314"/>
+      <c r="S42" s="314"/>
+      <c r="T42" s="314"/>
     </row>
     <row r="43" spans="2:20" ht="25.5">
       <c r="B43" s="239"/>
@@ -32320,10 +32331,10 @@
         <v>2399</v>
       </c>
       <c r="P43" s="15"/>
-      <c r="Q43" s="312"/>
-      <c r="R43" s="312"/>
-      <c r="S43" s="312"/>
-      <c r="T43" s="312"/>
+      <c r="Q43" s="314"/>
+      <c r="R43" s="314"/>
+      <c r="S43" s="314"/>
+      <c r="T43" s="314"/>
     </row>
     <row r="44" spans="2:20" ht="25.5">
       <c r="B44" s="239"/>
@@ -32384,16 +32395,16 @@
         <v>2030</v>
       </c>
       <c r="P45" s="15"/>
-      <c r="Q45" s="311" t="s">
+      <c r="Q45" s="312" t="s">
         <v>2024</v>
       </c>
-      <c r="R45" s="311" t="s">
+      <c r="R45" s="312" t="s">
         <v>2025</v>
       </c>
-      <c r="S45" s="311" t="s">
+      <c r="S45" s="312" t="s">
         <v>2026</v>
       </c>
-      <c r="T45" s="311" t="s">
+      <c r="T45" s="312" t="s">
         <v>2402</v>
       </c>
     </row>
@@ -32419,10 +32430,10 @@
       <c r="P46" s="14" t="s">
         <v>2031</v>
       </c>
-      <c r="Q46" s="312"/>
-      <c r="R46" s="312"/>
-      <c r="S46" s="312"/>
-      <c r="T46" s="312"/>
+      <c r="Q46" s="314"/>
+      <c r="R46" s="314"/>
+      <c r="S46" s="314"/>
+      <c r="T46" s="314"/>
     </row>
     <row r="47" spans="2:20" ht="25.5">
       <c r="B47" s="239"/>
@@ -32452,10 +32463,10 @@
         <v>2034</v>
       </c>
       <c r="P47" s="15"/>
-      <c r="Q47" s="312"/>
-      <c r="R47" s="312"/>
-      <c r="S47" s="312"/>
-      <c r="T47" s="312"/>
+      <c r="Q47" s="314"/>
+      <c r="R47" s="314"/>
+      <c r="S47" s="314"/>
+      <c r="T47" s="314"/>
     </row>
     <row r="48" spans="2:20" ht="25.5">
       <c r="B48" s="239"/>
@@ -32514,16 +32525,16 @@
         <v>2403</v>
       </c>
       <c r="P49" s="15"/>
-      <c r="Q49" s="311" t="s">
+      <c r="Q49" s="312" t="s">
         <v>2036</v>
       </c>
-      <c r="R49" s="311" t="s">
+      <c r="R49" s="312" t="s">
         <v>2037</v>
       </c>
-      <c r="S49" s="311" t="s">
+      <c r="S49" s="312" t="s">
         <v>2038</v>
       </c>
-      <c r="T49" s="311" t="s">
+      <c r="T49" s="312" t="s">
         <v>2404</v>
       </c>
     </row>
@@ -32551,10 +32562,10 @@
       <c r="P50" s="14" t="s">
         <v>2043</v>
       </c>
-      <c r="Q50" s="312"/>
-      <c r="R50" s="312"/>
-      <c r="S50" s="312"/>
-      <c r="T50" s="312"/>
+      <c r="Q50" s="314"/>
+      <c r="R50" s="314"/>
+      <c r="S50" s="314"/>
+      <c r="T50" s="314"/>
     </row>
     <row r="51" spans="2:20" ht="25.5">
       <c r="B51" s="239"/>
@@ -32586,10 +32597,10 @@
         <v>2046</v>
       </c>
       <c r="P51" s="15"/>
-      <c r="Q51" s="312"/>
-      <c r="R51" s="312"/>
-      <c r="S51" s="312"/>
-      <c r="T51" s="312"/>
+      <c r="Q51" s="314"/>
+      <c r="R51" s="314"/>
+      <c r="S51" s="314"/>
+      <c r="T51" s="314"/>
     </row>
     <row r="52" spans="2:20" ht="25.5">
       <c r="B52" s="239"/>
@@ -32650,16 +32661,16 @@
         <v>2406</v>
       </c>
       <c r="P53" s="15"/>
-      <c r="Q53" s="311" t="s">
+      <c r="Q53" s="312" t="s">
         <v>2405</v>
       </c>
-      <c r="R53" s="311" t="s">
+      <c r="R53" s="312" t="s">
         <v>2049</v>
       </c>
-      <c r="S53" s="311" t="s">
+      <c r="S53" s="312" t="s">
         <v>2407</v>
       </c>
-      <c r="T53" s="311" t="s">
+      <c r="T53" s="312" t="s">
         <v>2408</v>
       </c>
     </row>
@@ -32687,10 +32698,10 @@
       <c r="P54" s="14" t="s">
         <v>2055</v>
       </c>
-      <c r="Q54" s="312"/>
-      <c r="R54" s="312"/>
-      <c r="S54" s="312"/>
-      <c r="T54" s="312"/>
+      <c r="Q54" s="314"/>
+      <c r="R54" s="314"/>
+      <c r="S54" s="314"/>
+      <c r="T54" s="314"/>
     </row>
     <row r="55" spans="2:20" ht="25.5">
       <c r="B55" s="239"/>
@@ -32722,10 +32733,10 @@
         <v>2058</v>
       </c>
       <c r="P55" s="15"/>
-      <c r="Q55" s="312"/>
-      <c r="R55" s="312"/>
-      <c r="S55" s="312"/>
-      <c r="T55" s="312"/>
+      <c r="Q55" s="314"/>
+      <c r="R55" s="314"/>
+      <c r="S55" s="314"/>
+      <c r="T55" s="314"/>
     </row>
     <row r="56" spans="2:20" ht="25.5">
       <c r="B56" s="239"/>
@@ -32757,7 +32768,7 @@
       <c r="T56" s="313"/>
     </row>
     <row r="57" spans="2:20" ht="25.5">
-      <c r="B57" s="316" t="s">
+      <c r="B57" s="315" t="s">
         <v>2410</v>
       </c>
       <c r="C57" s="16" t="s">
@@ -32786,19 +32797,19 @@
         <v>2065</v>
       </c>
       <c r="P57" s="15"/>
-      <c r="Q57" s="311" t="s">
+      <c r="Q57" s="312" t="s">
         <v>2414</v>
       </c>
-      <c r="R57" s="311" t="s">
+      <c r="R57" s="312" t="s">
         <v>2415</v>
       </c>
-      <c r="S57" s="311" t="s">
+      <c r="S57" s="312" t="s">
         <v>2062</v>
       </c>
-      <c r="T57" s="311"/>
+      <c r="T57" s="312"/>
     </row>
     <row r="58" spans="2:20" ht="25.5">
-      <c r="B58" s="317"/>
+      <c r="B58" s="316"/>
       <c r="C58" s="16" t="s">
         <v>525</v>
       </c>
@@ -32828,10 +32839,10 @@
       <c r="Q58" s="313"/>
       <c r="R58" s="313"/>
       <c r="S58" s="313"/>
-      <c r="T58" s="312"/>
+      <c r="T58" s="314"/>
     </row>
     <row r="59" spans="2:20" ht="25.5">
-      <c r="B59" s="317"/>
+      <c r="B59" s="316"/>
       <c r="C59" s="16" t="s">
         <v>2072</v>
       </c>
@@ -32867,10 +32878,10 @@
       <c r="S59" s="12" t="s">
         <v>2071</v>
       </c>
-      <c r="T59" s="312"/>
+      <c r="T59" s="314"/>
     </row>
     <row r="60" spans="2:20" ht="25.5">
-      <c r="B60" s="318"/>
+      <c r="B60" s="317"/>
       <c r="C60" s="16" t="s">
         <v>517</v>
       </c>
@@ -32906,10 +32917,10 @@
       <c r="S60" s="12" t="s">
         <v>2078</v>
       </c>
-      <c r="T60" s="312"/>
+      <c r="T60" s="314"/>
     </row>
     <row r="61" spans="2:20" ht="25.5">
-      <c r="B61" s="316" t="s">
+      <c r="B61" s="315" t="s">
         <v>2424</v>
       </c>
       <c r="C61" s="16" t="s">
@@ -32938,19 +32949,19 @@
         <v>2088</v>
       </c>
       <c r="P61" s="15"/>
-      <c r="Q61" s="311" t="s">
+      <c r="Q61" s="312" t="s">
         <v>2426</v>
       </c>
-      <c r="R61" s="311" t="s">
+      <c r="R61" s="312" t="s">
         <v>2427</v>
       </c>
-      <c r="S61" s="311" t="s">
+      <c r="S61" s="312" t="s">
         <v>2085</v>
       </c>
-      <c r="T61" s="312"/>
+      <c r="T61" s="314"/>
     </row>
     <row r="62" spans="2:20" ht="25.5">
-      <c r="B62" s="318"/>
+      <c r="B62" s="317"/>
       <c r="C62" s="16" t="s">
         <v>540</v>
       </c>
@@ -32984,7 +32995,7 @@
       <c r="Q62" s="313"/>
       <c r="R62" s="313"/>
       <c r="S62" s="313"/>
-      <c r="T62" s="312"/>
+      <c r="T62" s="314"/>
     </row>
     <row r="63" spans="2:20" ht="25.5">
       <c r="B63" s="16" t="s">
@@ -33063,16 +33074,16 @@
         <v>2104</v>
       </c>
       <c r="P64" s="15"/>
-      <c r="Q64" s="311" t="s">
+      <c r="Q64" s="312" t="s">
         <v>2434</v>
       </c>
-      <c r="R64" s="311" t="s">
+      <c r="R64" s="312" t="s">
         <v>2099</v>
       </c>
-      <c r="S64" s="311" t="s">
+      <c r="S64" s="312" t="s">
         <v>2100</v>
       </c>
-      <c r="T64" s="311" t="s">
+      <c r="T64" s="312" t="s">
         <v>2435</v>
       </c>
     </row>
@@ -33100,10 +33111,10 @@
       <c r="P65" s="14" t="s">
         <v>2436</v>
       </c>
-      <c r="Q65" s="312"/>
-      <c r="R65" s="312"/>
-      <c r="S65" s="312"/>
-      <c r="T65" s="312"/>
+      <c r="Q65" s="314"/>
+      <c r="R65" s="314"/>
+      <c r="S65" s="314"/>
+      <c r="T65" s="314"/>
     </row>
     <row r="66" spans="2:20" ht="25.5">
       <c r="B66" s="239"/>
@@ -33135,10 +33146,10 @@
         <v>2108</v>
       </c>
       <c r="P66" s="15"/>
-      <c r="Q66" s="312"/>
-      <c r="R66" s="312"/>
-      <c r="S66" s="312"/>
-      <c r="T66" s="312"/>
+      <c r="Q66" s="314"/>
+      <c r="R66" s="314"/>
+      <c r="S66" s="314"/>
+      <c r="T66" s="314"/>
     </row>
     <row r="67" spans="2:20" ht="25.5">
       <c r="B67" s="239"/>
@@ -33205,16 +33216,16 @@
         <v>2440</v>
       </c>
       <c r="P68" s="15"/>
-      <c r="Q68" s="311" t="s">
+      <c r="Q68" s="312" t="s">
         <v>2441</v>
       </c>
-      <c r="R68" s="311" t="s">
+      <c r="R68" s="312" t="s">
         <v>2114</v>
       </c>
-      <c r="S68" s="311" t="s">
+      <c r="S68" s="312" t="s">
         <v>2442</v>
       </c>
-      <c r="T68" s="311" t="s">
+      <c r="T68" s="312" t="s">
         <v>2116</v>
       </c>
     </row>
@@ -33246,10 +33257,10 @@
       <c r="P69" s="14" t="s">
         <v>2117</v>
       </c>
-      <c r="Q69" s="312"/>
-      <c r="R69" s="312"/>
-      <c r="S69" s="312"/>
-      <c r="T69" s="312"/>
+      <c r="Q69" s="314"/>
+      <c r="R69" s="314"/>
+      <c r="S69" s="314"/>
+      <c r="T69" s="314"/>
     </row>
     <row r="70" spans="2:20" ht="25.5">
       <c r="B70" s="239"/>
@@ -33281,10 +33292,10 @@
         <v>2120</v>
       </c>
       <c r="P70" s="15"/>
-      <c r="Q70" s="312"/>
-      <c r="R70" s="312"/>
-      <c r="S70" s="312"/>
-      <c r="T70" s="312"/>
+      <c r="Q70" s="314"/>
+      <c r="R70" s="314"/>
+      <c r="S70" s="314"/>
+      <c r="T70" s="314"/>
     </row>
     <row r="71" spans="2:20" ht="25.5">
       <c r="B71" s="239"/>
@@ -33310,10 +33321,10 @@
       <c r="P71" s="14" t="s">
         <v>2121</v>
       </c>
-      <c r="Q71" s="312"/>
-      <c r="R71" s="312"/>
-      <c r="S71" s="312"/>
-      <c r="T71" s="312"/>
+      <c r="Q71" s="314"/>
+      <c r="R71" s="314"/>
+      <c r="S71" s="314"/>
+      <c r="T71" s="314"/>
     </row>
     <row r="72" spans="2:20" ht="25.5">
       <c r="B72" s="239"/>
@@ -33345,10 +33356,10 @@
         <v>2124</v>
       </c>
       <c r="P72" s="15"/>
-      <c r="Q72" s="312"/>
-      <c r="R72" s="312"/>
-      <c r="S72" s="312"/>
-      <c r="T72" s="312"/>
+      <c r="Q72" s="314"/>
+      <c r="R72" s="314"/>
+      <c r="S72" s="314"/>
+      <c r="T72" s="314"/>
     </row>
     <row r="73" spans="2:20" ht="25.5">
       <c r="B73" s="239"/>
@@ -33409,16 +33420,16 @@
         <v>2129</v>
       </c>
       <c r="P74" s="15"/>
-      <c r="Q74" s="311" t="s">
+      <c r="Q74" s="312" t="s">
         <v>2447</v>
       </c>
-      <c r="R74" s="311" t="s">
+      <c r="R74" s="312" t="s">
         <v>2131</v>
       </c>
-      <c r="S74" s="311" t="s">
+      <c r="S74" s="312" t="s">
         <v>2132</v>
       </c>
-      <c r="T74" s="311" t="s">
+      <c r="T74" s="312" t="s">
         <v>2133</v>
       </c>
     </row>
@@ -33481,16 +33492,16 @@
         <v>2137</v>
       </c>
       <c r="P76" s="15"/>
-      <c r="Q76" s="311" t="s">
+      <c r="Q76" s="312" t="s">
         <v>2138</v>
       </c>
-      <c r="R76" s="311" t="s">
+      <c r="R76" s="312" t="s">
         <v>2451</v>
       </c>
-      <c r="S76" s="311" t="s">
+      <c r="S76" s="312" t="s">
         <v>2140</v>
       </c>
-      <c r="T76" s="311" t="s">
+      <c r="T76" s="312" t="s">
         <v>2141</v>
       </c>
     </row>
@@ -33518,10 +33529,10 @@
       <c r="P77" s="14" t="s">
         <v>2142</v>
       </c>
-      <c r="Q77" s="312"/>
-      <c r="R77" s="312"/>
-      <c r="S77" s="312"/>
-      <c r="T77" s="312"/>
+      <c r="Q77" s="314"/>
+      <c r="R77" s="314"/>
+      <c r="S77" s="314"/>
+      <c r="T77" s="314"/>
     </row>
     <row r="78" spans="2:20" ht="25.5">
       <c r="B78" s="239"/>
@@ -33553,10 +33564,10 @@
         <v>2145</v>
       </c>
       <c r="P78" s="15"/>
-      <c r="Q78" s="312"/>
-      <c r="R78" s="312"/>
-      <c r="S78" s="312"/>
-      <c r="T78" s="312"/>
+      <c r="Q78" s="314"/>
+      <c r="R78" s="314"/>
+      <c r="S78" s="314"/>
+      <c r="T78" s="314"/>
     </row>
     <row r="79" spans="2:20" ht="25.5">
       <c r="B79" s="239"/>
@@ -33617,16 +33628,16 @@
         <v>2456</v>
       </c>
       <c r="P80" s="15"/>
-      <c r="Q80" s="311" t="s">
+      <c r="Q80" s="312" t="s">
         <v>2150</v>
       </c>
-      <c r="R80" s="311" t="s">
+      <c r="R80" s="312" t="s">
         <v>2151</v>
       </c>
-      <c r="S80" s="311" t="s">
+      <c r="S80" s="312" t="s">
         <v>2457</v>
       </c>
-      <c r="T80" s="311"/>
+      <c r="T80" s="312"/>
     </row>
     <row r="81" spans="2:20" ht="25.5">
       <c r="B81" s="239"/>
@@ -33656,10 +33667,10 @@
         <v>2459</v>
       </c>
       <c r="P81" s="15"/>
-      <c r="Q81" s="312"/>
-      <c r="R81" s="312"/>
-      <c r="S81" s="312"/>
-      <c r="T81" s="312"/>
+      <c r="Q81" s="314"/>
+      <c r="R81" s="314"/>
+      <c r="S81" s="314"/>
+      <c r="T81" s="314"/>
     </row>
     <row r="82" spans="2:20" ht="25.5">
       <c r="B82" s="239"/>
@@ -33724,16 +33735,16 @@
         <v>2161</v>
       </c>
       <c r="P83" s="15"/>
-      <c r="Q83" s="311" t="s">
+      <c r="Q83" s="312" t="s">
         <v>2162</v>
       </c>
-      <c r="R83" s="311" t="s">
+      <c r="R83" s="312" t="s">
         <v>2163</v>
       </c>
-      <c r="S83" s="311" t="s">
+      <c r="S83" s="312" t="s">
         <v>2164</v>
       </c>
-      <c r="T83" s="311" t="s">
+      <c r="T83" s="312" t="s">
         <v>2165</v>
       </c>
     </row>
@@ -33794,16 +33805,16 @@
         <v>2169</v>
       </c>
       <c r="P85" s="15"/>
-      <c r="Q85" s="311" t="s">
+      <c r="Q85" s="312" t="s">
         <v>2170</v>
       </c>
-      <c r="R85" s="311" t="s">
+      <c r="R85" s="312" t="s">
         <v>2171</v>
       </c>
-      <c r="S85" s="311" t="s">
+      <c r="S85" s="312" t="s">
         <v>2172</v>
       </c>
-      <c r="T85" s="311" t="s">
+      <c r="T85" s="312" t="s">
         <v>2173</v>
       </c>
     </row>
@@ -33829,10 +33840,10 @@
       <c r="P86" s="14" t="s">
         <v>2174</v>
       </c>
-      <c r="Q86" s="312"/>
-      <c r="R86" s="312"/>
-      <c r="S86" s="312"/>
-      <c r="T86" s="312"/>
+      <c r="Q86" s="314"/>
+      <c r="R86" s="314"/>
+      <c r="S86" s="314"/>
+      <c r="T86" s="314"/>
     </row>
     <row r="87" spans="2:20" ht="25.5">
       <c r="B87" s="239"/>
@@ -33862,10 +33873,10 @@
         <v>2177</v>
       </c>
       <c r="P87" s="15"/>
-      <c r="Q87" s="312"/>
-      <c r="R87" s="312"/>
-      <c r="S87" s="312"/>
-      <c r="T87" s="312"/>
+      <c r="Q87" s="314"/>
+      <c r="R87" s="314"/>
+      <c r="S87" s="314"/>
+      <c r="T87" s="314"/>
     </row>
     <row r="88" spans="2:20" ht="25.5">
       <c r="B88" s="239"/>
@@ -33922,16 +33933,16 @@
         <v>2181</v>
       </c>
       <c r="P89" s="15"/>
-      <c r="Q89" s="311" t="s">
+      <c r="Q89" s="312" t="s">
         <v>2182</v>
       </c>
-      <c r="R89" s="311" t="s">
+      <c r="R89" s="312" t="s">
         <v>2183</v>
       </c>
-      <c r="S89" s="311" t="s">
+      <c r="S89" s="312" t="s">
         <v>2184</v>
       </c>
-      <c r="T89" s="311" t="s">
+      <c r="T89" s="312" t="s">
         <v>2185</v>
       </c>
     </row>
@@ -33957,10 +33968,10 @@
       <c r="P90" s="14" t="s">
         <v>2186</v>
       </c>
-      <c r="Q90" s="312"/>
-      <c r="R90" s="312"/>
-      <c r="S90" s="312"/>
-      <c r="T90" s="312"/>
+      <c r="Q90" s="314"/>
+      <c r="R90" s="314"/>
+      <c r="S90" s="314"/>
+      <c r="T90" s="314"/>
     </row>
     <row r="91" spans="2:20" ht="25.5">
       <c r="B91" s="239"/>
@@ -33990,10 +34001,10 @@
         <v>2189</v>
       </c>
       <c r="P91" s="15"/>
-      <c r="Q91" s="312"/>
-      <c r="R91" s="312"/>
-      <c r="S91" s="312"/>
-      <c r="T91" s="312"/>
+      <c r="Q91" s="314"/>
+      <c r="R91" s="314"/>
+      <c r="S91" s="314"/>
+      <c r="T91" s="314"/>
     </row>
     <row r="92" spans="2:20" ht="25.5">
       <c r="B92" s="239"/>
@@ -34050,16 +34061,16 @@
         <v>2472</v>
       </c>
       <c r="P93" s="15"/>
-      <c r="Q93" s="311" t="s">
+      <c r="Q93" s="312" t="s">
         <v>2473</v>
       </c>
-      <c r="R93" s="311" t="s">
+      <c r="R93" s="312" t="s">
         <v>2200</v>
       </c>
-      <c r="S93" s="311" t="s">
+      <c r="S93" s="312" t="s">
         <v>2474</v>
       </c>
-      <c r="T93" s="311" t="s">
+      <c r="T93" s="312" t="s">
         <v>2202</v>
       </c>
     </row>
@@ -34085,10 +34096,10 @@
       <c r="P94" s="14" t="s">
         <v>2203</v>
       </c>
-      <c r="Q94" s="312"/>
-      <c r="R94" s="312"/>
-      <c r="S94" s="312"/>
-      <c r="T94" s="312"/>
+      <c r="Q94" s="314"/>
+      <c r="R94" s="314"/>
+      <c r="S94" s="314"/>
+      <c r="T94" s="314"/>
     </row>
     <row r="95" spans="2:20" ht="25.5">
       <c r="B95" s="239"/>
@@ -34118,10 +34129,10 @@
         <v>2478</v>
       </c>
       <c r="P95" s="15"/>
-      <c r="Q95" s="312"/>
-      <c r="R95" s="312"/>
-      <c r="S95" s="312"/>
-      <c r="T95" s="312"/>
+      <c r="Q95" s="314"/>
+      <c r="R95" s="314"/>
+      <c r="S95" s="314"/>
+      <c r="T95" s="314"/>
     </row>
     <row r="96" spans="2:20" ht="25.5">
       <c r="B96" s="239"/>
@@ -34145,10 +34156,10 @@
       <c r="P96" s="14" t="s">
         <v>2207</v>
       </c>
-      <c r="Q96" s="312"/>
-      <c r="R96" s="312"/>
-      <c r="S96" s="312"/>
-      <c r="T96" s="312"/>
+      <c r="Q96" s="314"/>
+      <c r="R96" s="314"/>
+      <c r="S96" s="314"/>
+      <c r="T96" s="314"/>
     </row>
     <row r="97" spans="2:20" ht="25.5">
       <c r="B97" s="239"/>
@@ -34178,10 +34189,10 @@
         <v>2481</v>
       </c>
       <c r="P97" s="15"/>
-      <c r="Q97" s="312"/>
-      <c r="R97" s="312"/>
-      <c r="S97" s="312"/>
-      <c r="T97" s="312"/>
+      <c r="Q97" s="314"/>
+      <c r="R97" s="314"/>
+      <c r="S97" s="314"/>
+      <c r="T97" s="314"/>
     </row>
     <row r="98" spans="2:20" ht="25.5">
       <c r="B98" s="239"/>
@@ -34205,10 +34216,10 @@
       <c r="P98" s="14" t="s">
         <v>2195</v>
       </c>
-      <c r="Q98" s="312"/>
-      <c r="R98" s="312"/>
-      <c r="S98" s="312"/>
-      <c r="T98" s="312"/>
+      <c r="Q98" s="314"/>
+      <c r="R98" s="314"/>
+      <c r="S98" s="314"/>
+      <c r="T98" s="314"/>
     </row>
     <row r="99" spans="2:20" ht="25.5">
       <c r="B99" s="239"/>
@@ -34238,10 +34249,10 @@
         <v>2484</v>
       </c>
       <c r="P99" s="15"/>
-      <c r="Q99" s="312"/>
-      <c r="R99" s="312"/>
-      <c r="S99" s="312"/>
-      <c r="T99" s="312"/>
+      <c r="Q99" s="314"/>
+      <c r="R99" s="314"/>
+      <c r="S99" s="314"/>
+      <c r="T99" s="314"/>
     </row>
     <row r="100" spans="2:20" ht="25.5">
       <c r="B100" s="239"/>
@@ -34277,98 +34288,49 @@
     </row>
   </sheetData>
   <mergeCells count="159">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="S7:S10"/>
-    <mergeCell ref="T7:T10"/>
-    <mergeCell ref="B29:B44"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C85:C86"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="B45:B56"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B57:B60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="B85:B100"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="B76:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C91:C92"/>
-    <mergeCell ref="Q18:Q19"/>
-    <mergeCell ref="R18:R19"/>
-    <mergeCell ref="S18:S19"/>
-    <mergeCell ref="T18:T19"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="T20:T21"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="Q13:Q15"/>
-    <mergeCell ref="R13:R15"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="T13:T15"/>
-    <mergeCell ref="Q29:Q34"/>
-    <mergeCell ref="R33:R34"/>
-    <mergeCell ref="Q23:Q24"/>
-    <mergeCell ref="R23:R24"/>
-    <mergeCell ref="T23:T24"/>
-    <mergeCell ref="S23:S25"/>
-    <mergeCell ref="Q26:Q27"/>
-    <mergeCell ref="R26:R27"/>
-    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="Q93:Q100"/>
+    <mergeCell ref="R93:R100"/>
+    <mergeCell ref="S93:S100"/>
+    <mergeCell ref="T93:T100"/>
+    <mergeCell ref="Q85:Q88"/>
+    <mergeCell ref="R85:R88"/>
+    <mergeCell ref="S85:S88"/>
+    <mergeCell ref="T85:T88"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="S89:S92"/>
+    <mergeCell ref="T89:T92"/>
+    <mergeCell ref="Q80:Q82"/>
+    <mergeCell ref="R80:R82"/>
+    <mergeCell ref="S80:S82"/>
+    <mergeCell ref="T80:T82"/>
+    <mergeCell ref="Q83:Q84"/>
+    <mergeCell ref="R83:R84"/>
+    <mergeCell ref="S83:S84"/>
+    <mergeCell ref="T83:T84"/>
+    <mergeCell ref="Q74:Q75"/>
+    <mergeCell ref="R74:R75"/>
+    <mergeCell ref="S74:S75"/>
+    <mergeCell ref="T74:T75"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="S76:S79"/>
+    <mergeCell ref="T76:T79"/>
+    <mergeCell ref="Q68:Q73"/>
+    <mergeCell ref="R68:R73"/>
+    <mergeCell ref="S68:S73"/>
+    <mergeCell ref="T68:T73"/>
+    <mergeCell ref="Q64:Q67"/>
+    <mergeCell ref="R64:R67"/>
+    <mergeCell ref="S64:S67"/>
+    <mergeCell ref="T64:T67"/>
+    <mergeCell ref="Q57:Q58"/>
+    <mergeCell ref="R57:R58"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="S61:S62"/>
+    <mergeCell ref="T57:T63"/>
     <mergeCell ref="Q49:Q52"/>
     <mergeCell ref="R49:R52"/>
     <mergeCell ref="S49:S52"/>
@@ -34393,49 +34355,98 @@
     <mergeCell ref="R35:R38"/>
     <mergeCell ref="S35:S38"/>
     <mergeCell ref="T35:T38"/>
-    <mergeCell ref="Q68:Q73"/>
-    <mergeCell ref="R68:R73"/>
-    <mergeCell ref="S68:S73"/>
-    <mergeCell ref="T68:T73"/>
-    <mergeCell ref="Q64:Q67"/>
-    <mergeCell ref="R64:R67"/>
-    <mergeCell ref="S64:S67"/>
-    <mergeCell ref="T64:T67"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="S57:S58"/>
-    <mergeCell ref="Q61:Q62"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T57:T63"/>
-    <mergeCell ref="Q80:Q82"/>
-    <mergeCell ref="R80:R82"/>
-    <mergeCell ref="S80:S82"/>
-    <mergeCell ref="T80:T82"/>
-    <mergeCell ref="Q83:Q84"/>
-    <mergeCell ref="R83:R84"/>
-    <mergeCell ref="S83:S84"/>
-    <mergeCell ref="T83:T84"/>
-    <mergeCell ref="Q74:Q75"/>
-    <mergeCell ref="R74:R75"/>
-    <mergeCell ref="S74:S75"/>
-    <mergeCell ref="T74:T75"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="S76:S79"/>
-    <mergeCell ref="T76:T79"/>
-    <mergeCell ref="Q93:Q100"/>
-    <mergeCell ref="R93:R100"/>
-    <mergeCell ref="S93:S100"/>
-    <mergeCell ref="T93:T100"/>
-    <mergeCell ref="Q85:Q88"/>
-    <mergeCell ref="R85:R88"/>
-    <mergeCell ref="S85:S88"/>
-    <mergeCell ref="T85:T88"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="S89:S92"/>
-    <mergeCell ref="T89:T92"/>
+    <mergeCell ref="Q29:Q34"/>
+    <mergeCell ref="R33:R34"/>
+    <mergeCell ref="Q23:Q24"/>
+    <mergeCell ref="R23:R24"/>
+    <mergeCell ref="T23:T24"/>
+    <mergeCell ref="S23:S25"/>
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="R26:R27"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="Q18:Q19"/>
+    <mergeCell ref="R18:R19"/>
+    <mergeCell ref="S18:S19"/>
+    <mergeCell ref="T18:T19"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="T20:T21"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="Q13:Q15"/>
+    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="S13:S15"/>
+    <mergeCell ref="T13:T15"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="B85:B100"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B57:B60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B29:B44"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="S7:S10"/>
+    <mergeCell ref="T7:T10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -35554,58 +35565,58 @@
       </c>
       <c r="C2" s="331"/>
       <c r="D2" s="331"/>
-      <c r="E2" s="330" t="s">
+      <c r="E2" s="328" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="330"/>
-      <c r="G2" s="330"/>
-      <c r="H2" s="330"/>
-      <c r="I2" s="330" t="s">
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
+      <c r="H2" s="328"/>
+      <c r="I2" s="328" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="330"/>
-      <c r="K2" s="330"/>
-      <c r="L2" s="330"/>
-      <c r="M2" s="330" t="s">
+      <c r="J2" s="328"/>
+      <c r="K2" s="328"/>
+      <c r="L2" s="328"/>
+      <c r="M2" s="328" t="s">
         <v>66</v>
       </c>
-      <c r="N2" s="330"/>
-      <c r="O2" s="330"/>
-      <c r="P2" s="330"/>
-      <c r="Q2" s="330" t="s">
+      <c r="N2" s="328"/>
+      <c r="O2" s="328"/>
+      <c r="P2" s="328"/>
+      <c r="Q2" s="328" t="s">
         <v>79</v>
       </c>
-      <c r="R2" s="330"/>
-      <c r="S2" s="330"/>
-      <c r="T2" s="330"/>
-      <c r="U2" s="330"/>
-      <c r="V2" s="330" t="s">
+      <c r="R2" s="328"/>
+      <c r="S2" s="328"/>
+      <c r="T2" s="328"/>
+      <c r="U2" s="328"/>
+      <c r="V2" s="328" t="s">
         <v>96</v>
       </c>
-      <c r="W2" s="330"/>
-      <c r="X2" s="330"/>
-      <c r="Y2" s="330"/>
-      <c r="Z2" s="330"/>
-      <c r="AA2" s="330" t="s">
+      <c r="W2" s="328"/>
+      <c r="X2" s="328"/>
+      <c r="Y2" s="328"/>
+      <c r="Z2" s="328"/>
+      <c r="AA2" s="328" t="s">
         <v>112</v>
       </c>
-      <c r="AB2" s="330"/>
-      <c r="AC2" s="330"/>
-      <c r="AD2" s="330"/>
-      <c r="AE2" s="330"/>
-      <c r="AF2" s="330" t="s">
+      <c r="AB2" s="328"/>
+      <c r="AC2" s="328"/>
+      <c r="AD2" s="328"/>
+      <c r="AE2" s="328"/>
+      <c r="AF2" s="328" t="s">
         <v>123</v>
       </c>
-      <c r="AG2" s="330"/>
-      <c r="AH2" s="330"/>
-      <c r="AI2" s="330"/>
-      <c r="AJ2" s="330" t="s">
+      <c r="AG2" s="328"/>
+      <c r="AH2" s="328"/>
+      <c r="AI2" s="328"/>
+      <c r="AJ2" s="328" t="s">
         <v>138</v>
       </c>
-      <c r="AK2" s="330"/>
-      <c r="AL2" s="330"/>
-      <c r="AM2" s="330"/>
-      <c r="AN2" s="330"/>
+      <c r="AK2" s="328"/>
+      <c r="AL2" s="328"/>
+      <c r="AM2" s="328"/>
+      <c r="AN2" s="328"/>
       <c r="AO2" s="52" t="s">
         <v>154</v>
       </c>
@@ -35733,10 +35744,10 @@
       </c>
     </row>
     <row r="4" spans="2:42">
-      <c r="B4" s="328" t="s">
+      <c r="B4" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="329" t="s">
+      <c r="C4" s="330" t="s">
         <v>174</v>
       </c>
       <c r="D4" s="51" t="s">
@@ -35814,8 +35825,8 @@
       <c r="AP4" s="51"/>
     </row>
     <row r="5" spans="2:42">
-      <c r="B5" s="328"/>
-      <c r="C5" s="329"/>
+      <c r="B5" s="329"/>
+      <c r="C5" s="330"/>
       <c r="D5" s="51" t="s">
         <v>191</v>
       </c>
@@ -35859,8 +35870,8 @@
       <c r="AP5" s="51"/>
     </row>
     <row r="6" spans="2:42">
-      <c r="B6" s="328"/>
-      <c r="C6" s="329"/>
+      <c r="B6" s="329"/>
+      <c r="C6" s="330"/>
       <c r="D6" s="51" t="s">
         <v>179</v>
       </c>
@@ -35940,8 +35951,8 @@
       </c>
     </row>
     <row r="7" spans="2:42">
-      <c r="B7" s="328"/>
-      <c r="C7" s="329"/>
+      <c r="B7" s="329"/>
+      <c r="C7" s="330"/>
       <c r="D7" s="51" t="s">
         <v>335</v>
       </c>
@@ -35985,8 +35996,8 @@
       <c r="AP7" s="51"/>
     </row>
     <row r="8" spans="2:42">
-      <c r="B8" s="328"/>
-      <c r="C8" s="329" t="s">
+      <c r="B8" s="329"/>
+      <c r="C8" s="330" t="s">
         <v>220</v>
       </c>
       <c r="D8" s="51" t="s">
@@ -36032,8 +36043,8 @@
       <c r="AP8" s="51"/>
     </row>
     <row r="9" spans="2:42">
-      <c r="B9" s="328"/>
-      <c r="C9" s="329"/>
+      <c r="B9" s="329"/>
+      <c r="C9" s="330"/>
       <c r="D9" s="51" t="s">
         <v>191</v>
       </c>
@@ -36077,8 +36088,8 @@
       <c r="AP9" s="51"/>
     </row>
     <row r="10" spans="2:42">
-      <c r="B10" s="328"/>
-      <c r="C10" s="329"/>
+      <c r="B10" s="329"/>
+      <c r="C10" s="330"/>
       <c r="D10" s="51" t="s">
         <v>179</v>
       </c>
@@ -36122,8 +36133,8 @@
       <c r="AP10" s="51"/>
     </row>
     <row r="11" spans="2:42">
-      <c r="B11" s="328"/>
-      <c r="C11" s="329"/>
+      <c r="B11" s="329"/>
+      <c r="C11" s="330"/>
       <c r="D11" s="51" t="s">
         <v>335</v>
       </c>
@@ -36167,10 +36178,10 @@
       <c r="AP11" s="51"/>
     </row>
     <row r="12" spans="2:42">
-      <c r="B12" s="328" t="s">
+      <c r="B12" s="329" t="s">
         <v>2590</v>
       </c>
-      <c r="C12" s="329" t="s">
+      <c r="C12" s="330" t="s">
         <v>174</v>
       </c>
       <c r="D12" s="51" t="s">
@@ -36244,8 +36255,8 @@
       <c r="AP12" s="51"/>
     </row>
     <row r="13" spans="2:42">
-      <c r="B13" s="328"/>
-      <c r="C13" s="329"/>
+      <c r="B13" s="329"/>
+      <c r="C13" s="330"/>
       <c r="D13" s="51" t="s">
         <v>191</v>
       </c>
@@ -36289,8 +36300,8 @@
       <c r="AP13" s="51"/>
     </row>
     <row r="14" spans="2:42">
-      <c r="B14" s="328"/>
-      <c r="C14" s="329"/>
+      <c r="B14" s="329"/>
+      <c r="C14" s="330"/>
       <c r="D14" s="51" t="s">
         <v>179</v>
       </c>
@@ -36334,8 +36345,8 @@
       <c r="AP14" s="51"/>
     </row>
     <row r="15" spans="2:42">
-      <c r="B15" s="328"/>
-      <c r="C15" s="329"/>
+      <c r="B15" s="329"/>
+      <c r="C15" s="330"/>
       <c r="D15" s="51" t="s">
         <v>335</v>
       </c>
@@ -36379,8 +36390,8 @@
       <c r="AP15" s="51"/>
     </row>
     <row r="16" spans="2:42">
-      <c r="B16" s="328"/>
-      <c r="C16" s="329" t="s">
+      <c r="B16" s="329"/>
+      <c r="C16" s="330" t="s">
         <v>220</v>
       </c>
       <c r="D16" s="51" t="s">
@@ -36426,8 +36437,8 @@
       <c r="AP16" s="51"/>
     </row>
     <row r="17" spans="2:42">
-      <c r="B17" s="328"/>
-      <c r="C17" s="329"/>
+      <c r="B17" s="329"/>
+      <c r="C17" s="330"/>
       <c r="D17" s="51" t="s">
         <v>191</v>
       </c>
@@ -36471,8 +36482,8 @@
       <c r="AP17" s="51"/>
     </row>
     <row r="18" spans="2:42">
-      <c r="B18" s="328"/>
-      <c r="C18" s="329"/>
+      <c r="B18" s="329"/>
+      <c r="C18" s="330"/>
       <c r="D18" s="51" t="s">
         <v>179</v>
       </c>
@@ -36516,8 +36527,8 @@
       <c r="AP18" s="51"/>
     </row>
     <row r="19" spans="2:42">
-      <c r="B19" s="328"/>
-      <c r="C19" s="329"/>
+      <c r="B19" s="329"/>
+      <c r="C19" s="330"/>
       <c r="D19" s="51" t="s">
         <v>335</v>
       </c>
@@ -36561,10 +36572,10 @@
       <c r="AP19" s="51"/>
     </row>
     <row r="20" spans="2:42">
-      <c r="B20" s="328" t="s">
+      <c r="B20" s="329" t="s">
         <v>2604</v>
       </c>
-      <c r="C20" s="329" t="s">
+      <c r="C20" s="330" t="s">
         <v>174</v>
       </c>
       <c r="D20" s="51" t="s">
@@ -36640,8 +36651,8 @@
       <c r="AP20" s="51"/>
     </row>
     <row r="21" spans="2:42">
-      <c r="B21" s="328"/>
-      <c r="C21" s="329"/>
+      <c r="B21" s="329"/>
+      <c r="C21" s="330"/>
       <c r="D21" s="51" t="s">
         <v>191</v>
       </c>
@@ -36685,8 +36696,8 @@
       <c r="AP21" s="51"/>
     </row>
     <row r="22" spans="2:42">
-      <c r="B22" s="328"/>
-      <c r="C22" s="329"/>
+      <c r="B22" s="329"/>
+      <c r="C22" s="330"/>
       <c r="D22" s="51" t="s">
         <v>179</v>
       </c>
@@ -36754,8 +36765,8 @@
       <c r="AP22" s="51"/>
     </row>
     <row r="23" spans="2:42">
-      <c r="B23" s="328"/>
-      <c r="C23" s="329"/>
+      <c r="B23" s="329"/>
+      <c r="C23" s="330"/>
       <c r="D23" s="51" t="s">
         <v>335</v>
       </c>
@@ -36799,8 +36810,8 @@
       <c r="AP23" s="51"/>
     </row>
     <row r="24" spans="2:42">
-      <c r="B24" s="328"/>
-      <c r="C24" s="329" t="s">
+      <c r="B24" s="329"/>
+      <c r="C24" s="330" t="s">
         <v>220</v>
       </c>
       <c r="D24" s="51" t="s">
@@ -36846,8 +36857,8 @@
       <c r="AP24" s="51"/>
     </row>
     <row r="25" spans="2:42">
-      <c r="B25" s="328"/>
-      <c r="C25" s="329"/>
+      <c r="B25" s="329"/>
+      <c r="C25" s="330"/>
       <c r="D25" s="51" t="s">
         <v>191</v>
       </c>
@@ -36891,8 +36902,8 @@
       <c r="AP25" s="51"/>
     </row>
     <row r="26" spans="2:42">
-      <c r="B26" s="328"/>
-      <c r="C26" s="329"/>
+      <c r="B26" s="329"/>
+      <c r="C26" s="330"/>
       <c r="D26" s="51" t="s">
         <v>179</v>
       </c>
@@ -36936,8 +36947,8 @@
       <c r="AP26" s="51"/>
     </row>
     <row r="27" spans="2:42">
-      <c r="B27" s="328"/>
-      <c r="C27" s="329"/>
+      <c r="B27" s="329"/>
+      <c r="C27" s="330"/>
       <c r="D27" s="51" t="s">
         <v>335</v>
       </c>
@@ -36981,10 +36992,10 @@
       <c r="AP27" s="51"/>
     </row>
     <row r="28" spans="2:42">
-      <c r="B28" s="328" t="s">
+      <c r="B28" s="329" t="s">
         <v>2629</v>
       </c>
-      <c r="C28" s="329" t="s">
+      <c r="C28" s="330" t="s">
         <v>174</v>
       </c>
       <c r="D28" s="51" t="s">
@@ -37064,8 +37075,8 @@
       <c r="AP28" s="51"/>
     </row>
     <row r="29" spans="2:42">
-      <c r="B29" s="328"/>
-      <c r="C29" s="329"/>
+      <c r="B29" s="329"/>
+      <c r="C29" s="330"/>
       <c r="D29" s="51" t="s">
         <v>191</v>
       </c>
@@ -37109,8 +37120,8 @@
       <c r="AP29" s="51"/>
     </row>
     <row r="30" spans="2:42">
-      <c r="B30" s="328"/>
-      <c r="C30" s="329"/>
+      <c r="B30" s="329"/>
+      <c r="C30" s="330"/>
       <c r="D30" s="51" t="s">
         <v>179</v>
       </c>
@@ -37212,8 +37223,8 @@
       </c>
     </row>
     <row r="31" spans="2:42">
-      <c r="B31" s="328"/>
-      <c r="C31" s="329"/>
+      <c r="B31" s="329"/>
+      <c r="C31" s="330"/>
       <c r="D31" s="51" t="s">
         <v>335</v>
       </c>
@@ -37257,8 +37268,8 @@
       <c r="AP31" s="51"/>
     </row>
     <row r="32" spans="2:42">
-      <c r="B32" s="328"/>
-      <c r="C32" s="329" t="s">
+      <c r="B32" s="329"/>
+      <c r="C32" s="330" t="s">
         <v>220</v>
       </c>
       <c r="D32" s="51" t="s">
@@ -37304,8 +37315,8 @@
       <c r="AP32" s="51"/>
     </row>
     <row r="33" spans="2:42">
-      <c r="B33" s="328"/>
-      <c r="C33" s="329"/>
+      <c r="B33" s="329"/>
+      <c r="C33" s="330"/>
       <c r="D33" s="51" t="s">
         <v>191</v>
       </c>
@@ -37349,8 +37360,8 @@
       <c r="AP33" s="51"/>
     </row>
     <row r="34" spans="2:42">
-      <c r="B34" s="328"/>
-      <c r="C34" s="329"/>
+      <c r="B34" s="329"/>
+      <c r="C34" s="330"/>
       <c r="D34" s="51" t="s">
         <v>179</v>
       </c>
@@ -37394,8 +37405,8 @@
       <c r="AP34" s="51"/>
     </row>
     <row r="35" spans="2:42">
-      <c r="B35" s="328"/>
-      <c r="C35" s="329"/>
+      <c r="B35" s="329"/>
+      <c r="C35" s="330"/>
       <c r="D35" s="51" t="s">
         <v>335</v>
       </c>
@@ -37440,6 +37451,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B28:B35"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="B12:B19"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="B20:B27"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="C24:C27"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="AJ2:AN2"/>
@@ -37452,15 +37472,6 @@
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="V2:Z2"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="B12:B19"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="B20:B27"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C24:C27"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
